--- a/docs/鍵盤設計規格_河洛方音V2.xlsx
+++ b/docs/鍵盤設計規格_河洛方音V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE44BCF9-FB78-4B14-868D-EDCEE536EF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88CFCF7-A153-491F-AAC1-D40851D48861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="14" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="4080" yWindow="990" windowWidth="28980" windowHeight="15840" activeTab="14" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -2541,6 +2541,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄉㄊㄌㄍㄎ</t>
     </r>
@@ -2557,6 +2558,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄗㄘ</t>
     </r>
@@ -2573,6 +2575,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄙㄏㄧㄨㄚ</t>
     </r>
@@ -2589,6 +2592,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄜ</t>
     </r>
@@ -2605,6 +2609,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄞㄠ</t>
     </r>
@@ -2621,6 +2626,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>ㄣ</t>
     </r>
@@ -3411,6 +3417,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>n</t>
     </r>
@@ -3440,6 +3447,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3461,6 +3469,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3482,6 +3491,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3526,6 +3536,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3650,6 +3661,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3716,6 +3728,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3737,6 +3750,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3758,6 +3772,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3779,6 +3794,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3800,6 +3816,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3829,6 +3846,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3850,6 +3868,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -3871,6 +3890,7 @@
       <rPr>
         <sz val="18"/>
         <rFont val="宋体"/>
+        <charset val="136"/>
       </rPr>
       <t>]</t>
     </r>
@@ -4488,12 +4508,14 @@
     <font>
       <sz val="20"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -4550,6 +4572,7 @@
     <font>
       <sz val="18"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4789,6 +4812,7 @@
       <sz val="18"/>
       <color rgb="FF0070C0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="18"/>
@@ -4993,6 +5017,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5046,6 +5071,7 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5057,6 +5083,7 @@
       <sz val="16"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5069,6 +5096,7 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5081,6 +5109,7 @@
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5162,6 +5191,7 @@
       <sz val="12"/>
       <color theme="9"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5237,6 +5267,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5392,6 +5423,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -5477,6 +5509,7 @@
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <charset val="136"/>
     </font>
     <font>
       <b/>
@@ -6320,7 +6353,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="121" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="530">
+  <cellXfs count="529">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7514,13 +7547,85 @@
     <xf numFmtId="0" fontId="209" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="184" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7541,28 +7646,22 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7574,79 +7673,13 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7656,27 +7689,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7697,6 +7709,42 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7709,43 +7757,19 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7754,10 +7778,19 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7784,24 +7817,23 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="184" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -7812,31 +7844,6 @@
     <cellStyle name="一般 4" xfId="4" xr:uid="{EEC31A27-66EA-4D5E-A3E5-D3011515E366}"/>
   </cellStyles>
   <dxfs count="45">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Noto Serif TC Medium"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFDE9D9"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -8659,6 +8666,31 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Noto Serif TC Medium"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFDE9D9"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -10021,32 +10053,32 @@
   <autoFilter ref="BE8:BI58" xr:uid="{3B0A2C71-8D94-4593-BB80-02894E7265FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D9F72C05-D20D-4E41-8CD2-D47EAAAB5061}" name="序號" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{76A9377C-B27C-473A-9EE0-1A8D4D0670E7}" name="按鍵字元" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{8FDE1FB4-060C-4E19-B8BF-5C3C23E94F36}" name="注音符號" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{B077E65C-C950-4D47-87A9-DCEDC0F350CF}" name="拼音字母" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{D04A69C4-37A4-4EBC-9A00-BFE435BF9DCB}" name="字典編碼" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{76A9377C-B27C-473A-9EE0-1A8D4D0670E7}" name="按鍵字元" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{8FDE1FB4-060C-4E19-B8BF-5C3C23E94F36}" name="注音符號" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{B077E65C-C950-4D47-87A9-DCEDC0F350CF}" name="拼音字母" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{D04A69C4-37A4-4EBC-9A00-BFE435BF9DCB}" name="字典編碼" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0A5C304E-9DC7-45E4-A86D-357CDF792B2C}" name="表格1_33710" displayName="表格1_33710" ref="T2:W57" totalsRowShown="0" headerRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0A5C304E-9DC7-45E4-A86D-357CDF792B2C}" name="表格1_33710" displayName="表格1_33710" ref="T2:W57" totalsRowShown="0" headerRowDxfId="37">
   <autoFilter ref="T2:W57" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T3:W56">
     <sortCondition ref="T3:T56" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{502CCAC3-68DF-4019-8D61-0F9887DBB31C}" name="鍵盤位置" dataDxfId="37">
+    <tableColumn id="1" xr3:uid="{502CCAC3-68DF-4019-8D61-0F9887DBB31C}" name="鍵盤位置" dataDxfId="36">
       <calculatedColumnFormula>I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BAE708E8-CF5B-4D0B-8DF5-70B9AD52CA64}" name="字典編碼" dataDxfId="36" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{BAE708E8-CF5B-4D0B-8DF5-70B9AD52CA64}" name="字典編碼" dataDxfId="35" dataCellStyle="一般 4">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{70BCF08F-E52C-4F2F-8F88-D7EDA4AC0303}" name="拼音字母" dataDxfId="35" dataCellStyle="一般 4">
+    <tableColumn id="3" xr3:uid="{70BCF08F-E52C-4F2F-8F88-D7EDA4AC0303}" name="拼音字母" dataDxfId="34" dataCellStyle="一般 4">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($Z$3:$Z$44, MATCH(表格1_33710[[#This Row],[方音符號]], $Y$3:$Y$44, 0)), "")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BE913433-5262-43B7-B46E-1156403EB33B}" name="方音符號" dataDxfId="34">
+    <tableColumn id="2" xr3:uid="{BE913433-5262-43B7-B46E-1156403EB33B}" name="方音符號" dataDxfId="33">
       <calculatedColumnFormula xml:space="preserve"> INDEX($M$3:$M$57, MATCH(表格1_33710[[#This Row],[鍵盤位置]], $L$3:$L$57,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10055,35 +10087,35 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{361CCB10-BA4B-4D7B-8613-7B8B08C99187}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{361CCB10-BA4B-4D7B-8613-7B8B08C99187}" name="表格7_9" displayName="表格7_9" ref="AV8:AZ58" totalsRowShown="0" headerRowBorderDxfId="32" tableBorderDxfId="31">
   <autoFilter ref="AV8:AZ58" xr:uid="{3B0A2C71-8D94-4593-BB80-02894E7265FE}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{71FDF87D-76C3-4355-BDAB-D340D8A9EEA4}" name="序號" dataDxfId="31">
+    <tableColumn id="1" xr3:uid="{71FDF87D-76C3-4355-BDAB-D340D8A9EEA4}" name="序號" dataDxfId="30">
       <calculatedColumnFormula array="1" xml:space="preserve"> ROW() - ROW($8:$8)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{9E4EDD55-425F-4D8F-B5B2-0E121FF194D3}" name="鍵盤按鍵" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{E2222704-3459-404D-83E7-C2590CA4EA13}" name="字典編碼" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{4739495F-D1EF-4573-A6B6-21C6ED436B59}" name="拼音字母" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{EEEEE2DE-12A7-40C0-B8C6-A9DE8229567C}" name="注音符號" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{9E4EDD55-425F-4D8F-B5B2-0E121FF194D3}" name="鍵盤按鍵" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{E2222704-3459-404D-83E7-C2590CA4EA13}" name="字典編碼" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{4739495F-D1EF-4573-A6B6-21C6ED436B59}" name="拼音字母" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{EEEEE2DE-12A7-40C0-B8C6-A9DE8229567C}" name="注音符號" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD66BA2C-F5E2-4253-93AC-D75CE4CD8FFD}" name="表格1_337" displayName="表格1_337" ref="R2:T57" totalsRowShown="0" headerRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CD66BA2C-F5E2-4253-93AC-D75CE4CD8FFD}" name="表格1_337" displayName="表格1_337" ref="R2:T57" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="R2:T57" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T56">
     <sortCondition ref="R3:R56" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4B5B4591-2B5E-4098-BAB0-DB68D5AD9184}" name="鍵盤位置" dataDxfId="25">
+    <tableColumn id="1" xr3:uid="{4B5B4591-2B5E-4098-BAB0-DB68D5AD9184}" name="鍵盤位置" dataDxfId="24">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{8C167905-9D73-4909-8712-255BECFAE41E}" name="字典編碼" dataDxfId="24" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{8C167905-9D73-4909-8712-255BECFAE41E}" name="字典編碼" dataDxfId="23" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{2B39C045-95F3-4942-B538-2A6427E8FFDE}" name="方音符號" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{2B39C045-95F3-4942-B538-2A6427E8FFDE}" name="方音符號" dataDxfId="22">
       <calculatedColumnFormula xml:space="preserve"> INDEX($K$3:$K$57, MATCH(表格1_337[[#This Row],[鍵盤位置]], $J$3:$J$57,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10092,19 +10124,19 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C959FCF-9C95-4231-83C0-482928301036}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C959FCF-9C95-4231-83C0-482928301036}" name="表格1_334" displayName="表格1_334" ref="R2:T44" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{EA38850C-01C2-4304-8447-B29C26276ED8}" name="鍵盤按鍵" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{EA38850C-01C2-4304-8447-B29C26276ED8}" name="鍵盤按鍵" dataDxfId="20">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4ECEBB4D-55DC-4D4B-9996-AEA5734CF4E0}" name="字典編碼" dataDxfId="20" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4ECEBB4D-55DC-4D4B-9996-AEA5734CF4E0}" name="字典編碼" dataDxfId="19" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DE6DDD52-3A19-4642-8167-79627FC56DE7}" name="方音符號" dataDxfId="19">
+    <tableColumn id="2" xr3:uid="{DE6DDD52-3A19-4642-8167-79627FC56DE7}" name="方音符號" dataDxfId="18">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10113,15 +10145,15 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D158DAF-25D4-4568-A508-EE11C04B2A42}" name="表格1_33" displayName="表格1_33" ref="R2:T44" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{0D158DAF-25D4-4568-A508-EE11C04B2A42}" name="表格1_33" displayName="表格1_33" ref="R2:T44" totalsRowShown="0" headerRowDxfId="17">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3B73500C-76A1-44B0-B58B-77DFAEAD05BE}" name="鍵盤位置" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{64D6493B-BE28-4D5C-8028-F0E91296CD5E}" name="字典編碼" dataDxfId="16" dataCellStyle="一般 4"/>
-    <tableColumn id="2" xr3:uid="{1165FEF4-C5CE-495D-B4D7-2C4D25F7136A}" name="方音符號" dataDxfId="15">
+    <tableColumn id="1" xr3:uid="{3B73500C-76A1-44B0-B58B-77DFAEAD05BE}" name="鍵盤位置" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{64D6493B-BE28-4D5C-8028-F0E91296CD5E}" name="字典編碼" dataDxfId="15" dataCellStyle="一般 4"/>
+    <tableColumn id="2" xr3:uid="{1165FEF4-C5CE-495D-B4D7-2C4D25F7136A}" name="方音符號" dataDxfId="14">
       <calculatedColumnFormula xml:space="preserve"> INDEX($K$3:$K$44, MATCH(表格1_33[[#This Row],[鍵盤位置]], $J$3:$J$44,0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10130,19 +10162,19 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{0277D331-C73A-444C-956E-FEF9D2B9E58B}" name="表格1_3345" displayName="表格1_3345" ref="R2:T44" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{0CB4C971-45FE-4EF1-8E93-03D0BAFFA9AB}" name="鍵盤按鍵" dataDxfId="12">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="12" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{730A345D-24E2-4C76-943A-E64802DD029D}" name="字典編碼" dataDxfId="11" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{4C3C4DD4-6C51-4A0A-99B3-DF9F0D69AF51}" name="方音符號" dataDxfId="10">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3345[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10151,19 +10183,19 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8844962C-5D0E-444F-9FD4-0D1C96DDD3D3}" name="表格1_3346" displayName="表格1_3346" ref="R2:T44" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{8844962C-5D0E-444F-9FD4-0D1C96DDD3D3}" name="表格1_3346" displayName="表格1_3346" ref="R2:T44" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="R2:T44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R3:T44">
     <sortCondition ref="R3:R44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BE7FD06B-DCFC-46E4-8A28-5AD4B50A27F3}" name="鍵盤按鍵" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{BE7FD06B-DCFC-46E4-8A28-5AD4B50A27F3}" name="鍵盤按鍵" dataDxfId="8">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{4C7CA1F3-D1C3-4190-B4EE-3AD155DB8473}" name="字典編碼" dataDxfId="8" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{4C7CA1F3-D1C3-4190-B4EE-3AD155DB8473}" name="字典編碼" dataDxfId="7" dataCellStyle="一般 4">
       <calculatedColumnFormula>F3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{20E99A91-482C-42A3-B3DD-B03AF39ACBB1}" name="方音符號" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{20E99A91-482C-42A3-B3DD-B03AF39ACBB1}" name="方音符號" dataDxfId="6">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($K$3:$K$44, MATCH(表格1_3346[[#This Row],[鍵盤按鍵]], $J$3:$J$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -10172,17 +10204,17 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{28456E6C-4285-4B6F-9853-AAC05DB79DF7}" name="表格1_3" displayName="表格1_3" ref="W2:AA47" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="W2:AA47" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="W3:AA47">
     <sortCondition ref="W3:W47" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{C7CC57E6-DD0D-4C69-8097-C90E6E1A0323}" name="鍵盤位置" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{63964A11-33C3-4775-A61B-A34CA9D7D33B}" name="方音符號" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{F5A33025-421F-49C0-AF9F-4A9A0D4562CC}" name="拼音字母" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{D331036C-A530-49C9-BE79-22670ABE9163}" name="按鍵編碼" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{3CD879B3-0434-4959-B532-198774D28491}" name="國際音標" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10501,61 +10533,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="439">
+      <c r="C2" s="463">
         <v>1</v>
       </c>
-      <c r="D2" s="440"/>
-      <c r="E2" s="441"/>
-      <c r="F2" s="439">
+      <c r="D2" s="464"/>
+      <c r="E2" s="465"/>
+      <c r="F2" s="463">
         <v>2</v>
       </c>
-      <c r="G2" s="440"/>
-      <c r="H2" s="441"/>
-      <c r="I2" s="463">
+      <c r="G2" s="464"/>
+      <c r="H2" s="465"/>
+      <c r="I2" s="453">
         <v>3</v>
       </c>
-      <c r="J2" s="464"/>
-      <c r="K2" s="465"/>
-      <c r="L2" s="463">
+      <c r="J2" s="454"/>
+      <c r="K2" s="455"/>
+      <c r="L2" s="453">
         <v>4</v>
       </c>
-      <c r="M2" s="464"/>
-      <c r="N2" s="465"/>
-      <c r="O2" s="463">
+      <c r="M2" s="454"/>
+      <c r="N2" s="455"/>
+      <c r="O2" s="453">
         <v>5</v>
       </c>
-      <c r="P2" s="464"/>
-      <c r="Q2" s="465"/>
-      <c r="R2" s="463">
+      <c r="P2" s="454"/>
+      <c r="Q2" s="455"/>
+      <c r="R2" s="453">
         <v>6</v>
       </c>
-      <c r="S2" s="464"/>
-      <c r="T2" s="465"/>
-      <c r="U2" s="463">
+      <c r="S2" s="454"/>
+      <c r="T2" s="455"/>
+      <c r="U2" s="453">
         <v>7</v>
       </c>
-      <c r="V2" s="464"/>
-      <c r="W2" s="465"/>
-      <c r="X2" s="442">
+      <c r="V2" s="454"/>
+      <c r="W2" s="455"/>
+      <c r="X2" s="444">
         <v>8</v>
       </c>
-      <c r="Y2" s="443"/>
-      <c r="Z2" s="444"/>
-      <c r="AA2" s="442">
+      <c r="Y2" s="439"/>
+      <c r="Z2" s="440"/>
+      <c r="AA2" s="444">
         <v>9</v>
       </c>
-      <c r="AB2" s="443"/>
-      <c r="AC2" s="444"/>
-      <c r="AD2" s="442">
+      <c r="AB2" s="439"/>
+      <c r="AC2" s="440"/>
+      <c r="AD2" s="444">
         <v>0</v>
       </c>
-      <c r="AE2" s="443"/>
-      <c r="AF2" s="444"/>
-      <c r="AG2" s="467" t="s">
+      <c r="AE2" s="439"/>
+      <c r="AF2" s="440"/>
+      <c r="AG2" s="438" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="443"/>
-      <c r="AI2" s="444"/>
+      <c r="AH2" s="439"/>
+      <c r="AI2" s="440"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10564,56 +10596,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="436" t="str">
+      <c r="C3" s="460" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="437"/>
-      <c r="E3" s="438"/>
-      <c r="F3" s="436" t="str">
+      <c r="D3" s="461"/>
+      <c r="E3" s="462"/>
+      <c r="F3" s="460" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="437"/>
-      <c r="H3" s="438"/>
-      <c r="I3" s="460" t="s">
+      <c r="G3" s="461"/>
+      <c r="H3" s="462"/>
+      <c r="I3" s="457" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="461"/>
-      <c r="K3" s="462"/>
-      <c r="L3" s="460" t="s">
+      <c r="J3" s="458"/>
+      <c r="K3" s="459"/>
+      <c r="L3" s="457" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="461"/>
-      <c r="N3" s="462"/>
-      <c r="O3" s="460"/>
-      <c r="P3" s="461"/>
-      <c r="Q3" s="462"/>
-      <c r="R3" s="457" t="s">
+      <c r="M3" s="458"/>
+      <c r="N3" s="459"/>
+      <c r="O3" s="457"/>
+      <c r="P3" s="458"/>
+      <c r="Q3" s="459"/>
+      <c r="R3" s="466" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="458"/>
-      <c r="T3" s="459"/>
-      <c r="U3" s="460" t="s">
+      <c r="S3" s="467"/>
+      <c r="T3" s="468"/>
+      <c r="U3" s="457" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="461"/>
-      <c r="W3" s="462"/>
-      <c r="X3" s="453" t="str">
+      <c r="V3" s="458"/>
+      <c r="W3" s="459"/>
+      <c r="X3" s="445" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="454"/>
-      <c r="Z3" s="455"/>
-      <c r="AA3" s="453"/>
-      <c r="AB3" s="454"/>
-      <c r="AC3" s="455"/>
-      <c r="AD3" s="453"/>
-      <c r="AE3" s="454"/>
-      <c r="AF3" s="455"/>
-      <c r="AG3" s="468"/>
-      <c r="AH3" s="469"/>
-      <c r="AI3" s="470"/>
+      <c r="Y3" s="446"/>
+      <c r="Z3" s="447"/>
+      <c r="AA3" s="445"/>
+      <c r="AB3" s="446"/>
+      <c r="AC3" s="447"/>
+      <c r="AD3" s="445"/>
+      <c r="AE3" s="446"/>
+      <c r="AF3" s="447"/>
+      <c r="AG3" s="441"/>
+      <c r="AH3" s="442"/>
+      <c r="AI3" s="443"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10622,115 +10654,115 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="439" t="s">
+      <c r="D4" s="463" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="440"/>
-      <c r="F4" s="441"/>
-      <c r="G4" s="439" t="s">
+      <c r="E4" s="464"/>
+      <c r="F4" s="465"/>
+      <c r="G4" s="463" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="440"/>
-      <c r="I4" s="441"/>
-      <c r="J4" s="439" t="s">
+      <c r="H4" s="464"/>
+      <c r="I4" s="465"/>
+      <c r="J4" s="463" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="440"/>
-      <c r="L4" s="441"/>
-      <c r="M4" s="439" t="s">
+      <c r="K4" s="464"/>
+      <c r="L4" s="465"/>
+      <c r="M4" s="463" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="440"/>
-      <c r="O4" s="441"/>
-      <c r="P4" s="439" t="s">
+      <c r="N4" s="464"/>
+      <c r="O4" s="465"/>
+      <c r="P4" s="463" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="440"/>
-      <c r="R4" s="441"/>
-      <c r="S4" s="439" t="s">
+      <c r="Q4" s="464"/>
+      <c r="R4" s="465"/>
+      <c r="S4" s="463" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="440"/>
-      <c r="U4" s="441"/>
-      <c r="V4" s="442" t="s">
+      <c r="T4" s="464"/>
+      <c r="U4" s="465"/>
+      <c r="V4" s="444" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="443"/>
-      <c r="X4" s="444"/>
-      <c r="Y4" s="442" t="s">
+      <c r="W4" s="439"/>
+      <c r="X4" s="440"/>
+      <c r="Y4" s="444" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="443"/>
-      <c r="AA4" s="444"/>
-      <c r="AB4" s="442" t="s">
+      <c r="Z4" s="439"/>
+      <c r="AA4" s="440"/>
+      <c r="AB4" s="444" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="443"/>
-      <c r="AD4" s="444"/>
-      <c r="AE4" s="442" t="s">
+      <c r="AC4" s="439"/>
+      <c r="AD4" s="440"/>
+      <c r="AE4" s="444" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="443"/>
-      <c r="AG4" s="444"/>
+      <c r="AF4" s="439"/>
+      <c r="AG4" s="440"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="436" t="str">
+      <c r="D5" s="460" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="437"/>
-      <c r="F5" s="438"/>
-      <c r="G5" s="436" t="str">
+      <c r="E5" s="461"/>
+      <c r="F5" s="462"/>
+      <c r="G5" s="460" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="437"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="436" t="str">
+      <c r="H5" s="461"/>
+      <c r="I5" s="462"/>
+      <c r="J5" s="460" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="437"/>
-      <c r="L5" s="438"/>
-      <c r="M5" s="436"/>
-      <c r="N5" s="437"/>
-      <c r="O5" s="438"/>
-      <c r="P5" s="433" t="str">
+      <c r="K5" s="461"/>
+      <c r="L5" s="462"/>
+      <c r="M5" s="460"/>
+      <c r="N5" s="461"/>
+      <c r="O5" s="462"/>
+      <c r="P5" s="469" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="434"/>
-      <c r="R5" s="435"/>
-      <c r="S5" s="436" t="str">
+      <c r="Q5" s="470"/>
+      <c r="R5" s="471"/>
+      <c r="S5" s="460" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="437"/>
-      <c r="U5" s="438"/>
-      <c r="V5" s="453" t="str">
+      <c r="T5" s="461"/>
+      <c r="U5" s="462"/>
+      <c r="V5" s="445" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="454"/>
-      <c r="X5" s="455"/>
-      <c r="Y5" s="453" t="str">
+      <c r="W5" s="446"/>
+      <c r="X5" s="447"/>
+      <c r="Y5" s="445" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="454"/>
-      <c r="AA5" s="455"/>
-      <c r="AB5" s="453"/>
-      <c r="AC5" s="454"/>
-      <c r="AD5" s="455"/>
-      <c r="AE5" s="445" t="str">
+      <c r="Z5" s="446"/>
+      <c r="AA5" s="447"/>
+      <c r="AB5" s="445"/>
+      <c r="AC5" s="446"/>
+      <c r="AD5" s="447"/>
+      <c r="AE5" s="450" t="str">
         <f>P20</f>
         <v>ㄣ</v>
       </c>
-      <c r="AF5" s="446"/>
-      <c r="AG5" s="447"/>
+      <c r="AF5" s="451"/>
+      <c r="AG5" s="452"/>
       <c r="AQ5" s="156" t="s">
         <v>436</v>
       </c>
@@ -10740,109 +10772,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="439" t="s">
+      <c r="E6" s="463" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="440"/>
-      <c r="G6" s="441"/>
-      <c r="H6" s="439" t="s">
+      <c r="F6" s="464"/>
+      <c r="G6" s="465"/>
+      <c r="H6" s="463" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="440"/>
-      <c r="J6" s="441"/>
-      <c r="K6" s="439" t="s">
+      <c r="I6" s="464"/>
+      <c r="J6" s="465"/>
+      <c r="K6" s="463" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="440"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="439" t="s">
+      <c r="L6" s="464"/>
+      <c r="M6" s="465"/>
+      <c r="N6" s="463" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="440"/>
-      <c r="P6" s="441"/>
-      <c r="Q6" s="439" t="s">
+      <c r="O6" s="464"/>
+      <c r="P6" s="465"/>
+      <c r="Q6" s="463" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="440"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="439" t="s">
+      <c r="R6" s="464"/>
+      <c r="S6" s="465"/>
+      <c r="T6" s="463" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="440"/>
-      <c r="V6" s="441"/>
-      <c r="W6" s="442" t="s">
+      <c r="U6" s="464"/>
+      <c r="V6" s="465"/>
+      <c r="W6" s="444" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="443"/>
-      <c r="Y6" s="444"/>
-      <c r="Z6" s="442" t="s">
+      <c r="X6" s="439"/>
+      <c r="Y6" s="440"/>
+      <c r="Z6" s="444" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="443"/>
-      <c r="AB6" s="444"/>
-      <c r="AC6" s="442" t="s">
+      <c r="AA6" s="439"/>
+      <c r="AB6" s="440"/>
+      <c r="AC6" s="444" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="443"/>
-      <c r="AE6" s="444"/>
-      <c r="AF6" s="442" t="s">
+      <c r="AD6" s="439"/>
+      <c r="AE6" s="440"/>
+      <c r="AF6" s="444" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="443"/>
-      <c r="AH6" s="444"/>
+      <c r="AG6" s="439"/>
+      <c r="AH6" s="440"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="450" t="str">
+      <c r="E7" s="472" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="451"/>
-      <c r="G7" s="452"/>
-      <c r="H7" s="436" t="str">
+      <c r="F7" s="473"/>
+      <c r="G7" s="474"/>
+      <c r="H7" s="460" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="437"/>
-      <c r="J7" s="438"/>
-      <c r="K7" s="436" t="str">
+      <c r="I7" s="461"/>
+      <c r="J7" s="462"/>
+      <c r="K7" s="460" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="437"/>
-      <c r="M7" s="438"/>
-      <c r="N7" s="436"/>
-      <c r="O7" s="437"/>
-      <c r="P7" s="438"/>
-      <c r="Q7" s="456" t="str">
+      <c r="L7" s="461"/>
+      <c r="M7" s="462"/>
+      <c r="N7" s="460"/>
+      <c r="O7" s="461"/>
+      <c r="P7" s="462"/>
+      <c r="Q7" s="475" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="434"/>
-      <c r="S7" s="435"/>
-      <c r="T7" s="436" t="str">
+      <c r="R7" s="470"/>
+      <c r="S7" s="471"/>
+      <c r="T7" s="460" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="437"/>
-      <c r="V7" s="438"/>
-      <c r="W7" s="453" t="str">
+      <c r="U7" s="461"/>
+      <c r="V7" s="462"/>
+      <c r="W7" s="445" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="454"/>
-      <c r="Y7" s="455"/>
-      <c r="Z7" s="453" t="str">
+      <c r="X7" s="446"/>
+      <c r="Y7" s="447"/>
+      <c r="Z7" s="445" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="454"/>
-      <c r="AB7" s="455"/>
-      <c r="AC7" s="453"/>
-      <c r="AD7" s="454"/>
-      <c r="AE7" s="455"/>
-      <c r="AF7" s="472"/>
-      <c r="AG7" s="454"/>
-      <c r="AH7" s="455"/>
+      <c r="AA7" s="446"/>
+      <c r="AB7" s="447"/>
+      <c r="AC7" s="445"/>
+      <c r="AD7" s="446"/>
+      <c r="AE7" s="447"/>
+      <c r="AF7" s="449"/>
+      <c r="AG7" s="446"/>
+      <c r="AH7" s="447"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10851,112 +10883,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="439" t="s">
+      <c r="F8" s="463" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="440"/>
-      <c r="H8" s="441"/>
-      <c r="I8" s="439" t="s">
+      <c r="G8" s="464"/>
+      <c r="H8" s="465"/>
+      <c r="I8" s="463" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="440"/>
-      <c r="K8" s="441"/>
-      <c r="L8" s="439" t="s">
+      <c r="J8" s="464"/>
+      <c r="K8" s="465"/>
+      <c r="L8" s="463" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="440"/>
-      <c r="N8" s="441"/>
-      <c r="O8" s="439" t="s">
+      <c r="M8" s="464"/>
+      <c r="N8" s="465"/>
+      <c r="O8" s="463" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="440"/>
-      <c r="Q8" s="441"/>
-      <c r="R8" s="439" t="s">
+      <c r="P8" s="464"/>
+      <c r="Q8" s="465"/>
+      <c r="R8" s="463" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="440"/>
-      <c r="T8" s="441"/>
-      <c r="U8" s="439" t="s">
+      <c r="S8" s="464"/>
+      <c r="T8" s="465"/>
+      <c r="U8" s="463" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="440"/>
-      <c r="W8" s="441"/>
-      <c r="X8" s="442" t="s">
+      <c r="V8" s="464"/>
+      <c r="W8" s="465"/>
+      <c r="X8" s="444" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="443"/>
-      <c r="Z8" s="444"/>
-      <c r="AA8" s="442" t="s">
+      <c r="Y8" s="439"/>
+      <c r="Z8" s="440"/>
+      <c r="AA8" s="444" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="443"/>
-      <c r="AC8" s="444"/>
-      <c r="AD8" s="442" t="s">
+      <c r="AB8" s="439"/>
+      <c r="AC8" s="440"/>
+      <c r="AD8" s="444" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="443"/>
-      <c r="AF8" s="444"/>
-      <c r="AG8" s="471" t="s">
+      <c r="AE8" s="439"/>
+      <c r="AF8" s="440"/>
+      <c r="AG8" s="448" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="443"/>
-      <c r="AI8" s="444"/>
+      <c r="AH8" s="439"/>
+      <c r="AI8" s="440"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="436"/>
-      <c r="G9" s="448"/>
-      <c r="H9" s="449"/>
-      <c r="I9" s="436" t="str">
+      <c r="F9" s="460"/>
+      <c r="G9" s="476"/>
+      <c r="H9" s="477"/>
+      <c r="I9" s="460" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="437"/>
-      <c r="K9" s="438"/>
-      <c r="L9" s="436" t="str">
+      <c r="J9" s="461"/>
+      <c r="K9" s="462"/>
+      <c r="L9" s="460" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="437"/>
-      <c r="N9" s="438"/>
-      <c r="O9" s="450" t="str">
+      <c r="M9" s="461"/>
+      <c r="N9" s="462"/>
+      <c r="O9" s="472" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="451"/>
-      <c r="Q9" s="452"/>
-      <c r="R9" s="433" t="str">
+      <c r="P9" s="473"/>
+      <c r="Q9" s="474"/>
+      <c r="R9" s="469" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="434"/>
-      <c r="T9" s="435"/>
-      <c r="U9" s="436" t="str">
+      <c r="S9" s="470"/>
+      <c r="T9" s="471"/>
+      <c r="U9" s="460" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="437"/>
-      <c r="W9" s="438"/>
-      <c r="X9" s="445" t="str">
+      <c r="V9" s="461"/>
+      <c r="W9" s="462"/>
+      <c r="X9" s="450" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
-      <c r="Y9" s="446"/>
-      <c r="Z9" s="447"/>
-      <c r="AA9" s="453" t="str">
+      <c r="Y9" s="451"/>
+      <c r="Z9" s="452"/>
+      <c r="AA9" s="445" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="454"/>
-      <c r="AC9" s="455"/>
-      <c r="AD9" s="466" t="str">
+      <c r="AB9" s="446"/>
+      <c r="AC9" s="447"/>
+      <c r="AD9" s="456" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
-      <c r="AE9" s="446"/>
-      <c r="AF9" s="447"/>
-      <c r="AG9" s="453"/>
-      <c r="AH9" s="454"/>
-      <c r="AI9" s="455"/>
+      <c r="AE9" s="451"/>
+      <c r="AF9" s="452"/>
+      <c r="AG9" s="445"/>
+      <c r="AH9" s="446"/>
+      <c r="AI9" s="447"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11407,20 +11439,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="W6:Y6"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
     <mergeCell ref="R2:T2"/>
     <mergeCell ref="AD9:AF9"/>
     <mergeCell ref="U2:W2"/>
@@ -11437,58 +11507,20 @@
     <mergeCell ref="AB4:AD4"/>
     <mergeCell ref="AE4:AG4"/>
     <mergeCell ref="S5:U5"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="T6:V6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="W6:Y6"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21304,8 +21336,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="501"/>
-      <c r="AR1" s="501"/>
+      <c r="AQ1" s="504"/>
+      <c r="AR1" s="504"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -22622,66 +22654,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="499" t="str">
+      <c r="C11" s="505" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="499"/>
-      <c r="E11" s="499"/>
-      <c r="F11" s="499"/>
-      <c r="G11" s="499"/>
-      <c r="H11" s="499"/>
-      <c r="I11" s="499"/>
-      <c r="J11" s="499"/>
-      <c r="K11" s="499"/>
-      <c r="L11" s="499"/>
-      <c r="M11" s="499"/>
-      <c r="N11" s="499"/>
-      <c r="O11" s="499"/>
-      <c r="P11" s="499"/>
-      <c r="Q11" s="499"/>
-      <c r="R11" s="499"/>
-      <c r="S11" s="499"/>
-      <c r="T11" s="499"/>
-      <c r="U11" s="499"/>
-      <c r="V11" s="499"/>
-      <c r="W11" s="499"/>
-      <c r="X11" s="499"/>
-      <c r="Y11" s="499"/>
-      <c r="Z11" s="499"/>
+      <c r="D11" s="505"/>
+      <c r="E11" s="505"/>
+      <c r="F11" s="505"/>
+      <c r="G11" s="505"/>
+      <c r="H11" s="505"/>
+      <c r="I11" s="505"/>
+      <c r="J11" s="505"/>
+      <c r="K11" s="505"/>
+      <c r="L11" s="505"/>
+      <c r="M11" s="505"/>
+      <c r="N11" s="505"/>
+      <c r="O11" s="505"/>
+      <c r="P11" s="505"/>
+      <c r="Q11" s="505"/>
+      <c r="R11" s="505"/>
+      <c r="S11" s="505"/>
+      <c r="T11" s="505"/>
+      <c r="U11" s="505"/>
+      <c r="V11" s="505"/>
+      <c r="W11" s="505"/>
+      <c r="X11" s="505"/>
+      <c r="Y11" s="505"/>
+      <c r="Z11" s="505"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="500" t="str">
+      <c r="C12" s="503" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="500"/>
-      <c r="E12" s="500"/>
-      <c r="F12" s="500"/>
-      <c r="G12" s="500"/>
-      <c r="H12" s="500"/>
-      <c r="I12" s="500"/>
-      <c r="J12" s="500"/>
-      <c r="K12" s="500"/>
-      <c r="L12" s="500"/>
-      <c r="M12" s="500"/>
-      <c r="N12" s="500"/>
-      <c r="O12" s="500"/>
-      <c r="P12" s="500"/>
-      <c r="Q12" s="500"/>
-      <c r="R12" s="500"/>
-      <c r="S12" s="500"/>
-      <c r="T12" s="500"/>
-      <c r="U12" s="500"/>
-      <c r="V12" s="500"/>
-      <c r="W12" s="500"/>
-      <c r="X12" s="500"/>
-      <c r="Y12" s="500"/>
-      <c r="Z12" s="500"/>
+      <c r="D12" s="503"/>
+      <c r="E12" s="503"/>
+      <c r="F12" s="503"/>
+      <c r="G12" s="503"/>
+      <c r="H12" s="503"/>
+      <c r="I12" s="503"/>
+      <c r="J12" s="503"/>
+      <c r="K12" s="503"/>
+      <c r="L12" s="503"/>
+      <c r="M12" s="503"/>
+      <c r="N12" s="503"/>
+      <c r="O12" s="503"/>
+      <c r="P12" s="503"/>
+      <c r="Q12" s="503"/>
+      <c r="R12" s="503"/>
+      <c r="S12" s="503"/>
+      <c r="T12" s="503"/>
+      <c r="U12" s="503"/>
+      <c r="V12" s="503"/>
+      <c r="W12" s="503"/>
+      <c r="X12" s="503"/>
+      <c r="Y12" s="503"/>
+      <c r="Z12" s="503"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
@@ -22690,34 +22722,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="498" t="str">
+      <c r="B15" s="506" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="498"/>
-      <c r="D15" s="498"/>
-      <c r="E15" s="498"/>
-      <c r="F15" s="498"/>
-      <c r="G15" s="498"/>
-      <c r="H15" s="498"/>
-      <c r="I15" s="498"/>
-      <c r="J15" s="498"/>
-      <c r="K15" s="498"/>
-      <c r="L15" s="498"/>
-      <c r="M15" s="498"/>
-      <c r="N15" s="498"/>
-      <c r="O15" s="498"/>
-      <c r="P15" s="498"/>
-      <c r="Q15" s="498"/>
-      <c r="R15" s="498"/>
-      <c r="S15" s="498"/>
-      <c r="T15" s="498"/>
-      <c r="U15" s="498"/>
-      <c r="V15" s="498"/>
-      <c r="W15" s="498"/>
-      <c r="X15" s="498"/>
-      <c r="Y15" s="498"/>
-      <c r="Z15" s="498"/>
+      <c r="C15" s="506"/>
+      <c r="D15" s="506"/>
+      <c r="E15" s="506"/>
+      <c r="F15" s="506"/>
+      <c r="G15" s="506"/>
+      <c r="H15" s="506"/>
+      <c r="I15" s="506"/>
+      <c r="J15" s="506"/>
+      <c r="K15" s="506"/>
+      <c r="L15" s="506"/>
+      <c r="M15" s="506"/>
+      <c r="N15" s="506"/>
+      <c r="O15" s="506"/>
+      <c r="P15" s="506"/>
+      <c r="Q15" s="506"/>
+      <c r="R15" s="506"/>
+      <c r="S15" s="506"/>
+      <c r="T15" s="506"/>
+      <c r="U15" s="506"/>
+      <c r="V15" s="506"/>
+      <c r="W15" s="506"/>
+      <c r="X15" s="506"/>
+      <c r="Y15" s="506"/>
+      <c r="Z15" s="506"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22731,66 +22763,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="499" t="str">
+      <c r="C19" s="505" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="499"/>
-      <c r="E19" s="499"/>
-      <c r="F19" s="499"/>
-      <c r="G19" s="499"/>
-      <c r="H19" s="499"/>
-      <c r="I19" s="499"/>
-      <c r="J19" s="499"/>
-      <c r="K19" s="499"/>
-      <c r="L19" s="499"/>
-      <c r="M19" s="499"/>
-      <c r="N19" s="499"/>
-      <c r="O19" s="499"/>
-      <c r="P19" s="499"/>
-      <c r="Q19" s="499"/>
-      <c r="R19" s="499"/>
-      <c r="S19" s="499"/>
-      <c r="T19" s="499"/>
-      <c r="U19" s="499"/>
-      <c r="V19" s="499"/>
-      <c r="W19" s="499"/>
-      <c r="X19" s="499"/>
-      <c r="Y19" s="499"/>
-      <c r="Z19" s="499"/>
+      <c r="D19" s="505"/>
+      <c r="E19" s="505"/>
+      <c r="F19" s="505"/>
+      <c r="G19" s="505"/>
+      <c r="H19" s="505"/>
+      <c r="I19" s="505"/>
+      <c r="J19" s="505"/>
+      <c r="K19" s="505"/>
+      <c r="L19" s="505"/>
+      <c r="M19" s="505"/>
+      <c r="N19" s="505"/>
+      <c r="O19" s="505"/>
+      <c r="P19" s="505"/>
+      <c r="Q19" s="505"/>
+      <c r="R19" s="505"/>
+      <c r="S19" s="505"/>
+      <c r="T19" s="505"/>
+      <c r="U19" s="505"/>
+      <c r="V19" s="505"/>
+      <c r="W19" s="505"/>
+      <c r="X19" s="505"/>
+      <c r="Y19" s="505"/>
+      <c r="Z19" s="505"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="500" t="str">
+      <c r="C20" s="503" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="500"/>
-      <c r="E20" s="500"/>
-      <c r="F20" s="500"/>
-      <c r="G20" s="500"/>
-      <c r="H20" s="500"/>
-      <c r="I20" s="500"/>
-      <c r="J20" s="500"/>
-      <c r="K20" s="500"/>
-      <c r="L20" s="500"/>
-      <c r="M20" s="500"/>
-      <c r="N20" s="500"/>
-      <c r="O20" s="500"/>
-      <c r="P20" s="500"/>
-      <c r="Q20" s="500"/>
-      <c r="R20" s="500"/>
-      <c r="S20" s="500"/>
-      <c r="T20" s="500"/>
-      <c r="U20" s="500"/>
-      <c r="V20" s="500"/>
-      <c r="W20" s="500"/>
-      <c r="X20" s="500"/>
-      <c r="Y20" s="500"/>
-      <c r="Z20" s="500"/>
+      <c r="D20" s="503"/>
+      <c r="E20" s="503"/>
+      <c r="F20" s="503"/>
+      <c r="G20" s="503"/>
+      <c r="H20" s="503"/>
+      <c r="I20" s="503"/>
+      <c r="J20" s="503"/>
+      <c r="K20" s="503"/>
+      <c r="L20" s="503"/>
+      <c r="M20" s="503"/>
+      <c r="N20" s="503"/>
+      <c r="O20" s="503"/>
+      <c r="P20" s="503"/>
+      <c r="Q20" s="503"/>
+      <c r="R20" s="503"/>
+      <c r="S20" s="503"/>
+      <c r="T20" s="503"/>
+      <c r="U20" s="503"/>
+      <c r="V20" s="503"/>
+      <c r="W20" s="503"/>
+      <c r="X20" s="503"/>
+      <c r="Y20" s="503"/>
+      <c r="Z20" s="503"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22799,34 +22831,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="498" t="str">
+      <c r="B23" s="506" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="498"/>
-      <c r="D23" s="498"/>
-      <c r="E23" s="498"/>
-      <c r="F23" s="498"/>
-      <c r="G23" s="498"/>
-      <c r="H23" s="498"/>
-      <c r="I23" s="498"/>
-      <c r="J23" s="498"/>
-      <c r="K23" s="498"/>
-      <c r="L23" s="498"/>
-      <c r="M23" s="498"/>
-      <c r="N23" s="498"/>
-      <c r="O23" s="498"/>
-      <c r="P23" s="498"/>
-      <c r="Q23" s="498"/>
-      <c r="R23" s="498"/>
-      <c r="S23" s="498"/>
-      <c r="T23" s="498"/>
-      <c r="U23" s="498"/>
-      <c r="V23" s="498"/>
-      <c r="W23" s="498"/>
-      <c r="X23" s="498"/>
-      <c r="Y23" s="498"/>
-      <c r="Z23" s="498"/>
+      <c r="C23" s="506"/>
+      <c r="D23" s="506"/>
+      <c r="E23" s="506"/>
+      <c r="F23" s="506"/>
+      <c r="G23" s="506"/>
+      <c r="H23" s="506"/>
+      <c r="I23" s="506"/>
+      <c r="J23" s="506"/>
+      <c r="K23" s="506"/>
+      <c r="L23" s="506"/>
+      <c r="M23" s="506"/>
+      <c r="N23" s="506"/>
+      <c r="O23" s="506"/>
+      <c r="P23" s="506"/>
+      <c r="Q23" s="506"/>
+      <c r="R23" s="506"/>
+      <c r="S23" s="506"/>
+      <c r="T23" s="506"/>
+      <c r="U23" s="506"/>
+      <c r="V23" s="506"/>
+      <c r="W23" s="506"/>
+      <c r="X23" s="506"/>
+      <c r="Y23" s="506"/>
+      <c r="Z23" s="506"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22840,66 +22872,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="499" t="str">
+      <c r="C27" s="505" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="499"/>
-      <c r="E27" s="499"/>
-      <c r="F27" s="499"/>
-      <c r="G27" s="499"/>
-      <c r="H27" s="499"/>
-      <c r="I27" s="499"/>
-      <c r="J27" s="499"/>
-      <c r="K27" s="499"/>
-      <c r="L27" s="499"/>
-      <c r="M27" s="499"/>
-      <c r="N27" s="499"/>
-      <c r="O27" s="499"/>
-      <c r="P27" s="499"/>
-      <c r="Q27" s="499"/>
-      <c r="R27" s="499"/>
-      <c r="S27" s="499"/>
-      <c r="T27" s="499"/>
-      <c r="U27" s="499"/>
-      <c r="V27" s="499"/>
-      <c r="W27" s="499"/>
-      <c r="X27" s="499"/>
-      <c r="Y27" s="499"/>
-      <c r="Z27" s="499"/>
+      <c r="D27" s="505"/>
+      <c r="E27" s="505"/>
+      <c r="F27" s="505"/>
+      <c r="G27" s="505"/>
+      <c r="H27" s="505"/>
+      <c r="I27" s="505"/>
+      <c r="J27" s="505"/>
+      <c r="K27" s="505"/>
+      <c r="L27" s="505"/>
+      <c r="M27" s="505"/>
+      <c r="N27" s="505"/>
+      <c r="O27" s="505"/>
+      <c r="P27" s="505"/>
+      <c r="Q27" s="505"/>
+      <c r="R27" s="505"/>
+      <c r="S27" s="505"/>
+      <c r="T27" s="505"/>
+      <c r="U27" s="505"/>
+      <c r="V27" s="505"/>
+      <c r="W27" s="505"/>
+      <c r="X27" s="505"/>
+      <c r="Y27" s="505"/>
+      <c r="Z27" s="505"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="500" t="str">
+      <c r="C28" s="503" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="500"/>
-      <c r="E28" s="500"/>
-      <c r="F28" s="500"/>
-      <c r="G28" s="500"/>
-      <c r="H28" s="500"/>
-      <c r="I28" s="500"/>
-      <c r="J28" s="500"/>
-      <c r="K28" s="500"/>
-      <c r="L28" s="500"/>
-      <c r="M28" s="500"/>
-      <c r="N28" s="500"/>
-      <c r="O28" s="500"/>
-      <c r="P28" s="500"/>
-      <c r="Q28" s="500"/>
-      <c r="R28" s="500"/>
-      <c r="S28" s="500"/>
-      <c r="T28" s="500"/>
-      <c r="U28" s="500"/>
-      <c r="V28" s="500"/>
-      <c r="W28" s="500"/>
-      <c r="X28" s="500"/>
-      <c r="Y28" s="500"/>
-      <c r="Z28" s="500"/>
+      <c r="D28" s="503"/>
+      <c r="E28" s="503"/>
+      <c r="F28" s="503"/>
+      <c r="G28" s="503"/>
+      <c r="H28" s="503"/>
+      <c r="I28" s="503"/>
+      <c r="J28" s="503"/>
+      <c r="K28" s="503"/>
+      <c r="L28" s="503"/>
+      <c r="M28" s="503"/>
+      <c r="N28" s="503"/>
+      <c r="O28" s="503"/>
+      <c r="P28" s="503"/>
+      <c r="Q28" s="503"/>
+      <c r="R28" s="503"/>
+      <c r="S28" s="503"/>
+      <c r="T28" s="503"/>
+      <c r="U28" s="503"/>
+      <c r="V28" s="503"/>
+      <c r="W28" s="503"/>
+      <c r="X28" s="503"/>
+      <c r="Y28" s="503"/>
+      <c r="Z28" s="503"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22908,34 +22940,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="498" t="str">
+      <c r="B31" s="506" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="498"/>
-      <c r="D31" s="498"/>
-      <c r="E31" s="498"/>
-      <c r="F31" s="498"/>
-      <c r="G31" s="498"/>
-      <c r="H31" s="498"/>
-      <c r="I31" s="498"/>
-      <c r="J31" s="498"/>
-      <c r="K31" s="498"/>
-      <c r="L31" s="498"/>
-      <c r="M31" s="498"/>
-      <c r="N31" s="498"/>
-      <c r="O31" s="498"/>
-      <c r="P31" s="498"/>
-      <c r="Q31" s="498"/>
-      <c r="R31" s="498"/>
-      <c r="S31" s="498"/>
-      <c r="T31" s="498"/>
-      <c r="U31" s="498"/>
-      <c r="V31" s="498"/>
-      <c r="W31" s="498"/>
-      <c r="X31" s="498"/>
-      <c r="Y31" s="498"/>
-      <c r="Z31" s="498"/>
+      <c r="C31" s="506"/>
+      <c r="D31" s="506"/>
+      <c r="E31" s="506"/>
+      <c r="F31" s="506"/>
+      <c r="G31" s="506"/>
+      <c r="H31" s="506"/>
+      <c r="I31" s="506"/>
+      <c r="J31" s="506"/>
+      <c r="K31" s="506"/>
+      <c r="L31" s="506"/>
+      <c r="M31" s="506"/>
+      <c r="N31" s="506"/>
+      <c r="O31" s="506"/>
+      <c r="P31" s="506"/>
+      <c r="Q31" s="506"/>
+      <c r="R31" s="506"/>
+      <c r="S31" s="506"/>
+      <c r="T31" s="506"/>
+      <c r="U31" s="506"/>
+      <c r="V31" s="506"/>
+      <c r="W31" s="506"/>
+      <c r="X31" s="506"/>
+      <c r="Y31" s="506"/>
+      <c r="Z31" s="506"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -23226,8 +23258,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="501"/>
-      <c r="AR38" s="501"/>
+      <c r="AQ38" s="504"/>
+      <c r="AR38" s="504"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -23235,17 +23267,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23281,120 +23313,120 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="523" t="s">
+      <c r="B2" s="507" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="523"/>
-      <c r="D2" s="523"/>
-      <c r="E2" s="523" t="s">
+      <c r="C2" s="507"/>
+      <c r="D2" s="507"/>
+      <c r="E2" s="507" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="523"/>
-      <c r="G2" s="523" t="s">
+      <c r="F2" s="507"/>
+      <c r="G2" s="507" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="523"/>
-      <c r="I2" s="523" t="s">
+      <c r="H2" s="507"/>
+      <c r="I2" s="507" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="523"/>
-      <c r="K2" s="523" t="s">
+      <c r="J2" s="507"/>
+      <c r="K2" s="507" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="523"/>
-      <c r="M2" s="523"/>
-      <c r="N2" s="523"/>
-      <c r="O2" s="523" t="s">
+      <c r="L2" s="507"/>
+      <c r="M2" s="507"/>
+      <c r="N2" s="507"/>
+      <c r="O2" s="507" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="523"/>
+      <c r="P2" s="507"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="523" t="s">
+      <c r="B3" s="507" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="523"/>
-      <c r="D3" s="523"/>
-      <c r="E3" s="523" t="s">
+      <c r="C3" s="507"/>
+      <c r="D3" s="507"/>
+      <c r="E3" s="507" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="523"/>
-      <c r="G3" s="523" t="s">
+      <c r="F3" s="507"/>
+      <c r="G3" s="507" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="523"/>
-      <c r="I3" s="523" t="s">
+      <c r="H3" s="507"/>
+      <c r="I3" s="507" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="523"/>
-      <c r="K3" s="523" t="s">
+      <c r="J3" s="507"/>
+      <c r="K3" s="507" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="523"/>
-      <c r="M3" s="523"/>
-      <c r="N3" s="523"/>
-      <c r="O3" s="523" t="s">
+      <c r="L3" s="507"/>
+      <c r="M3" s="507"/>
+      <c r="N3" s="507"/>
+      <c r="O3" s="507" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="523"/>
+      <c r="P3" s="507"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="523" t="s">
+      <c r="B4" s="507" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="523"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="523" t="s">
+      <c r="C4" s="507"/>
+      <c r="D4" s="507"/>
+      <c r="E4" s="507" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="523"/>
-      <c r="G4" s="523" t="s">
+      <c r="F4" s="507"/>
+      <c r="G4" s="507" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="523"/>
-      <c r="I4" s="523" t="s">
+      <c r="H4" s="507"/>
+      <c r="I4" s="507" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="523"/>
-      <c r="K4" s="523" t="s">
+      <c r="J4" s="507"/>
+      <c r="K4" s="507" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="523"/>
-      <c r="M4" s="523"/>
-      <c r="N4" s="523"/>
-      <c r="O4" s="523" t="s">
+      <c r="L4" s="507"/>
+      <c r="M4" s="507"/>
+      <c r="N4" s="507"/>
+      <c r="O4" s="507" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="523"/>
+      <c r="P4" s="507"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="523" t="s">
+      <c r="B5" s="507" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="523"/>
-      <c r="D5" s="523"/>
-      <c r="E5" s="523" t="s">
+      <c r="C5" s="507"/>
+      <c r="D5" s="507"/>
+      <c r="E5" s="507" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="523"/>
-      <c r="G5" s="523" t="s">
+      <c r="F5" s="507"/>
+      <c r="G5" s="507" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="523"/>
-      <c r="I5" s="523" t="s">
+      <c r="H5" s="507"/>
+      <c r="I5" s="507" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="523"/>
-      <c r="K5" s="523" t="s">
+      <c r="J5" s="507"/>
+      <c r="K5" s="507" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="523"/>
-      <c r="M5" s="523"/>
-      <c r="N5" s="523"/>
-      <c r="O5" s="523" t="s">
+      <c r="L5" s="507"/>
+      <c r="M5" s="507"/>
+      <c r="N5" s="507"/>
+      <c r="O5" s="507" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="523"/>
+      <c r="P5" s="507"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
@@ -23407,35 +23439,35 @@
         <v>217</v>
       </c>
       <c r="F7" s="520"/>
-      <c r="G7" s="511" t="s">
+      <c r="G7" s="508" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="512"/>
+      <c r="H7" s="509"/>
       <c r="I7" s="521" t="s">
         <v>223</v>
       </c>
       <c r="J7" s="522"/>
-      <c r="K7" s="511" t="s">
+      <c r="K7" s="508" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="512"/>
-      <c r="M7" s="511" t="s">
+      <c r="L7" s="509"/>
+      <c r="M7" s="508" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="512"/>
-      <c r="O7" s="511" t="s">
+      <c r="N7" s="509"/>
+      <c r="O7" s="508" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="512"/>
+      <c r="P7" s="509"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="502" t="s">
+      <c r="B8" s="510" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="513" t="s">
+      <c r="C8" s="511" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="514" t="s">
+      <c r="D8" s="512" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -23468,9 +23500,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="502"/>
-      <c r="C9" s="513"/>
-      <c r="D9" s="514"/>
+      <c r="B9" s="510"/>
+      <c r="C9" s="511"/>
+      <c r="D9" s="512"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -23501,9 +23533,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="502"/>
-      <c r="C10" s="513"/>
-      <c r="D10" s="510" t="s">
+      <c r="B10" s="510"/>
+      <c r="C10" s="511"/>
+      <c r="D10" s="513" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -23532,9 +23564,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="502"/>
-      <c r="C11" s="513"/>
-      <c r="D11" s="510"/>
+      <c r="B11" s="510"/>
+      <c r="C11" s="511"/>
+      <c r="D11" s="513"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -23561,8 +23593,8 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="502"/>
-      <c r="C12" s="503" t="s">
+      <c r="B12" s="510"/>
+      <c r="C12" s="514" t="s">
         <v>247</v>
       </c>
       <c r="D12" s="515" t="s">
@@ -23590,8 +23622,8 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="502"/>
-      <c r="C13" s="503"/>
+      <c r="B13" s="510"/>
+      <c r="C13" s="514"/>
       <c r="D13" s="515"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
@@ -23615,13 +23647,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="502" t="s">
+      <c r="B14" s="510" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="508" t="s">
+      <c r="C14" s="523" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="504" t="s">
+      <c r="D14" s="524" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -23646,9 +23678,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="502"/>
-      <c r="C15" s="508"/>
-      <c r="D15" s="504"/>
+      <c r="B15" s="510"/>
+      <c r="C15" s="523"/>
+      <c r="D15" s="524"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -23671,9 +23703,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="502"/>
-      <c r="C16" s="508"/>
-      <c r="D16" s="510" t="s">
+      <c r="B16" s="510"/>
+      <c r="C16" s="523"/>
+      <c r="D16" s="513" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -23698,9 +23730,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="502"/>
-      <c r="C17" s="508"/>
-      <c r="D17" s="510"/>
+      <c r="B17" s="510"/>
+      <c r="C17" s="523"/>
+      <c r="D17" s="513"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -23723,11 +23755,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="502"/>
-      <c r="C18" s="503" t="s">
+      <c r="B18" s="510"/>
+      <c r="C18" s="514" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="504" t="s">
+      <c r="D18" s="524" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -23752,9 +23784,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="502"/>
-      <c r="C19" s="503"/>
-      <c r="D19" s="504"/>
+      <c r="B19" s="510"/>
+      <c r="C19" s="514"/>
+      <c r="D19" s="524"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -23777,13 +23809,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="502" t="s">
+      <c r="B20" s="510" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="508" t="s">
+      <c r="C20" s="523" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="504" t="s">
+      <c r="D20" s="524" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -23808,9 +23840,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="502"/>
-      <c r="C21" s="508"/>
-      <c r="D21" s="504"/>
+      <c r="B21" s="510"/>
+      <c r="C21" s="523"/>
+      <c r="D21" s="524"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -23833,9 +23865,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="502"/>
-      <c r="C22" s="508"/>
-      <c r="D22" s="509" t="s">
+      <c r="B22" s="510"/>
+      <c r="C22" s="523"/>
+      <c r="D22" s="525" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -23856,9 +23888,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="502"/>
-      <c r="C23" s="508"/>
-      <c r="D23" s="509"/>
+      <c r="B23" s="510"/>
+      <c r="C23" s="523"/>
+      <c r="D23" s="525"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -23877,13 +23909,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="502" t="s">
+      <c r="B24" s="510" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="503" t="s">
+      <c r="C24" s="514" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="504" t="s">
+      <c r="D24" s="524" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -23912,9 +23944,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="502"/>
-      <c r="C25" s="503"/>
-      <c r="D25" s="504"/>
+      <c r="B25" s="510"/>
+      <c r="C25" s="514"/>
+      <c r="D25" s="524"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -23941,13 +23973,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="502" t="s">
+      <c r="B26" s="510" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="503" t="s">
+      <c r="C26" s="514" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="504" t="s">
+      <c r="D26" s="524" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -23968,9 +24000,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="502"/>
-      <c r="C27" s="503"/>
-      <c r="D27" s="504"/>
+      <c r="B27" s="510"/>
+      <c r="C27" s="514"/>
+      <c r="D27" s="524"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -23992,23 +24024,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="505" t="s">
+      <c r="C29" s="526" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="505"/>
-      <c r="E29" s="505"/>
-      <c r="F29" s="505"/>
-      <c r="G29" s="505"/>
-      <c r="H29" s="505"/>
-      <c r="I29" s="505"/>
-      <c r="J29" s="505"/>
-      <c r="K29" s="505"/>
-      <c r="L29" s="505"/>
-      <c r="M29" s="505"/>
-      <c r="N29" s="505"/>
-      <c r="O29" s="505"/>
-      <c r="P29" s="505"/>
-      <c r="Q29" s="505"/>
+      <c r="D29" s="526"/>
+      <c r="E29" s="526"/>
+      <c r="F29" s="526"/>
+      <c r="G29" s="526"/>
+      <c r="H29" s="526"/>
+      <c r="I29" s="526"/>
+      <c r="J29" s="526"/>
+      <c r="K29" s="526"/>
+      <c r="L29" s="526"/>
+      <c r="M29" s="526"/>
+      <c r="N29" s="526"/>
+      <c r="O29" s="526"/>
+      <c r="P29" s="526"/>
+      <c r="Q29" s="526"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -24052,10 +24084,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="506" t="s">
+      <c r="C32" s="527" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="507"/>
+      <c r="D32" s="528"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -24070,6 +24102,51 @@
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:F3"/>
@@ -24084,51 +24161,6 @@
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -24157,16 +24189,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EA7F4-FBCF-47D0-A702-D6A889B6B19D}">
   <dimension ref="A2:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J19" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:X49"/>
+    <sheetView tabSelected="1" topLeftCell="J31" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44:U49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="9" width="0" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="8.796875" collapsed="1"/>
-    <col min="21" max="21" width="8.796875" style="528"/>
-    <col min="22" max="22" width="8.796875" style="529"/>
+    <col min="21" max="21" width="8.796875" style="436"/>
+    <col min="22" max="22" width="8.796875" style="437"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
@@ -24219,10 +24251,10 @@
       <c r="T2" t="s">
         <v>103</v>
       </c>
-      <c r="U2" s="528" t="s">
+      <c r="U2" s="436" t="s">
         <v>167</v>
       </c>
-      <c r="V2" s="529" t="s">
+      <c r="V2" s="437" t="s">
         <v>104</v>
       </c>
     </row>
@@ -24268,10 +24300,10 @@
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="U3" s="528">
+      <c r="U3" s="436">
         <v>1</v>
       </c>
-      <c r="V3" s="529" t="s">
+      <c r="V3" s="437" t="s">
         <v>8</v>
       </c>
       <c r="X3" t="str">
@@ -24331,10 +24363,10 @@
       <c r="T4">
         <v>2</v>
       </c>
-      <c r="U4" s="528" t="s">
+      <c r="U4" s="436" t="s">
         <v>902</v>
       </c>
-      <c r="V4" s="529" t="s">
+      <c r="V4" s="437" t="s">
         <v>90</v>
       </c>
       <c r="X4" t="str">
@@ -24394,10 +24426,10 @@
       <c r="T5">
         <v>3</v>
       </c>
-      <c r="U5" s="528" t="s">
+      <c r="U5" s="436" t="s">
         <v>164</v>
       </c>
-      <c r="V5" s="529" t="s">
+      <c r="V5" s="437" t="s">
         <v>37</v>
       </c>
       <c r="X5" t="str">
@@ -24457,10 +24489,10 @@
       <c r="T6">
         <v>4</v>
       </c>
-      <c r="U6" s="528" t="s">
+      <c r="U6" s="436" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="529" t="s">
+      <c r="V6" s="437" t="s">
         <v>55</v>
       </c>
       <c r="X6" t="str">
@@ -24518,10 +24550,10 @@
       <c r="T7">
         <v>5</v>
       </c>
-      <c r="U7" s="528">
+      <c r="U7" s="436">
         <v>2</v>
       </c>
-      <c r="V7" s="529" t="s">
+      <c r="V7" s="437" t="s">
         <v>10</v>
       </c>
       <c r="X7" t="str">
@@ -24581,10 +24613,10 @@
       <c r="T8">
         <v>6</v>
       </c>
-      <c r="U8" s="528" t="s">
+      <c r="U8" s="436" t="s">
         <v>170</v>
       </c>
-      <c r="V8" s="529" t="s">
+      <c r="V8" s="437" t="s">
         <v>39</v>
       </c>
       <c r="X8" t="str">
@@ -24642,10 +24674,10 @@
       <c r="T9">
         <v>7</v>
       </c>
-      <c r="U9" s="528" t="s">
+      <c r="U9" s="436" t="s">
         <v>99</v>
       </c>
-      <c r="V9" s="529" t="s">
+      <c r="V9" s="437" t="s">
         <v>67</v>
       </c>
       <c r="X9" t="str">
@@ -24705,10 +24737,10 @@
       <c r="T10">
         <v>8</v>
       </c>
-      <c r="U10" s="528" t="s">
+      <c r="U10" s="436" t="s">
         <v>171</v>
       </c>
-      <c r="V10" s="529" t="s">
+      <c r="V10" s="437" t="s">
         <v>92</v>
       </c>
       <c r="X10" t="str">
@@ -24764,10 +24796,10 @@
       <c r="T11">
         <v>9</v>
       </c>
-      <c r="U11" s="528" t="s">
+      <c r="U11" s="436" t="s">
         <v>53</v>
       </c>
-      <c r="V11" s="529" t="s">
+      <c r="V11" s="437" t="s">
         <v>41</v>
       </c>
       <c r="X11" t="str">
@@ -24825,10 +24857,10 @@
       <c r="T12">
         <v>10</v>
       </c>
-      <c r="U12" s="528" t="s">
+      <c r="U12" s="436" t="s">
         <v>26</v>
       </c>
-      <c r="V12" s="529" t="s">
+      <c r="V12" s="437" t="s">
         <v>44</v>
       </c>
       <c r="X12" t="str">
@@ -24886,10 +24918,10 @@
       <c r="T13">
         <v>11</v>
       </c>
-      <c r="U13" s="528" t="s">
+      <c r="U13" s="436" t="s">
         <v>163</v>
       </c>
-      <c r="V13" s="529" t="s">
+      <c r="V13" s="437" t="s">
         <v>69</v>
       </c>
       <c r="X13" t="str">
@@ -24947,10 +24979,10 @@
       <c r="T14">
         <v>12</v>
       </c>
-      <c r="U14" s="528" t="s">
+      <c r="U14" s="436" t="s">
         <v>166</v>
       </c>
-      <c r="V14" s="529" t="s">
+      <c r="V14" s="437" t="s">
         <v>94</v>
       </c>
       <c r="X14" t="str">
@@ -25006,10 +25038,10 @@
       <c r="T15">
         <v>13</v>
       </c>
-      <c r="U15" s="528" t="s">
+      <c r="U15" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="V15" s="529" t="s">
+      <c r="V15" s="437" t="s">
         <v>72</v>
       </c>
       <c r="X15" t="str">
@@ -25069,10 +25101,10 @@
       <c r="T16">
         <v>14</v>
       </c>
-      <c r="U16" s="528" t="s">
+      <c r="U16" s="436" t="s">
         <v>175</v>
       </c>
-      <c r="V16" s="529" t="s">
+      <c r="V16" s="437" t="s">
         <v>46</v>
       </c>
       <c r="X16" t="str">
@@ -25108,10 +25140,10 @@
       <c r="T17">
         <v>15</v>
       </c>
-      <c r="U17" s="528" t="s">
+      <c r="U17" s="436" t="s">
         <v>29</v>
       </c>
-      <c r="V17" s="529" t="s">
+      <c r="V17" s="437" t="s">
         <v>106</v>
       </c>
       <c r="X17" t="str">
@@ -25123,10 +25155,10 @@
       <c r="T18">
         <v>16</v>
       </c>
-      <c r="U18" s="528" t="s">
+      <c r="U18" s="436" t="s">
         <v>95</v>
       </c>
-      <c r="V18" s="529" t="s">
+      <c r="V18" s="437" t="s">
         <v>74</v>
       </c>
       <c r="X18" t="str">
@@ -25138,10 +25170,10 @@
       <c r="T19">
         <v>17</v>
       </c>
-      <c r="U19" s="528" t="s">
+      <c r="U19" s="436" t="s">
         <v>68</v>
       </c>
-      <c r="V19" s="529" t="s">
+      <c r="V19" s="437" t="s">
         <v>98</v>
       </c>
       <c r="X19" t="str">
@@ -25153,10 +25185,10 @@
       <c r="T20">
         <v>18</v>
       </c>
-      <c r="U20" s="528" t="s">
+      <c r="U20" s="436" t="s">
         <v>77</v>
       </c>
-      <c r="V20" s="529" t="s">
+      <c r="V20" s="437" t="s">
         <v>48</v>
       </c>
       <c r="X20" t="str">
@@ -25168,10 +25200,10 @@
       <c r="T21">
         <v>19</v>
       </c>
-      <c r="U21" s="528" t="s">
+      <c r="U21" s="436" t="s">
         <v>97</v>
       </c>
-      <c r="V21" s="529" t="s">
+      <c r="V21" s="437" t="s">
         <v>76</v>
       </c>
       <c r="X21" t="str">
@@ -25183,10 +25215,10 @@
       <c r="T22">
         <v>20</v>
       </c>
-      <c r="U22" s="528" t="s">
+      <c r="U22" s="436" t="s">
         <v>66</v>
       </c>
-      <c r="V22" s="529" t="s">
+      <c r="V22" s="437" t="s">
         <v>100</v>
       </c>
       <c r="X22" t="str">
@@ -25198,10 +25230,10 @@
       <c r="T23">
         <v>21</v>
       </c>
-      <c r="U23" s="528">
+      <c r="U23" s="436">
         <v>8</v>
       </c>
-      <c r="V23" s="529" t="s">
+      <c r="V23" s="437" t="s">
         <v>20</v>
       </c>
       <c r="X23" t="str">
@@ -25213,10 +25245,10 @@
       <c r="T24">
         <v>22</v>
       </c>
-      <c r="U24" s="528" t="s">
+      <c r="U24" s="436" t="s">
         <v>49</v>
       </c>
-      <c r="V24" s="529" t="s">
+      <c r="V24" s="437" t="s">
         <v>50</v>
       </c>
       <c r="X24" t="str">
@@ -25228,10 +25260,10 @@
       <c r="T25">
         <v>23</v>
       </c>
-      <c r="U25" s="528" t="s">
+      <c r="U25" s="436" t="s">
         <v>42</v>
       </c>
-      <c r="V25" s="529" t="s">
+      <c r="V25" s="437" t="s">
         <v>78</v>
       </c>
       <c r="X25" t="str">
@@ -25243,10 +25275,10 @@
       <c r="T26">
         <v>24</v>
       </c>
-      <c r="U26" s="528" t="s">
+      <c r="U26" s="436" t="s">
         <v>180</v>
       </c>
-      <c r="V26" s="529" t="s">
+      <c r="V26" s="437" t="s">
         <v>322</v>
       </c>
       <c r="X26" t="str">
@@ -25258,10 +25290,10 @@
       <c r="T27">
         <v>25</v>
       </c>
-      <c r="U27" s="528" t="s">
+      <c r="U27" s="436" t="s">
         <v>9</v>
       </c>
-      <c r="V27" s="529" t="s">
+      <c r="V27" s="437" t="s">
         <v>54</v>
       </c>
       <c r="X27" t="str">
@@ -25273,10 +25305,10 @@
       <c r="T28">
         <v>26</v>
       </c>
-      <c r="U28" s="528" t="s">
+      <c r="U28" s="436" t="s">
         <v>184</v>
       </c>
-      <c r="V28" s="529" t="s">
+      <c r="V28" s="437" t="s">
         <v>115</v>
       </c>
       <c r="X28" t="str">
@@ -25288,10 +25320,10 @@
       <c r="T29">
         <v>27</v>
       </c>
-      <c r="U29" s="528">
+      <c r="U29" s="436">
         <v>9</v>
       </c>
-      <c r="V29" s="529" t="s">
+      <c r="V29" s="437" t="s">
         <v>22</v>
       </c>
       <c r="X29" t="str">
@@ -25303,10 +25335,10 @@
       <c r="T30">
         <v>28</v>
       </c>
-      <c r="U30" s="528" t="s">
+      <c r="U30" s="436" t="s">
         <v>93</v>
       </c>
-      <c r="V30" s="529" t="s">
+      <c r="V30" s="437" t="s">
         <v>80</v>
       </c>
       <c r="X30" t="str">
@@ -25318,10 +25350,10 @@
       <c r="T31">
         <v>29</v>
       </c>
-      <c r="U31" s="528">
+      <c r="U31" s="436">
         <v>0</v>
       </c>
-      <c r="V31" s="529" t="s">
+      <c r="V31" s="437" t="s">
         <v>23</v>
       </c>
       <c r="X31" t="str">
@@ -25333,10 +25365,10 @@
       <c r="T32">
         <v>30</v>
       </c>
-      <c r="U32" s="528" t="s">
+      <c r="U32" s="436" t="s">
         <v>183</v>
       </c>
-      <c r="V32" s="529" t="s">
+      <c r="V32" s="437" t="s">
         <v>81</v>
       </c>
       <c r="X32" t="str">
@@ -25348,10 +25380,10 @@
       <c r="T33">
         <v>31</v>
       </c>
-      <c r="U33" s="528" t="s">
+      <c r="U33" s="436" t="s">
         <v>30</v>
       </c>
-      <c r="V33" s="529" t="s">
+      <c r="V33" s="437" t="s">
         <v>116</v>
       </c>
       <c r="X33" t="str">
@@ -25363,10 +25395,10 @@
       <c r="T34">
         <v>32</v>
       </c>
-      <c r="U34" s="528" t="s">
+      <c r="U34" s="436" t="s">
         <v>61</v>
       </c>
-      <c r="V34" s="529" t="s">
+      <c r="V34" s="437" t="s">
         <v>117</v>
       </c>
       <c r="X34" t="str">
@@ -25378,10 +25410,10 @@
       <c r="T35">
         <v>33</v>
       </c>
-      <c r="U35" s="528" t="s">
+      <c r="U35" s="436" t="s">
         <v>177</v>
       </c>
-      <c r="V35" s="529" t="s">
+      <c r="V35" s="437" t="s">
         <v>107</v>
       </c>
       <c r="X35" t="str">
@@ -25393,10 +25425,10 @@
       <c r="T36">
         <v>34</v>
       </c>
-      <c r="U36" s="528" t="s">
+      <c r="U36" s="436" t="s">
         <v>31</v>
       </c>
-      <c r="V36" s="529" t="s">
+      <c r="V36" s="437" t="s">
         <v>108</v>
       </c>
       <c r="X36" t="str">
@@ -25408,10 +25440,10 @@
       <c r="T37">
         <v>35</v>
       </c>
-      <c r="U37" s="528" t="s">
+      <c r="U37" s="436" t="s">
         <v>181</v>
       </c>
-      <c r="V37" s="529" t="s">
+      <c r="V37" s="437" t="s">
         <v>110</v>
       </c>
       <c r="X37" t="str">
@@ -25423,10 +25455,10 @@
       <c r="T38">
         <v>36</v>
       </c>
-      <c r="U38" s="528" t="s">
+      <c r="U38" s="436" t="s">
         <v>179</v>
       </c>
-      <c r="V38" s="529" t="s">
+      <c r="V38" s="437" t="s">
         <v>111</v>
       </c>
       <c r="X38" t="str">
@@ -25438,10 +25470,10 @@
       <c r="T39">
         <v>37</v>
       </c>
-      <c r="U39" s="528" t="s">
+      <c r="U39" s="436" t="s">
         <v>63</v>
       </c>
-      <c r="V39" s="529" t="s">
+      <c r="V39" s="437" t="s">
         <v>112</v>
       </c>
       <c r="X39" t="str">
@@ -25453,10 +25485,10 @@
       <c r="T40">
         <v>38</v>
       </c>
-      <c r="U40" s="528" t="s">
+      <c r="U40" s="436" t="s">
         <v>172</v>
       </c>
-      <c r="V40" s="529" t="s">
+      <c r="V40" s="437" t="s">
         <v>101</v>
       </c>
       <c r="X40" t="str">
@@ -25468,10 +25500,10 @@
       <c r="T41">
         <v>39</v>
       </c>
-      <c r="U41" s="528" t="s">
+      <c r="U41" s="436" t="s">
         <v>173</v>
       </c>
-      <c r="V41" s="529" t="s">
+      <c r="V41" s="437" t="s">
         <v>114</v>
       </c>
       <c r="X41" t="str">
@@ -25483,10 +25515,10 @@
       <c r="T42">
         <v>40</v>
       </c>
-      <c r="U42" s="528" t="s">
+      <c r="U42" s="436" t="s">
         <v>174</v>
       </c>
-      <c r="V42" s="529" t="s">
+      <c r="V42" s="437" t="s">
         <v>113</v>
       </c>
       <c r="X42" t="str">
@@ -25498,10 +25530,10 @@
       <c r="T43">
         <v>41</v>
       </c>
-      <c r="U43" s="528" t="s">
+      <c r="U43" s="436" t="s">
         <v>165</v>
       </c>
-      <c r="V43" s="529" t="s">
+      <c r="V43" s="437" t="s">
         <v>910</v>
       </c>
       <c r="X43" t="str">
@@ -25513,10 +25545,10 @@
       <c r="T44">
         <v>42</v>
       </c>
-      <c r="U44" s="528" t="s">
+      <c r="U44" s="436" t="s">
         <v>118</v>
       </c>
-      <c r="V44" s="529" t="s">
+      <c r="V44" s="437" t="s">
         <v>807</v>
       </c>
       <c r="X44" t="str">
@@ -25528,10 +25560,10 @@
       <c r="T45">
         <v>43</v>
       </c>
-      <c r="U45" s="528">
+      <c r="U45" s="436">
         <v>4</v>
       </c>
-      <c r="V45" s="529" t="s">
+      <c r="V45" s="437" t="s">
         <v>14</v>
       </c>
       <c r="X45" t="str">
@@ -25543,10 +25575,10 @@
       <c r="T46">
         <v>44</v>
       </c>
-      <c r="U46" s="528">
+      <c r="U46" s="436">
         <v>3</v>
       </c>
-      <c r="V46" s="529" t="s">
+      <c r="V46" s="437" t="s">
         <v>12</v>
       </c>
       <c r="X46" t="str">
@@ -25558,10 +25590,10 @@
       <c r="T47">
         <v>45</v>
       </c>
-      <c r="U47" s="528">
+      <c r="U47" s="436">
         <v>6</v>
       </c>
-      <c r="V47" s="529" t="s">
+      <c r="V47" s="437" t="s">
         <v>18</v>
       </c>
       <c r="X47" t="str">
@@ -25573,10 +25605,10 @@
       <c r="T48">
         <v>46</v>
       </c>
-      <c r="U48" s="528">
+      <c r="U48" s="436">
         <v>5</v>
       </c>
-      <c r="V48" s="529" t="s">
+      <c r="V48" s="437" t="s">
         <v>16</v>
       </c>
       <c r="X48" t="str">
@@ -25588,10 +25620,10 @@
       <c r="T49">
         <v>47</v>
       </c>
-      <c r="U49" s="528">
+      <c r="U49" s="436">
         <v>7</v>
       </c>
-      <c r="V49" s="529" t="s">
+      <c r="V49" s="437" t="s">
         <v>909</v>
       </c>
       <c r="X49" t="str">
@@ -26591,31 +26623,31 @@
       </c>
       <c r="H8" s="479"/>
       <c r="I8" s="480"/>
-      <c r="J8" s="488" t="s">
+      <c r="J8" s="481" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="489"/>
-      <c r="L8" s="490"/>
-      <c r="M8" s="488" t="s">
+      <c r="K8" s="482"/>
+      <c r="L8" s="483"/>
+      <c r="M8" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="489"/>
-      <c r="O8" s="490"/>
-      <c r="P8" s="491" t="s">
+      <c r="N8" s="482"/>
+      <c r="O8" s="483"/>
+      <c r="P8" s="484" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="492"/>
-      <c r="R8" s="493"/>
-      <c r="S8" s="488" t="s">
+      <c r="Q8" s="485"/>
+      <c r="R8" s="486"/>
+      <c r="S8" s="481" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="489"/>
-      <c r="U8" s="490"/>
-      <c r="V8" s="488" t="s">
+      <c r="T8" s="482"/>
+      <c r="U8" s="483"/>
+      <c r="V8" s="481" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="489"/>
-      <c r="X8" s="490"/>
+      <c r="W8" s="482"/>
+      <c r="X8" s="483"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -26634,21 +26666,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="481" t="s">
+      <c r="AE8" s="496" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="475" t="s">
+      <c r="AF8" s="497"/>
+      <c r="AG8" s="498"/>
+      <c r="AH8" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="476"/>
-      <c r="AJ8" s="477"/>
-      <c r="AK8" s="475" t="s">
+      <c r="AI8" s="488"/>
+      <c r="AJ8" s="489"/>
+      <c r="AK8" s="487" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="476"/>
-      <c r="AM8" s="477"/>
+      <c r="AL8" s="488"/>
+      <c r="AM8" s="489"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -26705,38 +26737,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="484" t="s">
+      <c r="J9" s="490" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="485"/>
+      <c r="K9" s="491"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="484" t="s">
+      <c r="M9" s="490" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="485"/>
+      <c r="N9" s="491"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="486" t="s">
+      <c r="P9" s="492" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="487"/>
+      <c r="Q9" s="493"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="484" t="s">
+      <c r="S9" s="490" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="485"/>
+      <c r="T9" s="491"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="486" t="s">
+      <c r="V9" s="492" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="487"/>
+      <c r="W9" s="493"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -26770,8 +26802,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="473"/>
-      <c r="AL9" s="474"/>
+      <c r="AK9" s="494"/>
+      <c r="AL9" s="495"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -26789,7 +26821,7 @@
         <f xml:space="preserve"> ROW() -8</f>
         <v>1</v>
       </c>
-      <c r="BF9" s="524">
+      <c r="BF9" s="433">
         <v>1</v>
       </c>
       <c r="BG9" s="108" t="s">
@@ -26808,15 +26840,15 @@
         <f xml:space="preserve"> MATCH(TEXT(BN9, "0"), $BF$9:$BF$55, 0)</f>
         <v>#N/A</v>
       </c>
-      <c r="BN9" s="525" t="str">
+      <c r="BN9" s="434" t="str">
         <f t="shared" ref="BN9:BN40" si="1" xml:space="preserve"> MID($BP$4, $BL9, 1)</f>
         <v>1</v>
       </c>
-      <c r="BO9" s="526" t="str">
+      <c r="BO9" s="435" t="str">
         <f t="shared" ref="BO9:BO40" si="2" xml:space="preserve"> MID($BP$5, $BL9, 1)</f>
         <v>1</v>
       </c>
-      <c r="BQ9" s="527" t="str">
+      <c r="BQ9" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(""", 表格7[@按鍵字元], "": ", 表格7[[#This Row],[注音符號]])</f>
         <v>", 表格7[@按鍵字元], ": ㄅ</v>
       </c>
@@ -26882,31 +26914,31 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="481" t="s">
+      <c r="AC10" s="496" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="482"/>
-      <c r="AE10" s="483"/>
-      <c r="AF10" s="481" t="s">
+      <c r="AD10" s="497"/>
+      <c r="AE10" s="498"/>
+      <c r="AF10" s="496" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="483"/>
-      <c r="AI10" s="481" t="s">
+      <c r="AG10" s="497"/>
+      <c r="AH10" s="498"/>
+      <c r="AI10" s="496" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="482"/>
-      <c r="AK10" s="483"/>
-      <c r="AL10" s="481" t="s">
+      <c r="AJ10" s="497"/>
+      <c r="AK10" s="498"/>
+      <c r="AL10" s="496" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="482"/>
-      <c r="AN10" s="483"/>
-      <c r="AO10" s="475" t="s">
+      <c r="AM10" s="497"/>
+      <c r="AN10" s="498"/>
+      <c r="AO10" s="487" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="476"/>
-      <c r="AQ10" s="477"/>
+      <c r="AP10" s="488"/>
+      <c r="AQ10" s="489"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -26921,7 +26953,7 @@
         <f t="shared" ref="BE10:BE58" si="3" xml:space="preserve"> ROW() -8</f>
         <v>2</v>
       </c>
-      <c r="BF10" s="524" t="s">
+      <c r="BF10" s="433" t="s">
         <v>902</v>
       </c>
       <c r="BG10" s="108" t="s">
@@ -26937,11 +26969,11 @@
         <v>2</v>
       </c>
       <c r="BM10" s="371"/>
-      <c r="BN10" s="525" t="str">
+      <c r="BN10" s="434" t="str">
         <f t="shared" si="1"/>
         <v>!</v>
       </c>
-      <c r="BO10" s="526" t="str">
+      <c r="BO10" s="435" t="str">
         <f t="shared" si="2"/>
         <v>!</v>
       </c>
@@ -27033,14 +27065,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="473"/>
-      <c r="AJ11" s="474"/>
+      <c r="AI11" s="494"/>
+      <c r="AJ11" s="495"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="473"/>
-      <c r="AM11" s="474"/>
+      <c r="AL11" s="494"/>
+      <c r="AM11" s="495"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="473"/>
-      <c r="AP11" s="474"/>
+      <c r="AO11" s="494"/>
+      <c r="AP11" s="495"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -27056,7 +27088,7 @@
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="BF11" s="524" t="s">
+      <c r="BF11" s="433" t="s">
         <v>164</v>
       </c>
       <c r="BG11" s="108" t="s">
@@ -27072,11 +27104,11 @@
         <v>3</v>
       </c>
       <c r="BM11" s="371"/>
-      <c r="BN11" s="525" t="str">
+      <c r="BN11" s="434" t="str">
         <f t="shared" si="1"/>
         <v>q</v>
       </c>
-      <c r="BO11" s="526" t="str">
+      <c r="BO11" s="435" t="str">
         <f t="shared" si="2"/>
         <v>q</v>
       </c>
@@ -27126,11 +27158,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="481" t="s">
+      <c r="AA12" s="496" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="482"/>
-      <c r="AC12" s="483"/>
+      <c r="AB12" s="497"/>
+      <c r="AC12" s="498"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -27140,16 +27172,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="481" t="s">
+      <c r="AG12" s="496" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
-      <c r="AJ12" s="475" t="s">
+      <c r="AH12" s="497"/>
+      <c r="AI12" s="498"/>
+      <c r="AJ12" s="487" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="476"/>
-      <c r="AL12" s="477"/>
+      <c r="AK12" s="488"/>
+      <c r="AL12" s="489"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -27172,7 +27204,7 @@
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="BF12" s="524" t="s">
+      <c r="BF12" s="433" t="s">
         <v>21</v>
       </c>
       <c r="BG12" s="108" t="s">
@@ -27188,11 +27220,11 @@
         <v>4</v>
       </c>
       <c r="BM12" s="371"/>
-      <c r="BN12" s="525" t="str">
+      <c r="BN12" s="434" t="str">
         <f t="shared" si="1"/>
         <v>a</v>
       </c>
-      <c r="BO12" s="526" t="str">
+      <c r="BO12" s="435" t="str">
         <f t="shared" si="2"/>
         <v>a</v>
       </c>
@@ -27285,8 +27317,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="473"/>
-      <c r="AK13" s="474"/>
+      <c r="AJ13" s="494"/>
+      <c r="AK13" s="495"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -27310,7 +27342,7 @@
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="BF13" s="524">
+      <c r="BF13" s="433">
         <v>2</v>
       </c>
       <c r="BG13" s="108" t="s">
@@ -27326,11 +27358,11 @@
         <v>5</v>
       </c>
       <c r="BM13" s="371"/>
-      <c r="BN13" s="525" t="str">
+      <c r="BN13" s="434" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BO13" s="526" t="str">
+      <c r="BO13" s="435" t="str">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -27372,11 +27404,11 @@
       </c>
       <c r="W14" s="479"/>
       <c r="X14" s="480"/>
-      <c r="Y14" s="481" t="s">
+      <c r="Y14" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="482"/>
-      <c r="AA14" s="483"/>
+      <c r="Z14" s="497"/>
+      <c r="AA14" s="498"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -27386,16 +27418,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="481" t="s">
+      <c r="AE14" s="496" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="482"/>
-      <c r="AG14" s="483"/>
-      <c r="AH14" s="475" t="s">
+      <c r="AF14" s="497"/>
+      <c r="AG14" s="498"/>
+      <c r="AH14" s="487" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="476"/>
-      <c r="AJ14" s="477"/>
+      <c r="AI14" s="488"/>
+      <c r="AJ14" s="489"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -27420,7 +27452,7 @@
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-      <c r="BF14" s="524" t="s">
+      <c r="BF14" s="433" t="s">
         <v>170</v>
       </c>
       <c r="BG14" s="108" t="s">
@@ -27436,11 +27468,11 @@
         <v>6</v>
       </c>
       <c r="BM14" s="371"/>
-      <c r="BN14" s="525" t="str">
+      <c r="BN14" s="434" t="str">
         <f t="shared" si="1"/>
         <v>w</v>
       </c>
-      <c r="BO14" s="526" t="str">
+      <c r="BO14" s="435" t="str">
         <f t="shared" si="2"/>
         <v>w</v>
       </c>
@@ -27541,7 +27573,7 @@
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-      <c r="BF15" s="524" t="s">
+      <c r="BF15" s="433" t="s">
         <v>99</v>
       </c>
       <c r="BG15" s="108" t="s">
@@ -27557,11 +27589,11 @@
         <v>7</v>
       </c>
       <c r="BM15" s="371"/>
-      <c r="BN15" s="525" t="str">
+      <c r="BN15" s="434" t="str">
         <f t="shared" si="1"/>
         <v>s</v>
       </c>
-      <c r="BO15" s="526" t="str">
+      <c r="BO15" s="435" t="str">
         <f t="shared" si="2"/>
         <v>s</v>
       </c>
@@ -27626,7 +27658,7 @@
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="BF16" s="524" t="s">
+      <c r="BF16" s="433" t="s">
         <v>171</v>
       </c>
       <c r="BG16" s="108" t="s">
@@ -27642,11 +27674,11 @@
         <v>8</v>
       </c>
       <c r="BM16" s="371"/>
-      <c r="BN16" s="525" t="str">
+      <c r="BN16" s="434" t="str">
         <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="BO16" s="526" t="str">
+      <c r="BO16" s="435" t="str">
         <f t="shared" si="2"/>
         <v>x</v>
       </c>
@@ -27667,7 +27699,7 @@
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
-      <c r="BF17" s="524" t="s">
+      <c r="BF17" s="433" t="s">
         <v>53</v>
       </c>
       <c r="BG17" s="108" t="s">
@@ -27683,11 +27715,11 @@
         <v>9</v>
       </c>
       <c r="BM17" s="371"/>
-      <c r="BN17" s="525" t="str">
+      <c r="BN17" s="434" t="str">
         <f t="shared" si="1"/>
         <v>e</v>
       </c>
-      <c r="BO17" s="526" t="str">
+      <c r="BO17" s="435" t="str">
         <f t="shared" si="2"/>
         <v>e</v>
       </c>
@@ -27754,7 +27786,7 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-      <c r="BF18" s="524" t="s">
+      <c r="BF18" s="433" t="s">
         <v>26</v>
       </c>
       <c r="BG18" s="108" t="s">
@@ -27770,11 +27802,11 @@
         <v>10</v>
       </c>
       <c r="BM18" s="371"/>
-      <c r="BN18" s="525" t="str">
+      <c r="BN18" s="434" t="str">
         <f t="shared" si="1"/>
         <v>E</v>
       </c>
-      <c r="BO18" s="526" t="str">
+      <c r="BO18" s="435" t="str">
         <f t="shared" si="2"/>
         <v>E</v>
       </c>
@@ -27853,7 +27885,7 @@
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="BF19" s="524" t="s">
+      <c r="BF19" s="433" t="s">
         <v>163</v>
       </c>
       <c r="BG19" s="108" t="s">
@@ -27869,11 +27901,11 @@
         <v>11</v>
       </c>
       <c r="BM19" s="371"/>
-      <c r="BN19" s="525" t="str">
+      <c r="BN19" s="434" t="str">
         <f t="shared" si="1"/>
         <v>d</v>
       </c>
-      <c r="BO19" s="526" t="str">
+      <c r="BO19" s="435" t="str">
         <f t="shared" si="2"/>
         <v>d</v>
       </c>
@@ -27950,7 +27982,7 @@
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="BF20" s="524" t="s">
+      <c r="BF20" s="433" t="s">
         <v>166</v>
       </c>
       <c r="BG20" s="108" t="s">
@@ -27966,11 +27998,11 @@
         <v>12</v>
       </c>
       <c r="BM20" s="371"/>
-      <c r="BN20" s="525" t="str">
+      <c r="BN20" s="434" t="str">
         <f t="shared" si="1"/>
         <v>D</v>
       </c>
-      <c r="BO20" s="526" t="str">
+      <c r="BO20" s="435" t="str">
         <f t="shared" si="2"/>
         <v>D</v>
       </c>
@@ -28038,7 +28070,7 @@
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="BF21" s="524" t="s">
+      <c r="BF21" s="433" t="s">
         <v>174</v>
       </c>
       <c r="BG21" s="108" t="s">
@@ -28054,11 +28086,11 @@
         <v>13</v>
       </c>
       <c r="BM21" s="371"/>
-      <c r="BN21" s="525" t="str">
+      <c r="BN21" s="434" t="str">
         <f t="shared" si="1"/>
         <v>c</v>
       </c>
-      <c r="BO21" s="526" t="str">
+      <c r="BO21" s="435" t="str">
         <f t="shared" si="2"/>
         <v>c</v>
       </c>
@@ -28123,7 +28155,7 @@
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="BF22" s="524" t="s">
+      <c r="BF22" s="433" t="s">
         <v>175</v>
       </c>
       <c r="BG22" s="108" t="s">
@@ -28139,11 +28171,11 @@
         <v>14</v>
       </c>
       <c r="BM22" s="371"/>
-      <c r="BN22" s="525" t="str">
+      <c r="BN22" s="434" t="str">
         <f t="shared" si="1"/>
         <v>r</v>
       </c>
-      <c r="BO22" s="526" t="str">
+      <c r="BO22" s="435" t="str">
         <f t="shared" si="2"/>
         <v>r</v>
       </c>
@@ -28210,7 +28242,7 @@
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="BF23" s="524" t="s">
+      <c r="BF23" s="433" t="s">
         <v>29</v>
       </c>
       <c r="BG23" s="108" t="s">
@@ -28226,11 +28258,11 @@
         <v>15</v>
       </c>
       <c r="BM23" s="371"/>
-      <c r="BN23" s="525" t="str">
+      <c r="BN23" s="434" t="str">
         <f t="shared" si="1"/>
         <v>R</v>
       </c>
-      <c r="BO23" s="526" t="str">
+      <c r="BO23" s="435" t="str">
         <f t="shared" si="2"/>
         <v>R</v>
       </c>
@@ -28299,7 +28331,7 @@
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
-      <c r="BF24" s="524" t="s">
+      <c r="BF24" s="433" t="s">
         <v>95</v>
       </c>
       <c r="BG24" s="108" t="s">
@@ -28315,11 +28347,11 @@
         <v>16</v>
       </c>
       <c r="BM24" s="371"/>
-      <c r="BN24" s="525" t="str">
+      <c r="BN24" s="434" t="str">
         <f t="shared" si="1"/>
         <v>f</v>
       </c>
-      <c r="BO24" s="526" t="str">
+      <c r="BO24" s="435" t="str">
         <f t="shared" si="2"/>
         <v>f</v>
       </c>
@@ -28389,7 +28421,7 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="BF25" s="524" t="s">
+      <c r="BF25" s="433" t="s">
         <v>68</v>
       </c>
       <c r="BG25" s="108" t="s">
@@ -28405,11 +28437,11 @@
         <v>17</v>
       </c>
       <c r="BM25" s="371"/>
-      <c r="BN25" s="525" t="str">
+      <c r="BN25" s="434" t="str">
         <f t="shared" si="1"/>
         <v>v</v>
       </c>
-      <c r="BO25" s="526" t="str">
+      <c r="BO25" s="435" t="str">
         <f t="shared" si="2"/>
         <v>v</v>
       </c>
@@ -28478,7 +28510,7 @@
         <f t="shared" si="3"/>
         <v>18</v>
       </c>
-      <c r="BF26" s="524" t="s">
+      <c r="BF26" s="433" t="s">
         <v>77</v>
       </c>
       <c r="BG26" s="108" t="s">
@@ -28494,11 +28526,11 @@
         <v>18</v>
       </c>
       <c r="BM26" s="371"/>
-      <c r="BN26" s="525" t="str">
+      <c r="BN26" s="434" t="str">
         <f t="shared" si="1"/>
         <v>y</v>
       </c>
-      <c r="BO26" s="526" t="str">
+      <c r="BO26" s="435" t="str">
         <f t="shared" si="2"/>
         <v>y</v>
       </c>
@@ -28561,7 +28593,7 @@
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="BF27" s="524" t="s">
+      <c r="BF27" s="433" t="s">
         <v>97</v>
       </c>
       <c r="BG27" s="108" t="s">
@@ -28577,11 +28609,11 @@
         <v>19</v>
       </c>
       <c r="BM27" s="371"/>
-      <c r="BN27" s="525" t="str">
+      <c r="BN27" s="434" t="str">
         <f t="shared" si="1"/>
         <v>Y</v>
       </c>
-      <c r="BO27" s="526" t="str">
+      <c r="BO27" s="435" t="str">
         <f t="shared" si="2"/>
         <v>Y</v>
       </c>
@@ -28641,7 +28673,7 @@
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="BF28" s="524" t="s">
+      <c r="BF28" s="433" t="s">
         <v>66</v>
       </c>
       <c r="BG28" s="108" t="s">
@@ -28657,11 +28689,11 @@
         <v>20</v>
       </c>
       <c r="BM28" s="371"/>
-      <c r="BN28" s="525" t="str">
+      <c r="BN28" s="434" t="str">
         <f t="shared" si="1"/>
         <v>h</v>
       </c>
-      <c r="BO28" s="526" t="str">
+      <c r="BO28" s="435" t="str">
         <f t="shared" si="2"/>
         <v>h</v>
       </c>
@@ -28723,7 +28755,7 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="BF29" s="524">
+      <c r="BF29" s="433">
         <v>8</v>
       </c>
       <c r="BG29" s="108" t="s">
@@ -28739,11 +28771,11 @@
         <v>21</v>
       </c>
       <c r="BM29" s="371"/>
-      <c r="BN29" s="525" t="str">
+      <c r="BN29" s="434" t="str">
         <f t="shared" si="1"/>
         <v>n</v>
       </c>
-      <c r="BO29" s="526" t="str">
+      <c r="BO29" s="435" t="str">
         <f t="shared" si="2"/>
         <v>n</v>
       </c>
@@ -28812,7 +28844,7 @@
         <f t="shared" si="3"/>
         <v>22</v>
       </c>
-      <c r="BF30" s="524" t="s">
+      <c r="BF30" s="433" t="s">
         <v>49</v>
       </c>
       <c r="BG30" s="108" t="s">
@@ -28828,11 +28860,11 @@
         <v>22</v>
       </c>
       <c r="BM30" s="371"/>
-      <c r="BN30" s="525" t="str">
+      <c r="BN30" s="434" t="str">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="BO30" s="526" t="str">
+      <c r="BO30" s="435" t="str">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -28906,7 +28938,7 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="BF31" s="524" t="s">
+      <c r="BF31" s="433" t="s">
         <v>42</v>
       </c>
       <c r="BG31" s="108" t="s">
@@ -28922,11 +28954,11 @@
         <v>23</v>
       </c>
       <c r="BM31" s="371"/>
-      <c r="BN31" s="525" t="str">
+      <c r="BN31" s="434" t="str">
         <f t="shared" si="1"/>
         <v>*</v>
       </c>
-      <c r="BO31" s="526" t="str">
+      <c r="BO31" s="435" t="str">
         <f t="shared" si="2"/>
         <v>*</v>
       </c>
@@ -29001,7 +29033,7 @@
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="BF32" s="524" t="s">
+      <c r="BF32" s="433" t="s">
         <v>180</v>
       </c>
       <c r="BG32" s="108" t="s">
@@ -29017,11 +29049,11 @@
         <v>24</v>
       </c>
       <c r="BM32" s="371"/>
-      <c r="BN32" s="525" t="str">
+      <c r="BN32" s="434" t="str">
         <f t="shared" si="1"/>
         <v>i</v>
       </c>
-      <c r="BO32" s="526" t="str">
+      <c r="BO32" s="435" t="str">
         <f t="shared" si="2"/>
         <v>i</v>
       </c>
@@ -29089,7 +29121,7 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="BF33" s="524" t="s">
+      <c r="BF33" s="433" t="s">
         <v>9</v>
       </c>
       <c r="BG33" s="108" t="s">
@@ -29105,11 +29137,11 @@
         <v>25</v>
       </c>
       <c r="BM33" s="371"/>
-      <c r="BN33" s="525" t="str">
+      <c r="BN33" s="434" t="str">
         <f t="shared" si="1"/>
         <v>I</v>
       </c>
-      <c r="BO33" s="526" t="str">
+      <c r="BO33" s="435" t="str">
         <f t="shared" si="2"/>
         <v>I</v>
       </c>
@@ -29174,7 +29206,7 @@
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="BF34" s="524" t="s">
+      <c r="BF34" s="433" t="s">
         <v>184</v>
       </c>
       <c r="BG34" s="108" t="s">
@@ -29190,11 +29222,11 @@
         <v>26</v>
       </c>
       <c r="BM34" s="371"/>
-      <c r="BN34" s="525" t="str">
+      <c r="BN34" s="434" t="str">
         <f t="shared" si="1"/>
         <v>k</v>
       </c>
-      <c r="BO34" s="526" t="str">
+      <c r="BO34" s="435" t="str">
         <f t="shared" si="2"/>
         <v>k</v>
       </c>
@@ -29259,7 +29291,7 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="BF35" s="524">
+      <c r="BF35" s="433">
         <v>9</v>
       </c>
       <c r="BG35" s="108" t="s">
@@ -29275,11 +29307,11 @@
         <v>27</v>
       </c>
       <c r="BM35" s="371"/>
-      <c r="BN35" s="525" t="str">
+      <c r="BN35" s="434" t="str">
         <f t="shared" si="1"/>
         <v>o</v>
       </c>
-      <c r="BO35" s="526" t="str">
+      <c r="BO35" s="435" t="str">
         <f t="shared" si="2"/>
         <v>o</v>
       </c>
@@ -29344,7 +29376,7 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="BF36" s="524" t="s">
+      <c r="BF36" s="433" t="s">
         <v>93</v>
       </c>
       <c r="BG36" s="108" t="s">
@@ -29360,11 +29392,11 @@
         <v>28</v>
       </c>
       <c r="BM36" s="371"/>
-      <c r="BN36" s="525" t="str">
+      <c r="BN36" s="434" t="str">
         <f t="shared" si="1"/>
         <v>O</v>
       </c>
-      <c r="BO36" s="526" t="str">
+      <c r="BO36" s="435" t="str">
         <f t="shared" si="2"/>
         <v>O</v>
       </c>
@@ -29429,7 +29461,7 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="BF37" s="524">
+      <c r="BF37" s="433">
         <v>0</v>
       </c>
       <c r="BG37" s="108" t="s">
@@ -29445,11 +29477,11 @@
         <v>29</v>
       </c>
       <c r="BM37" s="371"/>
-      <c r="BN37" s="525" t="str">
+      <c r="BN37" s="434" t="str">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="BO37" s="526" t="str">
+      <c r="BO37" s="435" t="str">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -29514,7 +29546,7 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="BF38" s="524" t="s">
+      <c r="BF38" s="433" t="s">
         <v>183</v>
       </c>
       <c r="BG38" s="108" t="s">
@@ -29530,11 +29562,11 @@
         <v>30</v>
       </c>
       <c r="BM38" s="371"/>
-      <c r="BN38" s="525" t="str">
+      <c r="BN38" s="434" t="str">
         <f t="shared" si="1"/>
         <v>(</v>
       </c>
-      <c r="BO38" s="526" t="str">
+      <c r="BO38" s="435" t="str">
         <f t="shared" si="2"/>
         <v>(</v>
       </c>
@@ -29599,7 +29631,7 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="BF39" s="524" t="s">
+      <c r="BF39" s="433" t="s">
         <v>30</v>
       </c>
       <c r="BG39" s="108" t="s">
@@ -29615,11 +29647,11 @@
         <v>31</v>
       </c>
       <c r="BM39" s="371"/>
-      <c r="BN39" s="525" t="str">
+      <c r="BN39" s="434" t="str">
         <f t="shared" si="1"/>
         <v>l</v>
       </c>
-      <c r="BO39" s="526" t="str">
+      <c r="BO39" s="435" t="str">
         <f t="shared" si="2"/>
         <v>l</v>
       </c>
@@ -29652,7 +29684,7 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="BF40" s="524" t="s">
+      <c r="BF40" s="433" t="s">
         <v>61</v>
       </c>
       <c r="BG40" s="108" t="s">
@@ -29668,11 +29700,11 @@
         <v>32</v>
       </c>
       <c r="BM40" s="371"/>
-      <c r="BN40" s="525" t="str">
+      <c r="BN40" s="434" t="str">
         <f t="shared" si="1"/>
         <v>L</v>
       </c>
-      <c r="BO40" s="526" t="str">
+      <c r="BO40" s="435" t="str">
         <f t="shared" si="2"/>
         <v>L</v>
       </c>
@@ -29738,7 +29770,7 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="BF41" s="524" t="s">
+      <c r="BF41" s="433" t="s">
         <v>177</v>
       </c>
       <c r="BG41" s="108" t="s">
@@ -29754,11 +29786,11 @@
         <v>33</v>
       </c>
       <c r="BM41" s="371"/>
-      <c r="BN41" s="525" t="str">
+      <c r="BN41" s="434" t="str">
         <f t="shared" ref="BN41:BN63" si="4" xml:space="preserve"> MID($BP$4, $BL41, 1)</f>
         <v>,</v>
       </c>
-      <c r="BO41" s="526" t="str">
+      <c r="BO41" s="435" t="str">
         <f t="shared" ref="BO41:BO63" si="5" xml:space="preserve"> MID($BP$5, $BL41, 1)</f>
         <v>,</v>
       </c>
@@ -29823,7 +29855,7 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="BF42" s="524" t="s">
+      <c r="BF42" s="433" t="s">
         <v>31</v>
       </c>
       <c r="BG42" s="108" t="s">
@@ -29839,11 +29871,11 @@
         <v>34</v>
       </c>
       <c r="BM42" s="371"/>
-      <c r="BN42" s="525" t="str">
+      <c r="BN42" s="434" t="str">
         <f t="shared" si="4"/>
         <v>&lt;</v>
       </c>
-      <c r="BO42" s="526" t="str">
+      <c r="BO42" s="435" t="str">
         <f t="shared" si="5"/>
         <v>&lt;</v>
       </c>
@@ -29908,7 +29940,7 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="BF43" s="524" t="s">
+      <c r="BF43" s="433" t="s">
         <v>181</v>
       </c>
       <c r="BG43" s="108" t="s">
@@ -29924,11 +29956,11 @@
         <v>35</v>
       </c>
       <c r="BM43" s="371"/>
-      <c r="BN43" s="525" t="str">
+      <c r="BN43" s="434" t="str">
         <f t="shared" si="4"/>
         <v>m</v>
       </c>
-      <c r="BO43" s="526" t="str">
+      <c r="BO43" s="435" t="str">
         <f t="shared" si="5"/>
         <v>m</v>
       </c>
@@ -29993,7 +30025,7 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="BF44" s="524" t="s">
+      <c r="BF44" s="433" t="s">
         <v>179</v>
       </c>
       <c r="BG44" s="108" t="s">
@@ -30009,11 +30041,11 @@
         <v>36</v>
       </c>
       <c r="BM44" s="371"/>
-      <c r="BN44" s="525" t="str">
+      <c r="BN44" s="434" t="str">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="BO44" s="526" t="str">
+      <c r="BO44" s="435" t="str">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -30078,7 +30110,7 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="BF45" s="524" t="s">
+      <c r="BF45" s="433" t="s">
         <v>63</v>
       </c>
       <c r="BG45" s="108" t="s">
@@ -30094,11 +30126,11 @@
         <v>37</v>
       </c>
       <c r="BM45" s="371"/>
-      <c r="BN45" s="525" t="str">
+      <c r="BN45" s="434" t="str">
         <f t="shared" si="4"/>
         <v>p</v>
       </c>
-      <c r="BO45" s="526" t="str">
+      <c r="BO45" s="435" t="str">
         <f t="shared" si="5"/>
         <v>p</v>
       </c>
@@ -30163,7 +30195,7 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="BF46" s="524" t="s">
+      <c r="BF46" s="433" t="s">
         <v>172</v>
       </c>
       <c r="BG46" s="108" t="s">
@@ -30179,11 +30211,11 @@
         <v>38</v>
       </c>
       <c r="BM46" s="371"/>
-      <c r="BN46" s="525" t="str">
+      <c r="BN46" s="434" t="str">
         <f t="shared" si="4"/>
         <v>;</v>
       </c>
-      <c r="BO46" s="526" t="str">
+      <c r="BO46" s="435" t="str">
         <f t="shared" si="5"/>
         <v>;</v>
       </c>
@@ -30248,7 +30280,7 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="BF47" s="524" t="s">
+      <c r="BF47" s="433" t="s">
         <v>173</v>
       </c>
       <c r="BG47" s="108" t="s">
@@ -30264,11 +30296,11 @@
         <v>39</v>
       </c>
       <c r="BM47" s="371"/>
-      <c r="BN47" s="525" t="str">
+      <c r="BN47" s="434" t="str">
         <f t="shared" si="4"/>
         <v>:</v>
       </c>
-      <c r="BO47" s="526" t="str">
+      <c r="BO47" s="435" t="str">
         <f t="shared" si="5"/>
         <v>:</v>
       </c>
@@ -30333,7 +30365,7 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="BF48" s="524" t="s">
+      <c r="BF48" s="433" t="s">
         <v>174</v>
       </c>
       <c r="BG48" s="108" t="s">
@@ -30349,11 +30381,11 @@
         <v>40</v>
       </c>
       <c r="BM48" s="371"/>
-      <c r="BN48" s="525" t="str">
+      <c r="BN48" s="434" t="str">
         <f t="shared" si="4"/>
         <v>/</v>
       </c>
-      <c r="BO48" s="526" t="str">
+      <c r="BO48" s="435" t="str">
         <f t="shared" si="5"/>
         <v>/</v>
       </c>
@@ -30418,7 +30450,7 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="BF49" s="524" t="s">
+      <c r="BF49" s="433" t="s">
         <v>932</v>
       </c>
       <c r="BG49" s="108" t="s">
@@ -30434,11 +30466,11 @@
         <v>41</v>
       </c>
       <c r="BM49" s="371"/>
-      <c r="BN49" s="525" t="str">
+      <c r="BN49" s="434" t="str">
         <f t="shared" si="4"/>
         <v>-</v>
       </c>
-      <c r="BO49" s="526" t="str">
+      <c r="BO49" s="435" t="str">
         <f t="shared" si="5"/>
         <v>-</v>
       </c>
@@ -30503,7 +30535,7 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="BF50" s="524" t="s">
+      <c r="BF50" s="433" t="s">
         <v>118</v>
       </c>
       <c r="BG50" s="108" t="s">
@@ -30519,11 +30551,11 @@
         <v>42</v>
       </c>
       <c r="BM50" s="371"/>
-      <c r="BN50" s="525" t="str">
+      <c r="BN50" s="434" t="str">
         <f t="shared" si="4"/>
         <v>u</v>
       </c>
-      <c r="BO50" s="526" t="str">
+      <c r="BO50" s="435" t="str">
         <f t="shared" si="5"/>
         <v>u</v>
       </c>
@@ -30588,7 +30620,7 @@
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="BF51" s="524">
+      <c r="BF51" s="433">
         <v>4</v>
       </c>
       <c r="BG51" s="108" t="s">
@@ -30604,11 +30636,11 @@
         <v>43</v>
       </c>
       <c r="BM51" s="371"/>
-      <c r="BN51" s="525" t="str">
+      <c r="BN51" s="434" t="str">
         <f t="shared" si="4"/>
         <v>U</v>
       </c>
-      <c r="BO51" s="526" t="str">
+      <c r="BO51" s="435" t="str">
         <f t="shared" si="5"/>
         <v>U</v>
       </c>
@@ -30673,7 +30705,7 @@
         <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="BF52" s="524">
+      <c r="BF52" s="433">
         <v>3</v>
       </c>
       <c r="BG52" s="108" t="s">
@@ -30689,11 +30721,11 @@
         <v>44</v>
       </c>
       <c r="BM52" s="371"/>
-      <c r="BN52" s="525" t="str">
+      <c r="BN52" s="434" t="str">
         <f t="shared" si="4"/>
         <v>j</v>
       </c>
-      <c r="BO52" s="526" t="str">
+      <c r="BO52" s="435" t="str">
         <f t="shared" si="5"/>
         <v>j</v>
       </c>
@@ -30758,7 +30790,7 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="BF53" s="524">
+      <c r="BF53" s="433">
         <v>6</v>
       </c>
       <c r="BG53" s="108" t="s">
@@ -30774,11 +30806,11 @@
         <v>45</v>
       </c>
       <c r="BM53" s="371"/>
-      <c r="BN53" s="525" t="str">
+      <c r="BN53" s="434" t="str">
         <f t="shared" si="4"/>
         <v>J</v>
       </c>
-      <c r="BO53" s="526" t="str">
+      <c r="BO53" s="435" t="str">
         <f t="shared" si="5"/>
         <v>J</v>
       </c>
@@ -30843,7 +30875,7 @@
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="BF54" s="524">
+      <c r="BF54" s="433">
         <v>5</v>
       </c>
       <c r="BG54" s="108" t="s">
@@ -30859,11 +30891,11 @@
         <v>46</v>
       </c>
       <c r="BM54" s="371"/>
-      <c r="BN54" s="525" t="str">
+      <c r="BN54" s="434" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="BO54" s="526" t="str">
+      <c r="BO54" s="435" t="str">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
@@ -30928,7 +30960,7 @@
         <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="BF55" s="524">
+      <c r="BF55" s="433">
         <v>7</v>
       </c>
       <c r="BG55" s="108" t="s">
@@ -30944,11 +30976,11 @@
         <v>47</v>
       </c>
       <c r="BM55" s="371"/>
-      <c r="BN55" s="525" t="str">
+      <c r="BN55" s="434" t="str">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="BO55" s="526" t="str">
+      <c r="BO55" s="435" t="str">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
@@ -31013,7 +31045,7 @@
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="BF56" s="524"/>
+      <c r="BF56" s="433"/>
       <c r="BG56" s="108"/>
       <c r="BH56" s="171"/>
       <c r="BI56" s="109"/>
@@ -31021,11 +31053,11 @@
         <v>48</v>
       </c>
       <c r="BM56" s="371"/>
-      <c r="BN56" s="525" t="str">
+      <c r="BN56" s="434" t="str">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="BO56" s="526" t="str">
+      <c r="BO56" s="435" t="str">
         <f t="shared" si="5"/>
         <v>b</v>
       </c>
@@ -31090,7 +31122,7 @@
         <f t="shared" si="3"/>
         <v>49</v>
       </c>
-      <c r="BF57" s="524"/>
+      <c r="BF57" s="433"/>
       <c r="BG57" s="108"/>
       <c r="BH57" s="171"/>
       <c r="BI57" s="109"/>
@@ -31098,11 +31130,11 @@
         <v>49</v>
       </c>
       <c r="BM57" s="371"/>
-      <c r="BN57" s="525" t="str">
+      <c r="BN57" s="434" t="str">
         <f t="shared" si="4"/>
         <v>b</v>
       </c>
-      <c r="BO57" s="526" t="str">
+      <c r="BO57" s="435" t="str">
         <f t="shared" si="5"/>
         <v>t</v>
       </c>
@@ -31167,7 +31199,7 @@
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="BF58" s="524"/>
+      <c r="BF58" s="433"/>
       <c r="BG58" s="108"/>
       <c r="BH58" s="171"/>
       <c r="BI58" s="109"/>
@@ -31175,11 +31207,11 @@
         <v>50</v>
       </c>
       <c r="BM58" s="371"/>
-      <c r="BN58" s="525" t="str">
+      <c r="BN58" s="434" t="str">
         <f t="shared" si="4"/>
         <v>t</v>
       </c>
-      <c r="BO58" s="526" t="str">
+      <c r="BO58" s="435" t="str">
         <f t="shared" si="5"/>
         <v>g</v>
       </c>
@@ -31211,11 +31243,11 @@
         <v>51</v>
       </c>
       <c r="BM59" s="371"/>
-      <c r="BN59" s="525" t="str">
+      <c r="BN59" s="434" t="str">
         <f t="shared" si="4"/>
         <v>g</v>
       </c>
-      <c r="BO59" s="526" t="str">
+      <c r="BO59" s="435" t="str">
         <f t="shared" si="5"/>
         <v>z</v>
       </c>
@@ -31225,11 +31257,11 @@
         <v>52</v>
       </c>
       <c r="BM60" s="371"/>
-      <c r="BN60" s="525" t="str">
+      <c r="BN60" s="434" t="str">
         <f t="shared" si="4"/>
         <v>z</v>
       </c>
-      <c r="BO60" s="526" t="str">
+      <c r="BO60" s="435" t="str">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
@@ -31239,11 +31271,11 @@
         <v>53</v>
       </c>
       <c r="BM61" s="371"/>
-      <c r="BN61" s="525" t="str">
+      <c r="BN61" s="434" t="str">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="BO61" s="526" t="str">
+      <c r="BO61" s="435" t="str">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
@@ -31253,11 +31285,11 @@
         <v>54</v>
       </c>
       <c r="BM62" s="371"/>
-      <c r="BN62" s="525" t="str">
+      <c r="BN62" s="434" t="str">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="BO62" s="526" t="str">
+      <c r="BO62" s="435" t="str">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -31267,22 +31299,48 @@
         <v>55</v>
       </c>
       <c r="BM63" s="371"/>
-      <c r="BN63" s="525" t="str">
+      <c r="BN63" s="434" t="str">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="BO63" s="526" t="str">
+      <c r="BO63" s="435" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AJ13:AK13"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AK8:AM8"/>
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="M9:N9"/>
@@ -31293,37 +31351,11 @@
     <mergeCell ref="V8:X8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="V9:W9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AJ13:AK13"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35923,31 +35955,31 @@
       </c>
       <c r="H8" s="479"/>
       <c r="I8" s="480"/>
-      <c r="J8" s="488" t="s">
+      <c r="J8" s="481" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="489"/>
-      <c r="L8" s="490"/>
-      <c r="M8" s="488" t="s">
+      <c r="K8" s="482"/>
+      <c r="L8" s="483"/>
+      <c r="M8" s="481" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="489"/>
-      <c r="O8" s="490"/>
+      <c r="N8" s="482"/>
+      <c r="O8" s="483"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="488" t="s">
+      <c r="S8" s="481" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="489"/>
-      <c r="U8" s="490"/>
-      <c r="V8" s="488" t="s">
+      <c r="T8" s="482"/>
+      <c r="U8" s="483"/>
+      <c r="V8" s="481" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="489"/>
-      <c r="X8" s="490"/>
+      <c r="W8" s="482"/>
+      <c r="X8" s="483"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -35958,21 +35990,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="481" t="s">
+      <c r="AE8" s="496" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="482"/>
-      <c r="AG8" s="483"/>
-      <c r="AH8" s="475" t="s">
+      <c r="AF8" s="497"/>
+      <c r="AG8" s="498"/>
+      <c r="AH8" s="487" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="476"/>
-      <c r="AJ8" s="477"/>
-      <c r="AK8" s="475" t="s">
+      <c r="AI8" s="488"/>
+      <c r="AJ8" s="489"/>
+      <c r="AK8" s="487" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="476"/>
-      <c r="AM8" s="477"/>
+      <c r="AL8" s="488"/>
+      <c r="AM8" s="489"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -36050,19 +36082,19 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="494" t="str">
+      <c r="J9" s="499" t="str">
         <f ca="1">AQ4</f>
         <v>ˇ</v>
       </c>
-      <c r="K9" s="495"/>
+      <c r="K9" s="500"/>
       <c r="L9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M9" s="496" t="str">
+      <c r="M9" s="501" t="str">
         <f ca="1">AR4</f>
         <v>ˋ</v>
       </c>
-      <c r="N9" s="497"/>
+      <c r="N9" s="502"/>
       <c r="O9" s="353" t="s">
         <v>890</v>
       </c>
@@ -36078,19 +36110,19 @@
         <f ca="1">R6</f>
         <v>zh</v>
       </c>
-      <c r="S9" s="496" t="str">
+      <c r="S9" s="501" t="str">
         <f ca="1">AP4</f>
         <v>ˊ</v>
       </c>
-      <c r="T9" s="497"/>
+      <c r="T9" s="502"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="486" t="str">
+      <c r="V9" s="492" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="485"/>
+      <c r="W9" s="491"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -36139,8 +36171,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="473"/>
-      <c r="AL9" s="474"/>
+      <c r="AK9" s="494"/>
+      <c r="AL9" s="495"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -36247,31 +36279,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="481" t="s">
+      <c r="AC10" s="496" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="482"/>
-      <c r="AE10" s="483"/>
-      <c r="AF10" s="481" t="s">
+      <c r="AD10" s="497"/>
+      <c r="AE10" s="498"/>
+      <c r="AF10" s="496" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="482"/>
-      <c r="AH10" s="483"/>
-      <c r="AI10" s="481" t="s">
+      <c r="AG10" s="497"/>
+      <c r="AH10" s="498"/>
+      <c r="AI10" s="496" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="482"/>
-      <c r="AK10" s="483"/>
-      <c r="AL10" s="481" t="s">
+      <c r="AJ10" s="497"/>
+      <c r="AK10" s="498"/>
+      <c r="AL10" s="496" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="482"/>
-      <c r="AN10" s="483"/>
-      <c r="AO10" s="475" t="s">
+      <c r="AM10" s="497"/>
+      <c r="AN10" s="498"/>
+      <c r="AO10" s="487" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="476"/>
-      <c r="AQ10" s="477"/>
+      <c r="AP10" s="488"/>
+      <c r="AQ10" s="489"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -36449,14 +36481,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="473"/>
-      <c r="AJ11" s="474"/>
+      <c r="AI11" s="494"/>
+      <c r="AJ11" s="495"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="473"/>
-      <c r="AM11" s="474"/>
+      <c r="AL11" s="494"/>
+      <c r="AM11" s="495"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="473"/>
-      <c r="AP11" s="474"/>
+      <c r="AO11" s="494"/>
+      <c r="AP11" s="495"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -36552,26 +36584,26 @@
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="481" t="s">
+      <c r="AA12" s="496" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="482"/>
-      <c r="AC12" s="483"/>
+      <c r="AB12" s="497"/>
+      <c r="AC12" s="498"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="481" t="s">
+      <c r="AG12" s="496" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="482"/>
-      <c r="AI12" s="483"/>
-      <c r="AJ12" s="475" t="s">
+      <c r="AH12" s="497"/>
+      <c r="AI12" s="498"/>
+      <c r="AJ12" s="487" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="476"/>
-      <c r="AL12" s="477"/>
+      <c r="AK12" s="488"/>
+      <c r="AL12" s="489"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -36758,8 +36790,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="473"/>
-      <c r="AK13" s="474"/>
+      <c r="AJ13" s="494"/>
+      <c r="AK13" s="495"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -36859,26 +36891,26 @@
       </c>
       <c r="W14" s="479"/>
       <c r="X14" s="480"/>
-      <c r="Y14" s="481" t="s">
+      <c r="Y14" s="496" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="482"/>
-      <c r="AA14" s="483"/>
+      <c r="Z14" s="497"/>
+      <c r="AA14" s="498"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="481" t="s">
+      <c r="AE14" s="496" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="482"/>
-      <c r="AG14" s="483"/>
-      <c r="AH14" s="475" t="s">
+      <c r="AF14" s="497"/>
+      <c r="AG14" s="498"/>
+      <c r="AH14" s="487" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="476"/>
-      <c r="AJ14" s="477"/>
+      <c r="AI14" s="488"/>
+      <c r="AJ14" s="489"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -40870,16 +40902,24 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -40896,24 +40936,16 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_河洛方音V2.xlsx
+++ b/docs/鍵盤設計規格_河洛方音V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88CFCF7-A153-491F-AAC1-D40851D48861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDFAB6B-917A-4488-A33F-DC403B6DB785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="990" windowWidth="28980" windowHeight="15840" activeTab="14" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="13" xr2:uid="{8ADEA2FE-7CD1-466B-8EB5-9AA2577FE19A}"/>
   </bookViews>
   <sheets>
     <sheet name="鍵盤圖" sheetId="6" r:id="rId1"/>
@@ -7562,70 +7562,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="92" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7646,22 +7589,28 @@
     <xf numFmtId="0" fontId="91" fillId="10" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="16" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7673,13 +7622,79 @@
     <xf numFmtId="0" fontId="97" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="5" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="6" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="95" fillId="10" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="103" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="10" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="9" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="110" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="109" fillId="9" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="16" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="16" borderId="4" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="16" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="16" borderId="1" xfId="3" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="4" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7689,6 +7704,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7709,42 +7745,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="11" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="11" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7757,19 +7757,43 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7778,19 +7802,10 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="11" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7817,23 +7832,8 @@
     <xf numFmtId="0" fontId="32" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -10533,61 +10533,61 @@
   <sheetData>
     <row r="1" spans="2:44" ht="15" thickBot="1"/>
     <row r="2" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="C2" s="463">
+      <c r="C2" s="444">
         <v>1</v>
       </c>
-      <c r="D2" s="464"/>
-      <c r="E2" s="465"/>
-      <c r="F2" s="463">
+      <c r="D2" s="445"/>
+      <c r="E2" s="446"/>
+      <c r="F2" s="444">
         <v>2</v>
       </c>
-      <c r="G2" s="464"/>
-      <c r="H2" s="465"/>
-      <c r="I2" s="453">
+      <c r="G2" s="445"/>
+      <c r="H2" s="446"/>
+      <c r="I2" s="468">
         <v>3</v>
       </c>
-      <c r="J2" s="454"/>
-      <c r="K2" s="455"/>
-      <c r="L2" s="453">
+      <c r="J2" s="469"/>
+      <c r="K2" s="470"/>
+      <c r="L2" s="468">
         <v>4</v>
       </c>
-      <c r="M2" s="454"/>
-      <c r="N2" s="455"/>
-      <c r="O2" s="453">
+      <c r="M2" s="469"/>
+      <c r="N2" s="470"/>
+      <c r="O2" s="468">
         <v>5</v>
       </c>
-      <c r="P2" s="454"/>
-      <c r="Q2" s="455"/>
-      <c r="R2" s="453">
+      <c r="P2" s="469"/>
+      <c r="Q2" s="470"/>
+      <c r="R2" s="468">
         <v>6</v>
       </c>
-      <c r="S2" s="454"/>
-      <c r="T2" s="455"/>
-      <c r="U2" s="453">
+      <c r="S2" s="469"/>
+      <c r="T2" s="470"/>
+      <c r="U2" s="468">
         <v>7</v>
       </c>
-      <c r="V2" s="454"/>
-      <c r="W2" s="455"/>
-      <c r="X2" s="444">
+      <c r="V2" s="469"/>
+      <c r="W2" s="470"/>
+      <c r="X2" s="447">
         <v>8</v>
       </c>
-      <c r="Y2" s="439"/>
-      <c r="Z2" s="440"/>
-      <c r="AA2" s="444">
+      <c r="Y2" s="448"/>
+      <c r="Z2" s="449"/>
+      <c r="AA2" s="447">
         <v>9</v>
       </c>
-      <c r="AB2" s="439"/>
-      <c r="AC2" s="440"/>
-      <c r="AD2" s="444">
+      <c r="AB2" s="448"/>
+      <c r="AC2" s="449"/>
+      <c r="AD2" s="447">
         <v>0</v>
       </c>
-      <c r="AE2" s="439"/>
-      <c r="AF2" s="440"/>
-      <c r="AG2" s="438" t="s">
+      <c r="AE2" s="448"/>
+      <c r="AF2" s="449"/>
+      <c r="AG2" s="472" t="s">
         <v>451</v>
       </c>
-      <c r="AH2" s="439"/>
-      <c r="AI2" s="440"/>
+      <c r="AH2" s="448"/>
+      <c r="AI2" s="449"/>
       <c r="AJ2" s="142"/>
       <c r="AK2" s="142"/>
       <c r="AL2" s="142"/>
@@ -10596,56 +10596,56 @@
       </c>
     </row>
     <row r="3" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="C3" s="460" t="str">
+      <c r="C3" s="441" t="str">
         <f>D14</f>
         <v>ㄅ</v>
       </c>
-      <c r="D3" s="461"/>
-      <c r="E3" s="462"/>
-      <c r="F3" s="460" t="str">
+      <c r="D3" s="442"/>
+      <c r="E3" s="443"/>
+      <c r="F3" s="441" t="str">
         <f>H14</f>
         <v>ㄉ</v>
       </c>
-      <c r="G3" s="461"/>
-      <c r="H3" s="462"/>
-      <c r="I3" s="457" t="s">
+      <c r="G3" s="442"/>
+      <c r="H3" s="443"/>
+      <c r="I3" s="465" t="s">
         <v>449</v>
       </c>
-      <c r="J3" s="458"/>
-      <c r="K3" s="459"/>
-      <c r="L3" s="457" t="s">
+      <c r="J3" s="466"/>
+      <c r="K3" s="467"/>
+      <c r="L3" s="465" t="s">
         <v>448</v>
       </c>
-      <c r="M3" s="458"/>
-      <c r="N3" s="459"/>
-      <c r="O3" s="457"/>
-      <c r="P3" s="458"/>
-      <c r="Q3" s="459"/>
-      <c r="R3" s="466" t="s">
+      <c r="M3" s="466"/>
+      <c r="N3" s="467"/>
+      <c r="O3" s="465"/>
+      <c r="P3" s="466"/>
+      <c r="Q3" s="467"/>
+      <c r="R3" s="462" t="s">
         <v>447</v>
       </c>
-      <c r="S3" s="467"/>
-      <c r="T3" s="468"/>
-      <c r="U3" s="457" t="s">
+      <c r="S3" s="463"/>
+      <c r="T3" s="464"/>
+      <c r="U3" s="465" t="s">
         <v>446</v>
       </c>
-      <c r="V3" s="458"/>
-      <c r="W3" s="459"/>
-      <c r="X3" s="445" t="str">
+      <c r="V3" s="466"/>
+      <c r="W3" s="467"/>
+      <c r="X3" s="458" t="str">
         <f>D20</f>
         <v>ㄚ</v>
       </c>
-      <c r="Y3" s="446"/>
-      <c r="Z3" s="447"/>
-      <c r="AA3" s="445"/>
-      <c r="AB3" s="446"/>
-      <c r="AC3" s="447"/>
-      <c r="AD3" s="445"/>
-      <c r="AE3" s="446"/>
-      <c r="AF3" s="447"/>
-      <c r="AG3" s="441"/>
-      <c r="AH3" s="442"/>
-      <c r="AI3" s="443"/>
+      <c r="Y3" s="459"/>
+      <c r="Z3" s="460"/>
+      <c r="AA3" s="458"/>
+      <c r="AB3" s="459"/>
+      <c r="AC3" s="460"/>
+      <c r="AD3" s="458"/>
+      <c r="AE3" s="459"/>
+      <c r="AF3" s="460"/>
+      <c r="AG3" s="473"/>
+      <c r="AH3" s="474"/>
+      <c r="AI3" s="475"/>
       <c r="AQ3" s="156" t="s">
         <v>445</v>
       </c>
@@ -10654,109 +10654,109 @@
       </c>
     </row>
     <row r="4" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="D4" s="463" t="s">
+      <c r="D4" s="444" t="s">
         <v>444</v>
       </c>
-      <c r="E4" s="464"/>
-      <c r="F4" s="465"/>
-      <c r="G4" s="463" t="s">
+      <c r="E4" s="445"/>
+      <c r="F4" s="446"/>
+      <c r="G4" s="444" t="s">
         <v>379</v>
       </c>
-      <c r="H4" s="464"/>
-      <c r="I4" s="465"/>
-      <c r="J4" s="463" t="s">
+      <c r="H4" s="445"/>
+      <c r="I4" s="446"/>
+      <c r="J4" s="444" t="s">
         <v>443</v>
       </c>
-      <c r="K4" s="464"/>
-      <c r="L4" s="465"/>
-      <c r="M4" s="463" t="s">
+      <c r="K4" s="445"/>
+      <c r="L4" s="446"/>
+      <c r="M4" s="444" t="s">
         <v>442</v>
       </c>
-      <c r="N4" s="464"/>
-      <c r="O4" s="465"/>
-      <c r="P4" s="463" t="s">
+      <c r="N4" s="445"/>
+      <c r="O4" s="446"/>
+      <c r="P4" s="444" t="s">
         <v>441</v>
       </c>
-      <c r="Q4" s="464"/>
-      <c r="R4" s="465"/>
-      <c r="S4" s="463" t="s">
+      <c r="Q4" s="445"/>
+      <c r="R4" s="446"/>
+      <c r="S4" s="444" t="s">
         <v>440</v>
       </c>
-      <c r="T4" s="464"/>
-      <c r="U4" s="465"/>
-      <c r="V4" s="444" t="s">
+      <c r="T4" s="445"/>
+      <c r="U4" s="446"/>
+      <c r="V4" s="447" t="s">
         <v>439</v>
       </c>
-      <c r="W4" s="439"/>
-      <c r="X4" s="440"/>
-      <c r="Y4" s="444" t="s">
+      <c r="W4" s="448"/>
+      <c r="X4" s="449"/>
+      <c r="Y4" s="447" t="s">
         <v>438</v>
       </c>
-      <c r="Z4" s="439"/>
-      <c r="AA4" s="440"/>
-      <c r="AB4" s="444" t="s">
+      <c r="Z4" s="448"/>
+      <c r="AA4" s="449"/>
+      <c r="AB4" s="447" t="s">
         <v>435</v>
       </c>
-      <c r="AC4" s="439"/>
-      <c r="AD4" s="440"/>
-      <c r="AE4" s="444" t="s">
+      <c r="AC4" s="448"/>
+      <c r="AD4" s="449"/>
+      <c r="AE4" s="447" t="s">
         <v>437</v>
       </c>
-      <c r="AF4" s="439"/>
-      <c r="AG4" s="440"/>
+      <c r="AF4" s="448"/>
+      <c r="AG4" s="449"/>
       <c r="AJ4" s="142"/>
       <c r="AK4" s="142"/>
       <c r="AL4" s="142"/>
     </row>
     <row r="5" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="D5" s="460" t="str">
+      <c r="D5" s="441" t="str">
         <f>E14</f>
         <v>ㄆ</v>
       </c>
-      <c r="E5" s="461"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="460" t="str">
+      <c r="E5" s="442"/>
+      <c r="F5" s="443"/>
+      <c r="G5" s="441" t="str">
         <f>I14</f>
         <v>ㄊ</v>
       </c>
-      <c r="H5" s="461"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="460" t="str">
+      <c r="H5" s="442"/>
+      <c r="I5" s="443"/>
+      <c r="J5" s="441" t="str">
         <f>L14</f>
         <v>ㄍ</v>
       </c>
-      <c r="K5" s="461"/>
-      <c r="L5" s="462"/>
-      <c r="M5" s="460"/>
-      <c r="N5" s="461"/>
-      <c r="O5" s="462"/>
-      <c r="P5" s="469" t="str">
+      <c r="K5" s="442"/>
+      <c r="L5" s="443"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="442"/>
+      <c r="O5" s="443"/>
+      <c r="P5" s="438" t="str">
         <f>F14</f>
         <v>ㆠ</v>
       </c>
-      <c r="Q5" s="470"/>
-      <c r="R5" s="471"/>
-      <c r="S5" s="460" t="str">
+      <c r="Q5" s="439"/>
+      <c r="R5" s="440"/>
+      <c r="S5" s="441" t="str">
         <f>Q14</f>
         <v>ㄗ</v>
       </c>
-      <c r="T5" s="461"/>
-      <c r="U5" s="462"/>
-      <c r="V5" s="445" t="str">
+      <c r="T5" s="442"/>
+      <c r="U5" s="443"/>
+      <c r="V5" s="458" t="str">
         <f>F20</f>
         <v>ㄧ</v>
       </c>
-      <c r="W5" s="446"/>
-      <c r="X5" s="447"/>
-      <c r="Y5" s="445" t="str">
+      <c r="W5" s="459"/>
+      <c r="X5" s="460"/>
+      <c r="Y5" s="458" t="str">
         <f>L20</f>
         <v>ㆦ</v>
       </c>
-      <c r="Z5" s="446"/>
-      <c r="AA5" s="447"/>
-      <c r="AB5" s="445"/>
-      <c r="AC5" s="446"/>
-      <c r="AD5" s="447"/>
+      <c r="Z5" s="459"/>
+      <c r="AA5" s="460"/>
+      <c r="AB5" s="458"/>
+      <c r="AC5" s="459"/>
+      <c r="AD5" s="460"/>
       <c r="AE5" s="450" t="str">
         <f>P20</f>
         <v>ㄣ</v>
@@ -10772,109 +10772,109 @@
     </row>
     <row r="6" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
       <c r="D6" s="157"/>
-      <c r="E6" s="463" t="s">
+      <c r="E6" s="444" t="s">
         <v>434</v>
       </c>
-      <c r="F6" s="464"/>
-      <c r="G6" s="465"/>
-      <c r="H6" s="463" t="s">
+      <c r="F6" s="445"/>
+      <c r="G6" s="446"/>
+      <c r="H6" s="444" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="464"/>
-      <c r="J6" s="465"/>
-      <c r="K6" s="463" t="s">
+      <c r="I6" s="445"/>
+      <c r="J6" s="446"/>
+      <c r="K6" s="444" t="s">
         <v>432</v>
       </c>
-      <c r="L6" s="464"/>
-      <c r="M6" s="465"/>
-      <c r="N6" s="463" t="s">
+      <c r="L6" s="445"/>
+      <c r="M6" s="446"/>
+      <c r="N6" s="444" t="s">
         <v>431</v>
       </c>
-      <c r="O6" s="464"/>
-      <c r="P6" s="465"/>
-      <c r="Q6" s="463" t="s">
+      <c r="O6" s="445"/>
+      <c r="P6" s="446"/>
+      <c r="Q6" s="444" t="s">
         <v>430</v>
       </c>
-      <c r="R6" s="464"/>
-      <c r="S6" s="465"/>
-      <c r="T6" s="463" t="s">
+      <c r="R6" s="445"/>
+      <c r="S6" s="446"/>
+      <c r="T6" s="444" t="s">
         <v>429</v>
       </c>
-      <c r="U6" s="464"/>
-      <c r="V6" s="465"/>
-      <c r="W6" s="444" t="s">
+      <c r="U6" s="445"/>
+      <c r="V6" s="446"/>
+      <c r="W6" s="447" t="s">
         <v>428</v>
       </c>
-      <c r="X6" s="439"/>
-      <c r="Y6" s="440"/>
-      <c r="Z6" s="444" t="s">
+      <c r="X6" s="448"/>
+      <c r="Y6" s="449"/>
+      <c r="Z6" s="447" t="s">
         <v>427</v>
       </c>
-      <c r="AA6" s="439"/>
-      <c r="AB6" s="440"/>
-      <c r="AC6" s="444" t="s">
+      <c r="AA6" s="448"/>
+      <c r="AB6" s="449"/>
+      <c r="AC6" s="447" t="s">
         <v>426</v>
       </c>
-      <c r="AD6" s="439"/>
-      <c r="AE6" s="440"/>
-      <c r="AF6" s="444" t="s">
+      <c r="AD6" s="448"/>
+      <c r="AE6" s="449"/>
+      <c r="AF6" s="447" t="s">
         <v>425</v>
       </c>
-      <c r="AG6" s="439"/>
-      <c r="AH6" s="440"/>
+      <c r="AG6" s="448"/>
+      <c r="AH6" s="449"/>
     </row>
     <row r="7" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="E7" s="472" t="str">
+      <c r="E7" s="455" t="str">
         <f>G14</f>
         <v>ㄇ</v>
       </c>
-      <c r="F7" s="473"/>
-      <c r="G7" s="474"/>
-      <c r="H7" s="460" t="str">
+      <c r="F7" s="456"/>
+      <c r="G7" s="457"/>
+      <c r="H7" s="441" t="str">
         <f>J14</f>
         <v>ㄋ</v>
       </c>
-      <c r="I7" s="461"/>
-      <c r="J7" s="462"/>
-      <c r="K7" s="460" t="str">
+      <c r="I7" s="442"/>
+      <c r="J7" s="443"/>
+      <c r="K7" s="441" t="str">
         <f>M14</f>
         <v>ㄎ</v>
       </c>
-      <c r="L7" s="461"/>
-      <c r="M7" s="462"/>
-      <c r="N7" s="460"/>
-      <c r="O7" s="461"/>
-      <c r="P7" s="462"/>
-      <c r="Q7" s="475" t="str">
+      <c r="L7" s="442"/>
+      <c r="M7" s="443"/>
+      <c r="N7" s="441"/>
+      <c r="O7" s="442"/>
+      <c r="P7" s="443"/>
+      <c r="Q7" s="461" t="str">
         <f>N14</f>
         <v>ㆣ</v>
       </c>
-      <c r="R7" s="470"/>
-      <c r="S7" s="471"/>
-      <c r="T7" s="460" t="str">
+      <c r="R7" s="439"/>
+      <c r="S7" s="440"/>
+      <c r="T7" s="441" t="str">
         <f>R14</f>
         <v>ㄘ</v>
       </c>
-      <c r="U7" s="461"/>
-      <c r="V7" s="462"/>
-      <c r="W7" s="445" t="str">
+      <c r="U7" s="442"/>
+      <c r="V7" s="443"/>
+      <c r="W7" s="458" t="str">
         <f>H20</f>
         <v>ㄨ</v>
       </c>
-      <c r="X7" s="446"/>
-      <c r="Y7" s="447"/>
-      <c r="Z7" s="445" t="str">
+      <c r="X7" s="459"/>
+      <c r="Y7" s="460"/>
+      <c r="Z7" s="458" t="str">
         <f>N20</f>
         <v>ㄜ</v>
       </c>
-      <c r="AA7" s="446"/>
-      <c r="AB7" s="447"/>
-      <c r="AC7" s="445"/>
-      <c r="AD7" s="446"/>
-      <c r="AE7" s="447"/>
-      <c r="AF7" s="449"/>
-      <c r="AG7" s="446"/>
-      <c r="AH7" s="447"/>
+      <c r="AA7" s="459"/>
+      <c r="AB7" s="460"/>
+      <c r="AC7" s="458"/>
+      <c r="AD7" s="459"/>
+      <c r="AE7" s="460"/>
+      <c r="AF7" s="477"/>
+      <c r="AG7" s="459"/>
+      <c r="AH7" s="460"/>
       <c r="AQ7" s="156" t="s">
         <v>424</v>
       </c>
@@ -10883,112 +10883,112 @@
       </c>
     </row>
     <row r="8" spans="2:44" s="155" customFormat="1" ht="18" customHeight="1">
-      <c r="F8" s="463" t="s">
+      <c r="F8" s="444" t="s">
         <v>422</v>
       </c>
-      <c r="G8" s="464"/>
-      <c r="H8" s="465"/>
-      <c r="I8" s="463" t="s">
+      <c r="G8" s="445"/>
+      <c r="H8" s="446"/>
+      <c r="I8" s="444" t="s">
         <v>421</v>
       </c>
-      <c r="J8" s="464"/>
-      <c r="K8" s="465"/>
-      <c r="L8" s="463" t="s">
+      <c r="J8" s="445"/>
+      <c r="K8" s="446"/>
+      <c r="L8" s="444" t="s">
         <v>420</v>
       </c>
-      <c r="M8" s="464"/>
-      <c r="N8" s="465"/>
-      <c r="O8" s="463" t="s">
+      <c r="M8" s="445"/>
+      <c r="N8" s="446"/>
+      <c r="O8" s="444" t="s">
         <v>419</v>
       </c>
-      <c r="P8" s="464"/>
-      <c r="Q8" s="465"/>
-      <c r="R8" s="463" t="s">
+      <c r="P8" s="445"/>
+      <c r="Q8" s="446"/>
+      <c r="R8" s="444" t="s">
         <v>418</v>
       </c>
-      <c r="S8" s="464"/>
-      <c r="T8" s="465"/>
-      <c r="U8" s="463" t="s">
+      <c r="S8" s="445"/>
+      <c r="T8" s="446"/>
+      <c r="U8" s="444" t="s">
         <v>377</v>
       </c>
-      <c r="V8" s="464"/>
-      <c r="W8" s="465"/>
-      <c r="X8" s="444" t="s">
+      <c r="V8" s="445"/>
+      <c r="W8" s="446"/>
+      <c r="X8" s="447" t="s">
         <v>417</v>
       </c>
-      <c r="Y8" s="439"/>
-      <c r="Z8" s="440"/>
-      <c r="AA8" s="444" t="s">
+      <c r="Y8" s="448"/>
+      <c r="Z8" s="449"/>
+      <c r="AA8" s="447" t="s">
         <v>416</v>
       </c>
-      <c r="AB8" s="439"/>
-      <c r="AC8" s="440"/>
-      <c r="AD8" s="444" t="s">
+      <c r="AB8" s="448"/>
+      <c r="AC8" s="449"/>
+      <c r="AD8" s="447" t="s">
         <v>415</v>
       </c>
-      <c r="AE8" s="439"/>
-      <c r="AF8" s="440"/>
-      <c r="AG8" s="448" t="s">
+      <c r="AE8" s="448"/>
+      <c r="AF8" s="449"/>
+      <c r="AG8" s="476" t="s">
         <v>414</v>
       </c>
-      <c r="AH8" s="439"/>
-      <c r="AI8" s="440"/>
+      <c r="AH8" s="448"/>
+      <c r="AI8" s="449"/>
     </row>
     <row r="9" spans="2:44" ht="30" customHeight="1" thickBot="1">
-      <c r="F9" s="460"/>
-      <c r="G9" s="476"/>
-      <c r="H9" s="477"/>
-      <c r="I9" s="460" t="str">
+      <c r="F9" s="441"/>
+      <c r="G9" s="453"/>
+      <c r="H9" s="454"/>
+      <c r="I9" s="441" t="str">
         <f>K14</f>
         <v>ㄌ</v>
       </c>
-      <c r="J9" s="461"/>
-      <c r="K9" s="462"/>
-      <c r="L9" s="460" t="str">
+      <c r="J9" s="442"/>
+      <c r="K9" s="443"/>
+      <c r="L9" s="441" t="str">
         <f>P14</f>
         <v>ㄏ</v>
       </c>
-      <c r="M9" s="461"/>
-      <c r="N9" s="462"/>
-      <c r="O9" s="472" t="str">
+      <c r="M9" s="442"/>
+      <c r="N9" s="443"/>
+      <c r="O9" s="455" t="str">
         <f>O14</f>
         <v>ㄫ</v>
       </c>
-      <c r="P9" s="473"/>
-      <c r="Q9" s="474"/>
-      <c r="R9" s="469" t="str">
+      <c r="P9" s="456"/>
+      <c r="Q9" s="457"/>
+      <c r="R9" s="438" t="str">
         <f>S14</f>
         <v>ㆡ</v>
       </c>
-      <c r="S9" s="470"/>
-      <c r="T9" s="471"/>
-      <c r="U9" s="460" t="str">
+      <c r="S9" s="439"/>
+      <c r="T9" s="440"/>
+      <c r="U9" s="441" t="str">
         <f>T14</f>
         <v>ㄙ</v>
       </c>
-      <c r="V9" s="461"/>
-      <c r="W9" s="462"/>
+      <c r="V9" s="442"/>
+      <c r="W9" s="443"/>
       <c r="X9" s="450" t="str">
         <f>O20</f>
         <v>ㆬ</v>
       </c>
       <c r="Y9" s="451"/>
       <c r="Z9" s="452"/>
-      <c r="AA9" s="445" t="str">
+      <c r="AA9" s="458" t="str">
         <f>J20</f>
         <v>ㄝ</v>
       </c>
-      <c r="AB9" s="446"/>
-      <c r="AC9" s="447"/>
-      <c r="AD9" s="456" t="str">
+      <c r="AB9" s="459"/>
+      <c r="AC9" s="460"/>
+      <c r="AD9" s="471" t="str">
         <f>Q20</f>
         <v>ㄥ</v>
       </c>
       <c r="AE9" s="451"/>
       <c r="AF9" s="452"/>
-      <c r="AG9" s="445"/>
-      <c r="AH9" s="446"/>
-      <c r="AI9" s="447"/>
+      <c r="AG9" s="458"/>
+      <c r="AH9" s="459"/>
+      <c r="AI9" s="460"/>
     </row>
     <row r="12" spans="2:44">
       <c r="Z12" s="155"/>
@@ -11439,20 +11439,58 @@
     </row>
   </sheetData>
   <mergeCells count="82">
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="X8:Z8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="O8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="X9:Z9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="O9:Q9"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AA9:AC9"/>
+    <mergeCell ref="AG8:AI8"/>
+    <mergeCell ref="AG9:AI9"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AC7:AE7"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:AD5"/>
+    <mergeCell ref="AE5:AG5"/>
+    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="X3:Z3"/>
+    <mergeCell ref="AA3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="V5:X5"/>
+    <mergeCell ref="V4:X4"/>
+    <mergeCell ref="Y4:AA4"/>
+    <mergeCell ref="AB4:AD4"/>
+    <mergeCell ref="AE4:AG4"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="M4:O4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="S4:U4"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="P5:R5"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="W7:Y7"/>
     <mergeCell ref="T6:V6"/>
@@ -11469,58 +11507,20 @@
     <mergeCell ref="N7:P7"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="P5:R5"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:O4"/>
-    <mergeCell ref="P4:R4"/>
-    <mergeCell ref="S4:U4"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="R2:T2"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="V5:X5"/>
-    <mergeCell ref="V4:X4"/>
-    <mergeCell ref="Y4:AA4"/>
-    <mergeCell ref="AB4:AD4"/>
-    <mergeCell ref="AE4:AG4"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AG8:AI8"/>
-    <mergeCell ref="AG9:AI9"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AC7:AE7"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:AD5"/>
-    <mergeCell ref="AE5:AG5"/>
-    <mergeCell ref="AC6:AE6"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="X8:Z8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="O8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="X9:Z9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="O9:Q9"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21336,8 +21336,8 @@
       <c r="AN1" s="77"/>
       <c r="AO1" s="77"/>
       <c r="AP1" s="77"/>
-      <c r="AQ1" s="504"/>
-      <c r="AR1" s="504"/>
+      <c r="AQ1" s="506"/>
+      <c r="AR1" s="506"/>
       <c r="AS1" s="77"/>
       <c r="AT1" s="77"/>
       <c r="AU1" s="77"/>
@@ -22654,66 +22654,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C11" s="505" t="str">
+      <c r="C11" s="504" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D11" s="505"/>
-      <c r="E11" s="505"/>
-      <c r="F11" s="505"/>
-      <c r="G11" s="505"/>
-      <c r="H11" s="505"/>
-      <c r="I11" s="505"/>
-      <c r="J11" s="505"/>
-      <c r="K11" s="505"/>
-      <c r="L11" s="505"/>
-      <c r="M11" s="505"/>
-      <c r="N11" s="505"/>
-      <c r="O11" s="505"/>
-      <c r="P11" s="505"/>
-      <c r="Q11" s="505"/>
-      <c r="R11" s="505"/>
-      <c r="S11" s="505"/>
-      <c r="T11" s="505"/>
-      <c r="U11" s="505"/>
-      <c r="V11" s="505"/>
-      <c r="W11" s="505"/>
-      <c r="X11" s="505"/>
-      <c r="Y11" s="505"/>
-      <c r="Z11" s="505"/>
+      <c r="D11" s="504"/>
+      <c r="E11" s="504"/>
+      <c r="F11" s="504"/>
+      <c r="G11" s="504"/>
+      <c r="H11" s="504"/>
+      <c r="I11" s="504"/>
+      <c r="J11" s="504"/>
+      <c r="K11" s="504"/>
+      <c r="L11" s="504"/>
+      <c r="M11" s="504"/>
+      <c r="N11" s="504"/>
+      <c r="O11" s="504"/>
+      <c r="P11" s="504"/>
+      <c r="Q11" s="504"/>
+      <c r="R11" s="504"/>
+      <c r="S11" s="504"/>
+      <c r="T11" s="504"/>
+      <c r="U11" s="504"/>
+      <c r="V11" s="504"/>
+      <c r="W11" s="504"/>
+      <c r="X11" s="504"/>
+      <c r="Y11" s="504"/>
+      <c r="Z11" s="504"/>
     </row>
     <row r="12" spans="1:47" s="76" customFormat="1" ht="23.25">
       <c r="B12" s="85" t="str">
         <f>B8</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C12" s="503" t="str">
+      <c r="C12" s="505" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D12" s="503"/>
-      <c r="E12" s="503"/>
-      <c r="F12" s="503"/>
-      <c r="G12" s="503"/>
-      <c r="H12" s="503"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="503"/>
-      <c r="K12" s="503"/>
-      <c r="L12" s="503"/>
-      <c r="M12" s="503"/>
-      <c r="N12" s="503"/>
-      <c r="O12" s="503"/>
-      <c r="P12" s="503"/>
-      <c r="Q12" s="503"/>
-      <c r="R12" s="503"/>
-      <c r="S12" s="503"/>
-      <c r="T12" s="503"/>
-      <c r="U12" s="503"/>
-      <c r="V12" s="503"/>
-      <c r="W12" s="503"/>
-      <c r="X12" s="503"/>
-      <c r="Y12" s="503"/>
-      <c r="Z12" s="503"/>
+      <c r="D12" s="505"/>
+      <c r="E12" s="505"/>
+      <c r="F12" s="505"/>
+      <c r="G12" s="505"/>
+      <c r="H12" s="505"/>
+      <c r="I12" s="505"/>
+      <c r="J12" s="505"/>
+      <c r="K12" s="505"/>
+      <c r="L12" s="505"/>
+      <c r="M12" s="505"/>
+      <c r="N12" s="505"/>
+      <c r="O12" s="505"/>
+      <c r="P12" s="505"/>
+      <c r="Q12" s="505"/>
+      <c r="R12" s="505"/>
+      <c r="S12" s="505"/>
+      <c r="T12" s="505"/>
+      <c r="U12" s="505"/>
+      <c r="V12" s="505"/>
+      <c r="W12" s="505"/>
+      <c r="X12" s="505"/>
+      <c r="Y12" s="505"/>
+      <c r="Z12" s="505"/>
     </row>
     <row r="13" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="14" spans="1:47" s="76" customFormat="1" ht="38.25">
@@ -22722,34 +22722,34 @@
       </c>
     </row>
     <row r="15" spans="1:47" s="76" customFormat="1" ht="23.25">
-      <c r="B15" s="506" t="str">
+      <c r="B15" s="503" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C11 &amp; "|" &amp; C12 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|</v>
       </c>
-      <c r="C15" s="506"/>
-      <c r="D15" s="506"/>
-      <c r="E15" s="506"/>
-      <c r="F15" s="506"/>
-      <c r="G15" s="506"/>
-      <c r="H15" s="506"/>
-      <c r="I15" s="506"/>
-      <c r="J15" s="506"/>
-      <c r="K15" s="506"/>
-      <c r="L15" s="506"/>
-      <c r="M15" s="506"/>
-      <c r="N15" s="506"/>
-      <c r="O15" s="506"/>
-      <c r="P15" s="506"/>
-      <c r="Q15" s="506"/>
-      <c r="R15" s="506"/>
-      <c r="S15" s="506"/>
-      <c r="T15" s="506"/>
-      <c r="U15" s="506"/>
-      <c r="V15" s="506"/>
-      <c r="W15" s="506"/>
-      <c r="X15" s="506"/>
-      <c r="Y15" s="506"/>
-      <c r="Z15" s="506"/>
+      <c r="C15" s="503"/>
+      <c r="D15" s="503"/>
+      <c r="E15" s="503"/>
+      <c r="F15" s="503"/>
+      <c r="G15" s="503"/>
+      <c r="H15" s="503"/>
+      <c r="I15" s="503"/>
+      <c r="J15" s="503"/>
+      <c r="K15" s="503"/>
+      <c r="L15" s="503"/>
+      <c r="M15" s="503"/>
+      <c r="N15" s="503"/>
+      <c r="O15" s="503"/>
+      <c r="P15" s="503"/>
+      <c r="Q15" s="503"/>
+      <c r="R15" s="503"/>
+      <c r="S15" s="503"/>
+      <c r="T15" s="503"/>
+      <c r="U15" s="503"/>
+      <c r="V15" s="503"/>
+      <c r="W15" s="503"/>
+      <c r="X15" s="503"/>
+      <c r="Y15" s="503"/>
+      <c r="Z15" s="503"/>
     </row>
     <row r="16" spans="1:47" s="76" customFormat="1" ht="23.25"/>
     <row r="17" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22763,66 +22763,66 @@
         <f>B7</f>
         <v>拼音字母</v>
       </c>
-      <c r="C19" s="505" t="str">
+      <c r="C19" s="504" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C7:AO7)</f>
         <v>pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN</v>
       </c>
-      <c r="D19" s="505"/>
-      <c r="E19" s="505"/>
-      <c r="F19" s="505"/>
-      <c r="G19" s="505"/>
-      <c r="H19" s="505"/>
-      <c r="I19" s="505"/>
-      <c r="J19" s="505"/>
-      <c r="K19" s="505"/>
-      <c r="L19" s="505"/>
-      <c r="M19" s="505"/>
-      <c r="N19" s="505"/>
-      <c r="O19" s="505"/>
-      <c r="P19" s="505"/>
-      <c r="Q19" s="505"/>
-      <c r="R19" s="505"/>
-      <c r="S19" s="505"/>
-      <c r="T19" s="505"/>
-      <c r="U19" s="505"/>
-      <c r="V19" s="505"/>
-      <c r="W19" s="505"/>
-      <c r="X19" s="505"/>
-      <c r="Y19" s="505"/>
-      <c r="Z19" s="505"/>
+      <c r="D19" s="504"/>
+      <c r="E19" s="504"/>
+      <c r="F19" s="504"/>
+      <c r="G19" s="504"/>
+      <c r="H19" s="504"/>
+      <c r="I19" s="504"/>
+      <c r="J19" s="504"/>
+      <c r="K19" s="504"/>
+      <c r="L19" s="504"/>
+      <c r="M19" s="504"/>
+      <c r="N19" s="504"/>
+      <c r="O19" s="504"/>
+      <c r="P19" s="504"/>
+      <c r="Q19" s="504"/>
+      <c r="R19" s="504"/>
+      <c r="S19" s="504"/>
+      <c r="T19" s="504"/>
+      <c r="U19" s="504"/>
+      <c r="V19" s="504"/>
+      <c r="W19" s="504"/>
+      <c r="X19" s="504"/>
+      <c r="Y19" s="504"/>
+      <c r="Z19" s="504"/>
     </row>
     <row r="20" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B20" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C20" s="503" t="str">
+      <c r="C20" s="505" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D20" s="503"/>
-      <c r="E20" s="503"/>
-      <c r="F20" s="503"/>
-      <c r="G20" s="503"/>
-      <c r="H20" s="503"/>
-      <c r="I20" s="503"/>
-      <c r="J20" s="503"/>
-      <c r="K20" s="503"/>
-      <c r="L20" s="503"/>
-      <c r="M20" s="503"/>
-      <c r="N20" s="503"/>
-      <c r="O20" s="503"/>
-      <c r="P20" s="503"/>
-      <c r="Q20" s="503"/>
-      <c r="R20" s="503"/>
-      <c r="S20" s="503"/>
-      <c r="T20" s="503"/>
-      <c r="U20" s="503"/>
-      <c r="V20" s="503"/>
-      <c r="W20" s="503"/>
-      <c r="X20" s="503"/>
-      <c r="Y20" s="503"/>
-      <c r="Z20" s="503"/>
+      <c r="D20" s="505"/>
+      <c r="E20" s="505"/>
+      <c r="F20" s="505"/>
+      <c r="G20" s="505"/>
+      <c r="H20" s="505"/>
+      <c r="I20" s="505"/>
+      <c r="J20" s="505"/>
+      <c r="K20" s="505"/>
+      <c r="L20" s="505"/>
+      <c r="M20" s="505"/>
+      <c r="N20" s="505"/>
+      <c r="O20" s="505"/>
+      <c r="P20" s="505"/>
+      <c r="Q20" s="505"/>
+      <c r="R20" s="505"/>
+      <c r="S20" s="505"/>
+      <c r="T20" s="505"/>
+      <c r="U20" s="505"/>
+      <c r="V20" s="505"/>
+      <c r="W20" s="505"/>
+      <c r="X20" s="505"/>
+      <c r="Y20" s="505"/>
+      <c r="Z20" s="505"/>
     </row>
     <row r="21" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="22" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22831,34 +22831,34 @@
       </c>
     </row>
     <row r="23" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B23" s="506" t="str">
+      <c r="B23" s="503" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C19 &amp; "|" &amp; C20 &amp; "|"</f>
         <v>- xlit|pPmbtTddkKhggcCszciCisiziiuaoøeBGIUaBoBaDDaGøGoGN|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C23" s="506"/>
-      <c r="D23" s="506"/>
-      <c r="E23" s="506"/>
-      <c r="F23" s="506"/>
-      <c r="G23" s="506"/>
-      <c r="H23" s="506"/>
-      <c r="I23" s="506"/>
-      <c r="J23" s="506"/>
-      <c r="K23" s="506"/>
-      <c r="L23" s="506"/>
-      <c r="M23" s="506"/>
-      <c r="N23" s="506"/>
-      <c r="O23" s="506"/>
-      <c r="P23" s="506"/>
-      <c r="Q23" s="506"/>
-      <c r="R23" s="506"/>
-      <c r="S23" s="506"/>
-      <c r="T23" s="506"/>
-      <c r="U23" s="506"/>
-      <c r="V23" s="506"/>
-      <c r="W23" s="506"/>
-      <c r="X23" s="506"/>
-      <c r="Y23" s="506"/>
-      <c r="Z23" s="506"/>
+      <c r="C23" s="503"/>
+      <c r="D23" s="503"/>
+      <c r="E23" s="503"/>
+      <c r="F23" s="503"/>
+      <c r="G23" s="503"/>
+      <c r="H23" s="503"/>
+      <c r="I23" s="503"/>
+      <c r="J23" s="503"/>
+      <c r="K23" s="503"/>
+      <c r="L23" s="503"/>
+      <c r="M23" s="503"/>
+      <c r="N23" s="503"/>
+      <c r="O23" s="503"/>
+      <c r="P23" s="503"/>
+      <c r="Q23" s="503"/>
+      <c r="R23" s="503"/>
+      <c r="S23" s="503"/>
+      <c r="T23" s="503"/>
+      <c r="U23" s="503"/>
+      <c r="V23" s="503"/>
+      <c r="W23" s="503"/>
+      <c r="X23" s="503"/>
+      <c r="Y23" s="503"/>
+      <c r="Z23" s="503"/>
     </row>
     <row r="24" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="25" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22872,66 +22872,66 @@
         <f>B12</f>
         <v>鍵盤按鍵</v>
       </c>
-      <c r="C27" s="505" t="str">
+      <c r="C27" s="504" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT(C8:AO8)</f>
         <v>1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-</v>
       </c>
-      <c r="D27" s="505"/>
-      <c r="E27" s="505"/>
-      <c r="F27" s="505"/>
-      <c r="G27" s="505"/>
-      <c r="H27" s="505"/>
-      <c r="I27" s="505"/>
-      <c r="J27" s="505"/>
-      <c r="K27" s="505"/>
-      <c r="L27" s="505"/>
-      <c r="M27" s="505"/>
-      <c r="N27" s="505"/>
-      <c r="O27" s="505"/>
-      <c r="P27" s="505"/>
-      <c r="Q27" s="505"/>
-      <c r="R27" s="505"/>
-      <c r="S27" s="505"/>
-      <c r="T27" s="505"/>
-      <c r="U27" s="505"/>
-      <c r="V27" s="505"/>
-      <c r="W27" s="505"/>
-      <c r="X27" s="505"/>
-      <c r="Y27" s="505"/>
-      <c r="Z27" s="505"/>
+      <c r="D27" s="504"/>
+      <c r="E27" s="504"/>
+      <c r="F27" s="504"/>
+      <c r="G27" s="504"/>
+      <c r="H27" s="504"/>
+      <c r="I27" s="504"/>
+      <c r="J27" s="504"/>
+      <c r="K27" s="504"/>
+      <c r="L27" s="504"/>
+      <c r="M27" s="504"/>
+      <c r="N27" s="504"/>
+      <c r="O27" s="504"/>
+      <c r="P27" s="504"/>
+      <c r="Q27" s="504"/>
+      <c r="R27" s="504"/>
+      <c r="S27" s="504"/>
+      <c r="T27" s="504"/>
+      <c r="U27" s="504"/>
+      <c r="V27" s="504"/>
+      <c r="W27" s="504"/>
+      <c r="X27" s="504"/>
+      <c r="Y27" s="504"/>
+      <c r="Z27" s="504"/>
     </row>
     <row r="28" spans="2:26" s="76" customFormat="1" ht="23.25">
       <c r="B28" s="83" t="str">
         <f>B4</f>
         <v>方音符號</v>
       </c>
-      <c r="C28" s="503" t="str">
+      <c r="C28" s="505" t="str">
         <f>_xlfn.CONCAT(C4:AO4)</f>
         <v>ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ</v>
       </c>
-      <c r="D28" s="503"/>
-      <c r="E28" s="503"/>
-      <c r="F28" s="503"/>
-      <c r="G28" s="503"/>
-      <c r="H28" s="503"/>
-      <c r="I28" s="503"/>
-      <c r="J28" s="503"/>
-      <c r="K28" s="503"/>
-      <c r="L28" s="503"/>
-      <c r="M28" s="503"/>
-      <c r="N28" s="503"/>
-      <c r="O28" s="503"/>
-      <c r="P28" s="503"/>
-      <c r="Q28" s="503"/>
-      <c r="R28" s="503"/>
-      <c r="S28" s="503"/>
-      <c r="T28" s="503"/>
-      <c r="U28" s="503"/>
-      <c r="V28" s="503"/>
-      <c r="W28" s="503"/>
-      <c r="X28" s="503"/>
-      <c r="Y28" s="503"/>
-      <c r="Z28" s="503"/>
+      <c r="D28" s="505"/>
+      <c r="E28" s="505"/>
+      <c r="F28" s="505"/>
+      <c r="G28" s="505"/>
+      <c r="H28" s="505"/>
+      <c r="I28" s="505"/>
+      <c r="J28" s="505"/>
+      <c r="K28" s="505"/>
+      <c r="L28" s="505"/>
+      <c r="M28" s="505"/>
+      <c r="N28" s="505"/>
+      <c r="O28" s="505"/>
+      <c r="P28" s="505"/>
+      <c r="Q28" s="505"/>
+      <c r="R28" s="505"/>
+      <c r="S28" s="505"/>
+      <c r="T28" s="505"/>
+      <c r="U28" s="505"/>
+      <c r="V28" s="505"/>
+      <c r="W28" s="505"/>
+      <c r="X28" s="505"/>
+      <c r="Y28" s="505"/>
+      <c r="Z28" s="505"/>
     </row>
     <row r="29" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="30" spans="2:26" s="76" customFormat="1" ht="38.25">
@@ -22940,34 +22940,34 @@
       </c>
     </row>
     <row r="31" spans="2:26" s="76" customFormat="1" ht="23.25">
-      <c r="B31" s="506" t="str">
+      <c r="B31" s="503" t="str">
         <f xml:space="preserve"> "- xlit|" &amp; C27 &amp; "|" &amp; C28 &amp; "|"</f>
         <v>- xlit|1qaz2wsxedctgyhnbrfvbuj8ikom/9l,,0p;.-|ㄅㄆㄇㆠㄉㄊㄋㄌㄍㄎㄏㆣㄫㄗㄘㄙㆡㄐㄑㄒㆢㄧㄨㄚㆦㄜㆤㆬㆭㄞㄠㆰㆱㄢㄣㄤㄥㆲｎ|</v>
       </c>
-      <c r="C31" s="506"/>
-      <c r="D31" s="506"/>
-      <c r="E31" s="506"/>
-      <c r="F31" s="506"/>
-      <c r="G31" s="506"/>
-      <c r="H31" s="506"/>
-      <c r="I31" s="506"/>
-      <c r="J31" s="506"/>
-      <c r="K31" s="506"/>
-      <c r="L31" s="506"/>
-      <c r="M31" s="506"/>
-      <c r="N31" s="506"/>
-      <c r="O31" s="506"/>
-      <c r="P31" s="506"/>
-      <c r="Q31" s="506"/>
-      <c r="R31" s="506"/>
-      <c r="S31" s="506"/>
-      <c r="T31" s="506"/>
-      <c r="U31" s="506"/>
-      <c r="V31" s="506"/>
-      <c r="W31" s="506"/>
-      <c r="X31" s="506"/>
-      <c r="Y31" s="506"/>
-      <c r="Z31" s="506"/>
+      <c r="C31" s="503"/>
+      <c r="D31" s="503"/>
+      <c r="E31" s="503"/>
+      <c r="F31" s="503"/>
+      <c r="G31" s="503"/>
+      <c r="H31" s="503"/>
+      <c r="I31" s="503"/>
+      <c r="J31" s="503"/>
+      <c r="K31" s="503"/>
+      <c r="L31" s="503"/>
+      <c r="M31" s="503"/>
+      <c r="N31" s="503"/>
+      <c r="O31" s="503"/>
+      <c r="P31" s="503"/>
+      <c r="Q31" s="503"/>
+      <c r="R31" s="503"/>
+      <c r="S31" s="503"/>
+      <c r="T31" s="503"/>
+      <c r="U31" s="503"/>
+      <c r="V31" s="503"/>
+      <c r="W31" s="503"/>
+      <c r="X31" s="503"/>
+      <c r="Y31" s="503"/>
+      <c r="Z31" s="503"/>
     </row>
     <row r="32" spans="2:26" s="76" customFormat="1" ht="23.25"/>
     <row r="33" spans="1:47" s="78" customFormat="1">
@@ -23258,8 +23258,8 @@
       <c r="AN38" s="77"/>
       <c r="AO38" s="77"/>
       <c r="AP38" s="77"/>
-      <c r="AQ38" s="504"/>
-      <c r="AR38" s="504"/>
+      <c r="AQ38" s="506"/>
+      <c r="AR38" s="506"/>
       <c r="AS38" s="77"/>
       <c r="AT38" s="77"/>
       <c r="AU38" s="77"/>
@@ -23267,17 +23267,17 @@
     <row r="39" spans="1:47" s="76" customFormat="1" ht="23.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B23:Z23"/>
-    <mergeCell ref="C27:Z27"/>
-    <mergeCell ref="C28:Z28"/>
-    <mergeCell ref="B31:Z31"/>
-    <mergeCell ref="AQ38:AR38"/>
     <mergeCell ref="C20:Z20"/>
     <mergeCell ref="AQ1:AR1"/>
     <mergeCell ref="C11:Z11"/>
     <mergeCell ref="C12:Z12"/>
     <mergeCell ref="B15:Z15"/>
     <mergeCell ref="C19:Z19"/>
+    <mergeCell ref="B23:Z23"/>
+    <mergeCell ref="C27:Z27"/>
+    <mergeCell ref="C28:Z28"/>
+    <mergeCell ref="B31:Z31"/>
+    <mergeCell ref="AQ38:AR38"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23288,7 +23288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD212CC-0B4A-E448-85BE-AB9506DEBF96}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="21" outlineLevelRow="1"/>
   <cols>
@@ -23313,161 +23313,161 @@
   <sheetData>
     <row r="1" spans="2:16" ht="9" hidden="1" customHeight="1" outlineLevel="1"/>
     <row r="2" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B2" s="507" t="s">
+      <c r="B2" s="528" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="507"/>
-      <c r="D2" s="507"/>
-      <c r="E2" s="507" t="s">
+      <c r="C2" s="528"/>
+      <c r="D2" s="528"/>
+      <c r="E2" s="528" t="s">
         <v>204</v>
       </c>
-      <c r="F2" s="507"/>
-      <c r="G2" s="507" t="s">
+      <c r="F2" s="528"/>
+      <c r="G2" s="528" t="s">
         <v>205</v>
       </c>
-      <c r="H2" s="507"/>
-      <c r="I2" s="507" t="s">
+      <c r="H2" s="528"/>
+      <c r="I2" s="528" t="s">
         <v>206</v>
       </c>
-      <c r="J2" s="507"/>
-      <c r="K2" s="507" t="s">
+      <c r="J2" s="528"/>
+      <c r="K2" s="528" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="507"/>
-      <c r="M2" s="507"/>
-      <c r="N2" s="507"/>
-      <c r="O2" s="507" t="s">
+      <c r="L2" s="528"/>
+      <c r="M2" s="528"/>
+      <c r="N2" s="528"/>
+      <c r="O2" s="528" t="s">
         <v>208</v>
       </c>
-      <c r="P2" s="507"/>
+      <c r="P2" s="528"/>
     </row>
     <row r="3" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B3" s="507" t="s">
+      <c r="B3" s="528" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="507"/>
-      <c r="D3" s="507"/>
-      <c r="E3" s="507" t="s">
+      <c r="C3" s="528"/>
+      <c r="D3" s="528"/>
+      <c r="E3" s="528" t="s">
         <v>204</v>
       </c>
-      <c r="F3" s="507"/>
-      <c r="G3" s="507" t="s">
+      <c r="F3" s="528"/>
+      <c r="G3" s="528" t="s">
         <v>210</v>
       </c>
-      <c r="H3" s="507"/>
-      <c r="I3" s="507" t="s">
+      <c r="H3" s="528"/>
+      <c r="I3" s="528" t="s">
         <v>211</v>
       </c>
-      <c r="J3" s="507"/>
-      <c r="K3" s="507" t="s">
+      <c r="J3" s="528"/>
+      <c r="K3" s="528" t="s">
         <v>212</v>
       </c>
-      <c r="L3" s="507"/>
-      <c r="M3" s="507"/>
-      <c r="N3" s="507"/>
-      <c r="O3" s="507" t="s">
+      <c r="L3" s="528"/>
+      <c r="M3" s="528"/>
+      <c r="N3" s="528"/>
+      <c r="O3" s="528" t="s">
         <v>208</v>
       </c>
-      <c r="P3" s="507"/>
+      <c r="P3" s="528"/>
     </row>
     <row r="4" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B4" s="507" t="s">
+      <c r="B4" s="528" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="507"/>
-      <c r="D4" s="507"/>
-      <c r="E4" s="507" t="s">
+      <c r="C4" s="528"/>
+      <c r="D4" s="528"/>
+      <c r="E4" s="528" t="s">
         <v>204</v>
       </c>
-      <c r="F4" s="507"/>
-      <c r="G4" s="507" t="s">
+      <c r="F4" s="528"/>
+      <c r="G4" s="528" t="s">
         <v>214</v>
       </c>
-      <c r="H4" s="507"/>
-      <c r="I4" s="507" t="s">
+      <c r="H4" s="528"/>
+      <c r="I4" s="528" t="s">
         <v>211</v>
       </c>
-      <c r="J4" s="507"/>
-      <c r="K4" s="507" t="s">
+      <c r="J4" s="528"/>
+      <c r="K4" s="528" t="s">
         <v>215</v>
       </c>
-      <c r="L4" s="507"/>
-      <c r="M4" s="507"/>
-      <c r="N4" s="507"/>
-      <c r="O4" s="507" t="s">
+      <c r="L4" s="528"/>
+      <c r="M4" s="528"/>
+      <c r="N4" s="528"/>
+      <c r="O4" s="528" t="s">
         <v>208</v>
       </c>
-      <c r="P4" s="507"/>
+      <c r="P4" s="528"/>
     </row>
     <row r="5" spans="2:16" s="18" customFormat="1" ht="33" hidden="1" customHeight="1" outlineLevel="1">
-      <c r="B5" s="507" t="s">
+      <c r="B5" s="528" t="s">
         <v>216</v>
       </c>
-      <c r="C5" s="507"/>
-      <c r="D5" s="507"/>
-      <c r="E5" s="507" t="s">
+      <c r="C5" s="528"/>
+      <c r="D5" s="528"/>
+      <c r="E5" s="528" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="507"/>
-      <c r="G5" s="507" t="s">
+      <c r="F5" s="528"/>
+      <c r="G5" s="528" t="s">
         <v>218</v>
       </c>
-      <c r="H5" s="507"/>
-      <c r="I5" s="507" t="s">
+      <c r="H5" s="528"/>
+      <c r="I5" s="528" t="s">
         <v>219</v>
       </c>
-      <c r="J5" s="507"/>
-      <c r="K5" s="507" t="s">
+      <c r="J5" s="528"/>
+      <c r="K5" s="528" t="s">
         <v>218</v>
       </c>
-      <c r="L5" s="507"/>
-      <c r="M5" s="507"/>
-      <c r="N5" s="507"/>
-      <c r="O5" s="507" t="s">
+      <c r="L5" s="528"/>
+      <c r="M5" s="528"/>
+      <c r="N5" s="528"/>
+      <c r="O5" s="528" t="s">
         <v>220</v>
       </c>
-      <c r="P5" s="507"/>
+      <c r="P5" s="528"/>
     </row>
     <row r="6" spans="2:16" ht="9" customHeight="1" collapsed="1"/>
     <row r="7" spans="2:16" ht="69.95" customHeight="1">
-      <c r="B7" s="516" t="s">
+      <c r="B7" s="521" t="s">
         <v>221</v>
       </c>
-      <c r="C7" s="517"/>
-      <c r="D7" s="518"/>
-      <c r="E7" s="519" t="s">
+      <c r="C7" s="522"/>
+      <c r="D7" s="523"/>
+      <c r="E7" s="524" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="520"/>
-      <c r="G7" s="508" t="s">
+      <c r="F7" s="525"/>
+      <c r="G7" s="516" t="s">
         <v>222</v>
       </c>
-      <c r="H7" s="509"/>
-      <c r="I7" s="521" t="s">
+      <c r="H7" s="517"/>
+      <c r="I7" s="526" t="s">
         <v>223</v>
       </c>
-      <c r="J7" s="522"/>
-      <c r="K7" s="508" t="s">
+      <c r="J7" s="527"/>
+      <c r="K7" s="516" t="s">
         <v>224</v>
       </c>
-      <c r="L7" s="509"/>
-      <c r="M7" s="508" t="s">
+      <c r="L7" s="517"/>
+      <c r="M7" s="516" t="s">
         <v>225</v>
       </c>
-      <c r="N7" s="509"/>
-      <c r="O7" s="508" t="s">
+      <c r="N7" s="517"/>
+      <c r="O7" s="516" t="s">
         <v>226</v>
       </c>
-      <c r="P7" s="509"/>
+      <c r="P7" s="517"/>
     </row>
     <row r="8" spans="2:16" ht="39" customHeight="1">
-      <c r="B8" s="510" t="s">
+      <c r="B8" s="507" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="511" t="s">
+      <c r="C8" s="518" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="512" t="s">
+      <c r="D8" s="519" t="s">
         <v>229</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -23500,9 +23500,9 @@
       </c>
     </row>
     <row r="9" spans="2:16" ht="39" customHeight="1">
-      <c r="B9" s="510"/>
-      <c r="C9" s="511"/>
-      <c r="D9" s="512"/>
+      <c r="B9" s="507"/>
+      <c r="C9" s="518"/>
+      <c r="D9" s="519"/>
       <c r="E9" s="24" t="s">
         <v>232</v>
       </c>
@@ -23533,9 +23533,9 @@
       </c>
     </row>
     <row r="10" spans="2:16" ht="39" customHeight="1">
-      <c r="B10" s="510"/>
-      <c r="C10" s="511"/>
-      <c r="D10" s="513" t="s">
+      <c r="B10" s="507"/>
+      <c r="C10" s="518"/>
+      <c r="D10" s="515" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="19" t="s">
@@ -23564,9 +23564,9 @@
       <c r="P10" s="20"/>
     </row>
     <row r="11" spans="2:16" ht="39" customHeight="1">
-      <c r="B11" s="510"/>
-      <c r="C11" s="511"/>
-      <c r="D11" s="513"/>
+      <c r="B11" s="507"/>
+      <c r="C11" s="518"/>
+      <c r="D11" s="515"/>
       <c r="E11" s="24" t="s">
         <v>241</v>
       </c>
@@ -23593,11 +23593,11 @@
       <c r="P11" s="25"/>
     </row>
     <row r="12" spans="2:16" ht="39" customHeight="1">
-      <c r="B12" s="510"/>
-      <c r="C12" s="514" t="s">
+      <c r="B12" s="507"/>
+      <c r="C12" s="508" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="515" t="s">
+      <c r="D12" s="520" t="s">
         <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
@@ -23622,9 +23622,9 @@
       <c r="P12" s="20"/>
     </row>
     <row r="13" spans="2:16" ht="39" customHeight="1">
-      <c r="B13" s="510"/>
-      <c r="C13" s="514"/>
-      <c r="D13" s="515"/>
+      <c r="B13" s="507"/>
+      <c r="C13" s="508"/>
+      <c r="D13" s="520"/>
       <c r="E13" s="24" t="s">
         <v>192</v>
       </c>
@@ -23647,13 +23647,13 @@
       <c r="P13" s="25"/>
     </row>
     <row r="14" spans="2:16" ht="39" customHeight="1">
-      <c r="B14" s="510" t="s">
+      <c r="B14" s="507" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="523" t="s">
+      <c r="C14" s="513" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="524" t="s">
+      <c r="D14" s="509" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="19"/>
@@ -23678,9 +23678,9 @@
       <c r="P14" s="20"/>
     </row>
     <row r="15" spans="2:16" ht="39" customHeight="1">
-      <c r="B15" s="510"/>
-      <c r="C15" s="523"/>
-      <c r="D15" s="524"/>
+      <c r="B15" s="507"/>
+      <c r="C15" s="513"/>
+      <c r="D15" s="509"/>
       <c r="E15" s="24"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
@@ -23703,9 +23703,9 @@
       <c r="P15" s="25"/>
     </row>
     <row r="16" spans="2:16" ht="39" customHeight="1">
-      <c r="B16" s="510"/>
-      <c r="C16" s="523"/>
-      <c r="D16" s="513" t="s">
+      <c r="B16" s="507"/>
+      <c r="C16" s="513"/>
+      <c r="D16" s="515" t="s">
         <v>240</v>
       </c>
       <c r="E16" s="19"/>
@@ -23730,9 +23730,9 @@
       <c r="P16" s="20"/>
     </row>
     <row r="17" spans="2:17" ht="39" customHeight="1">
-      <c r="B17" s="510"/>
-      <c r="C17" s="523"/>
-      <c r="D17" s="513"/>
+      <c r="B17" s="507"/>
+      <c r="C17" s="513"/>
+      <c r="D17" s="515"/>
       <c r="E17" s="24"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
@@ -23755,11 +23755,11 @@
       <c r="P17" s="25"/>
     </row>
     <row r="18" spans="2:17" ht="39" customHeight="1">
-      <c r="B18" s="510"/>
-      <c r="C18" s="514" t="s">
+      <c r="B18" s="507"/>
+      <c r="C18" s="508" t="s">
         <v>247</v>
       </c>
-      <c r="D18" s="524" t="s">
+      <c r="D18" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E18" s="19"/>
@@ -23784,9 +23784,9 @@
       <c r="P18" s="20"/>
     </row>
     <row r="19" spans="2:17" ht="39" customHeight="1">
-      <c r="B19" s="510"/>
-      <c r="C19" s="514"/>
-      <c r="D19" s="524"/>
+      <c r="B19" s="507"/>
+      <c r="C19" s="508"/>
+      <c r="D19" s="509"/>
       <c r="E19" s="24"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
@@ -23809,13 +23809,13 @@
       <c r="P19" s="25"/>
     </row>
     <row r="20" spans="2:17" ht="39" customHeight="1">
-      <c r="B20" s="510" t="s">
+      <c r="B20" s="507" t="s">
         <v>269</v>
       </c>
-      <c r="C20" s="523" t="s">
+      <c r="C20" s="513" t="s">
         <v>228</v>
       </c>
-      <c r="D20" s="524" t="s">
+      <c r="D20" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E20" s="19"/>
@@ -23840,9 +23840,9 @@
       <c r="P20" s="20"/>
     </row>
     <row r="21" spans="2:17" ht="39" customHeight="1">
-      <c r="B21" s="510"/>
-      <c r="C21" s="523"/>
-      <c r="D21" s="524"/>
+      <c r="B21" s="507"/>
+      <c r="C21" s="513"/>
+      <c r="D21" s="509"/>
       <c r="E21" s="24"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
@@ -23865,9 +23865,9 @@
       <c r="P21" s="25"/>
     </row>
     <row r="22" spans="2:17" ht="39" customHeight="1">
-      <c r="B22" s="510"/>
-      <c r="C22" s="523"/>
-      <c r="D22" s="525" t="s">
+      <c r="B22" s="507"/>
+      <c r="C22" s="513"/>
+      <c r="D22" s="514" t="s">
         <v>275</v>
       </c>
       <c r="E22" s="19"/>
@@ -23888,9 +23888,9 @@
       </c>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1">
-      <c r="B23" s="510"/>
-      <c r="C23" s="523"/>
-      <c r="D23" s="525"/>
+      <c r="B23" s="507"/>
+      <c r="C23" s="513"/>
+      <c r="D23" s="514"/>
       <c r="E23" s="24"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
@@ -23909,13 +23909,13 @@
       </c>
     </row>
     <row r="24" spans="2:17" ht="39" customHeight="1">
-      <c r="B24" s="510" t="s">
+      <c r="B24" s="507" t="s">
         <v>278</v>
       </c>
-      <c r="C24" s="514" t="s">
+      <c r="C24" s="508" t="s">
         <v>247</v>
       </c>
-      <c r="D24" s="524" t="s">
+      <c r="D24" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -23944,9 +23944,9 @@
       <c r="P24" s="20"/>
     </row>
     <row r="25" spans="2:17" ht="39" customHeight="1">
-      <c r="B25" s="510"/>
-      <c r="C25" s="514"/>
-      <c r="D25" s="524"/>
+      <c r="B25" s="507"/>
+      <c r="C25" s="508"/>
+      <c r="D25" s="509"/>
       <c r="E25" s="24" t="s">
         <v>191</v>
       </c>
@@ -23973,13 +23973,13 @@
       <c r="P25" s="25"/>
     </row>
     <row r="26" spans="2:17" ht="39" customHeight="1">
-      <c r="B26" s="510" t="s">
+      <c r="B26" s="507" t="s">
         <v>284</v>
       </c>
-      <c r="C26" s="514" t="s">
+      <c r="C26" s="508" t="s">
         <v>247</v>
       </c>
-      <c r="D26" s="524" t="s">
+      <c r="D26" s="509" t="s">
         <v>248</v>
       </c>
       <c r="E26" s="19"/>
@@ -24000,9 +24000,9 @@
       <c r="P26" s="20"/>
     </row>
     <row r="27" spans="2:17" ht="39" customHeight="1">
-      <c r="B27" s="510"/>
-      <c r="C27" s="514"/>
-      <c r="D27" s="524"/>
+      <c r="B27" s="507"/>
+      <c r="C27" s="508"/>
+      <c r="D27" s="509"/>
       <c r="E27" s="24"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26" t="s">
@@ -24024,23 +24024,23 @@
       <c r="B29" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="C29" s="526" t="s">
+      <c r="C29" s="510" t="s">
         <v>289</v>
       </c>
-      <c r="D29" s="526"/>
-      <c r="E29" s="526"/>
-      <c r="F29" s="526"/>
-      <c r="G29" s="526"/>
-      <c r="H29" s="526"/>
-      <c r="I29" s="526"/>
-      <c r="J29" s="526"/>
-      <c r="K29" s="526"/>
-      <c r="L29" s="526"/>
-      <c r="M29" s="526"/>
-      <c r="N29" s="526"/>
-      <c r="O29" s="526"/>
-      <c r="P29" s="526"/>
-      <c r="Q29" s="526"/>
+      <c r="D29" s="510"/>
+      <c r="E29" s="510"/>
+      <c r="F29" s="510"/>
+      <c r="G29" s="510"/>
+      <c r="H29" s="510"/>
+      <c r="I29" s="510"/>
+      <c r="J29" s="510"/>
+      <c r="K29" s="510"/>
+      <c r="L29" s="510"/>
+      <c r="M29" s="510"/>
+      <c r="N29" s="510"/>
+      <c r="O29" s="510"/>
+      <c r="P29" s="510"/>
+      <c r="Q29" s="510"/>
     </row>
     <row r="30" spans="2:17" s="31" customFormat="1" ht="25.5">
       <c r="B30" s="29"/>
@@ -24084,10 +24084,10 @@
       <c r="B32" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="C32" s="527" t="s">
+      <c r="C32" s="511" t="s">
         <v>293</v>
       </c>
-      <c r="D32" s="528"/>
+      <c r="D32" s="512"/>
     </row>
     <row r="33" spans="2:4" ht="30">
       <c r="B33" s="32" t="s">
@@ -24102,37 +24102,20 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="C29:Q29"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:N2"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="E5:F5"/>
@@ -24147,20 +24130,37 @@
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="C29:Q29"/>
+    <mergeCell ref="C32:D32"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -24189,7 +24189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111EA7F4-FBCF-47D0-A702-D6A889B6B19D}">
   <dimension ref="A2:X52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J31" workbookViewId="0">
+    <sheetView topLeftCell="J31" workbookViewId="0">
       <selection activeCell="U44" sqref="U44:U49"/>
     </sheetView>
   </sheetViews>
@@ -26618,36 +26618,36 @@
       <c r="F8" s="323" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="478" t="s">
+      <c r="G8" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="479"/>
-      <c r="I8" s="480"/>
-      <c r="J8" s="481" t="s">
+      <c r="H8" s="484"/>
+      <c r="I8" s="485"/>
+      <c r="J8" s="493" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="482"/>
-      <c r="L8" s="483"/>
-      <c r="M8" s="481" t="s">
+      <c r="K8" s="494"/>
+      <c r="L8" s="495"/>
+      <c r="M8" s="493" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="482"/>
-      <c r="O8" s="483"/>
-      <c r="P8" s="484" t="s">
+      <c r="N8" s="494"/>
+      <c r="O8" s="495"/>
+      <c r="P8" s="496" t="s">
         <v>689</v>
       </c>
-      <c r="Q8" s="485"/>
-      <c r="R8" s="486"/>
-      <c r="S8" s="481" t="s">
+      <c r="Q8" s="497"/>
+      <c r="R8" s="498"/>
+      <c r="S8" s="493" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="482"/>
-      <c r="U8" s="483"/>
-      <c r="V8" s="481" t="s">
+      <c r="T8" s="494"/>
+      <c r="U8" s="495"/>
+      <c r="V8" s="493" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="482"/>
-      <c r="X8" s="483"/>
+      <c r="W8" s="494"/>
+      <c r="X8" s="495"/>
       <c r="Y8" s="325" t="s">
         <v>107</v>
       </c>
@@ -26666,21 +26666,21 @@
       <c r="AD8" s="326" t="s">
         <v>907</v>
       </c>
-      <c r="AE8" s="496" t="s">
+      <c r="AE8" s="486" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="497"/>
-      <c r="AG8" s="498"/>
-      <c r="AH8" s="487" t="s">
+      <c r="AF8" s="487"/>
+      <c r="AG8" s="488"/>
+      <c r="AH8" s="480" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="488"/>
-      <c r="AJ8" s="489"/>
-      <c r="AK8" s="487" t="s">
+      <c r="AI8" s="481"/>
+      <c r="AJ8" s="482"/>
+      <c r="AK8" s="480" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="488"/>
-      <c r="AM8" s="489"/>
+      <c r="AL8" s="481"/>
+      <c r="AM8" s="482"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -26737,38 +26737,38 @@
       <c r="I9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J9" s="490" t="s">
+      <c r="J9" s="489" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="491"/>
+      <c r="K9" s="490"/>
       <c r="L9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="490" t="s">
+      <c r="M9" s="489" t="s">
         <v>14</v>
       </c>
-      <c r="N9" s="491"/>
+      <c r="N9" s="490"/>
       <c r="O9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P9" s="492" t="s">
+      <c r="P9" s="491" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="493"/>
+      <c r="Q9" s="492"/>
       <c r="R9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S9" s="490" t="s">
+      <c r="S9" s="489" t="s">
         <v>18</v>
       </c>
-      <c r="T9" s="491"/>
+      <c r="T9" s="490"/>
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="492" t="s">
+      <c r="V9" s="491" t="s">
         <v>909</v>
       </c>
-      <c r="W9" s="493"/>
+      <c r="W9" s="492"/>
       <c r="X9" s="6" t="s">
         <v>729</v>
       </c>
@@ -26802,8 +26802,8 @@
       <c r="AH9" s="52"/>
       <c r="AI9" s="53"/>
       <c r="AJ9" s="7"/>
-      <c r="AK9" s="494"/>
-      <c r="AL9" s="495"/>
+      <c r="AK9" s="478"/>
+      <c r="AL9" s="479"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -26858,16 +26858,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="478" t="s">
+      <c r="E10" s="483" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="479"/>
-      <c r="G10" s="480"/>
-      <c r="H10" s="478" t="s">
+      <c r="F10" s="484"/>
+      <c r="G10" s="485"/>
+      <c r="H10" s="483" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="479"/>
-      <c r="J10" s="480"/>
+      <c r="I10" s="484"/>
+      <c r="J10" s="485"/>
       <c r="K10" s="324" t="s">
         <v>44</v>
       </c>
@@ -26877,16 +26877,16 @@
       <c r="M10" s="323" t="s">
         <v>45</v>
       </c>
-      <c r="N10" s="478" t="s">
+      <c r="N10" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="479"/>
-      <c r="P10" s="480"/>
-      <c r="Q10" s="478" t="s">
+      <c r="O10" s="484"/>
+      <c r="P10" s="485"/>
+      <c r="Q10" s="483" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="479"/>
-      <c r="S10" s="480"/>
+      <c r="R10" s="484"/>
+      <c r="S10" s="485"/>
       <c r="T10" s="324" t="s">
         <v>106</v>
       </c>
@@ -26914,31 +26914,31 @@
       <c r="AB10" s="326" t="s">
         <v>905</v>
       </c>
-      <c r="AC10" s="496" t="s">
+      <c r="AC10" s="486" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="497"/>
-      <c r="AE10" s="498"/>
-      <c r="AF10" s="496" t="s">
+      <c r="AD10" s="487"/>
+      <c r="AE10" s="488"/>
+      <c r="AF10" s="486" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="497"/>
-      <c r="AH10" s="498"/>
-      <c r="AI10" s="496" t="s">
+      <c r="AG10" s="487"/>
+      <c r="AH10" s="488"/>
+      <c r="AI10" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="497"/>
-      <c r="AK10" s="498"/>
-      <c r="AL10" s="496" t="s">
+      <c r="AJ10" s="487"/>
+      <c r="AK10" s="488"/>
+      <c r="AL10" s="486" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="497"/>
-      <c r="AN10" s="498"/>
-      <c r="AO10" s="487" t="s">
+      <c r="AM10" s="487"/>
+      <c r="AN10" s="488"/>
+      <c r="AO10" s="480" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="488"/>
-      <c r="AQ10" s="489"/>
+      <c r="AP10" s="481"/>
+      <c r="AQ10" s="482"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="57"/>
@@ -27065,14 +27065,14 @@
       <c r="AH11" s="128" t="s">
         <v>329</v>
       </c>
-      <c r="AI11" s="494"/>
-      <c r="AJ11" s="495"/>
+      <c r="AI11" s="478"/>
+      <c r="AJ11" s="479"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="494"/>
-      <c r="AM11" s="495"/>
+      <c r="AL11" s="478"/>
+      <c r="AM11" s="479"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="494"/>
-      <c r="AP11" s="495"/>
+      <c r="AO11" s="478"/>
+      <c r="AP11" s="479"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="4"/>
@@ -27119,36 +27119,36 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="478" t="s">
+      <c r="F12" s="483" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="479"/>
-      <c r="H12" s="480"/>
-      <c r="I12" s="478" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="485"/>
+      <c r="I12" s="483" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="479"/>
-      <c r="K12" s="480"/>
-      <c r="L12" s="478" t="s">
+      <c r="J12" s="484"/>
+      <c r="K12" s="485"/>
+      <c r="L12" s="483" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="479"/>
-      <c r="N12" s="480"/>
-      <c r="O12" s="478" t="s">
+      <c r="M12" s="484"/>
+      <c r="N12" s="485"/>
+      <c r="O12" s="483" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="479"/>
-      <c r="Q12" s="480"/>
-      <c r="R12" s="478" t="s">
+      <c r="P12" s="484"/>
+      <c r="Q12" s="485"/>
+      <c r="R12" s="483" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="479"/>
-      <c r="T12" s="480"/>
-      <c r="U12" s="478" t="s">
+      <c r="S12" s="484"/>
+      <c r="T12" s="485"/>
+      <c r="U12" s="483" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="479"/>
-      <c r="W12" s="480"/>
+      <c r="V12" s="484"/>
+      <c r="W12" s="485"/>
       <c r="X12" s="325" t="s">
         <v>117</v>
       </c>
@@ -27158,11 +27158,11 @@
       <c r="Z12" s="326" t="s">
         <v>605</v>
       </c>
-      <c r="AA12" s="496" t="s">
+      <c r="AA12" s="486" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="497"/>
-      <c r="AC12" s="498"/>
+      <c r="AB12" s="487"/>
+      <c r="AC12" s="488"/>
       <c r="AD12" s="325" t="s">
         <v>112</v>
       </c>
@@ -27172,16 +27172,16 @@
       <c r="AF12" s="326" t="s">
         <v>908</v>
       </c>
-      <c r="AG12" s="496" t="s">
+      <c r="AG12" s="486" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="497"/>
-      <c r="AI12" s="498"/>
-      <c r="AJ12" s="487" t="s">
+      <c r="AH12" s="487"/>
+      <c r="AI12" s="488"/>
+      <c r="AJ12" s="480" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="488"/>
-      <c r="AL12" s="489"/>
+      <c r="AK12" s="481"/>
+      <c r="AL12" s="482"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -27317,8 +27317,8 @@
       <c r="AI13" s="128" t="s">
         <v>609</v>
       </c>
-      <c r="AJ13" s="494"/>
-      <c r="AK13" s="495"/>
+      <c r="AJ13" s="478"/>
+      <c r="AK13" s="479"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -27374,41 +27374,41 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="478" t="s">
+      <c r="G14" s="483" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="479"/>
-      <c r="I14" s="480"/>
-      <c r="J14" s="478" t="s">
+      <c r="H14" s="484"/>
+      <c r="I14" s="485"/>
+      <c r="J14" s="483" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="479"/>
-      <c r="L14" s="480"/>
-      <c r="M14" s="478" t="s">
+      <c r="K14" s="484"/>
+      <c r="L14" s="485"/>
+      <c r="M14" s="483" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="479"/>
-      <c r="O14" s="480"/>
-      <c r="P14" s="478" t="s">
+      <c r="N14" s="484"/>
+      <c r="O14" s="485"/>
+      <c r="P14" s="483" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="479"/>
-      <c r="R14" s="480"/>
-      <c r="S14" s="478" t="s">
+      <c r="Q14" s="484"/>
+      <c r="R14" s="485"/>
+      <c r="S14" s="483" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="479"/>
-      <c r="U14" s="480"/>
-      <c r="V14" s="478" t="s">
+      <c r="T14" s="484"/>
+      <c r="U14" s="485"/>
+      <c r="V14" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="479"/>
-      <c r="X14" s="480"/>
-      <c r="Y14" s="496" t="s">
+      <c r="W14" s="484"/>
+      <c r="X14" s="485"/>
+      <c r="Y14" s="486" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="497"/>
-      <c r="AA14" s="498"/>
+      <c r="Z14" s="487"/>
+      <c r="AA14" s="488"/>
       <c r="AB14" s="325" t="s">
         <v>110</v>
       </c>
@@ -27418,16 +27418,16 @@
       <c r="AD14" s="326" t="s">
         <v>906</v>
       </c>
-      <c r="AE14" s="496" t="s">
+      <c r="AE14" s="486" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="497"/>
-      <c r="AG14" s="498"/>
-      <c r="AH14" s="487" t="s">
+      <c r="AF14" s="487"/>
+      <c r="AG14" s="488"/>
+      <c r="AH14" s="480" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="488"/>
-      <c r="AJ14" s="489"/>
+      <c r="AI14" s="481"/>
+      <c r="AJ14" s="482"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -31310,6 +31310,42 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="P8:R8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AF10:AH10"/>
+    <mergeCell ref="AI10:AK10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AL11:AM11"/>
+    <mergeCell ref="AO11:AP11"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AG12:AI12"/>
+    <mergeCell ref="AJ12:AL12"/>
     <mergeCell ref="AJ13:AK13"/>
     <mergeCell ref="AH14:AJ14"/>
     <mergeCell ref="G14:I14"/>
@@ -31320,42 +31356,6 @@
     <mergeCell ref="V14:X14"/>
     <mergeCell ref="Y14:AA14"/>
     <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AG12:AI12"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="AF10:AH10"/>
-    <mergeCell ref="AI10:AK10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AL11:AM11"/>
-    <mergeCell ref="AO11:AP11"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="P8:R8"/>
-    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35950,36 +35950,36 @@
         <v>755</v>
       </c>
       <c r="F8" s="323"/>
-      <c r="G8" s="478" t="s">
+      <c r="G8" s="483" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="479"/>
-      <c r="I8" s="480"/>
-      <c r="J8" s="481" t="s">
+      <c r="H8" s="484"/>
+      <c r="I8" s="485"/>
+      <c r="J8" s="493" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="482"/>
-      <c r="L8" s="483"/>
-      <c r="M8" s="481" t="s">
+      <c r="K8" s="494"/>
+      <c r="L8" s="495"/>
+      <c r="M8" s="493" t="s">
         <v>2</v>
       </c>
-      <c r="N8" s="482"/>
-      <c r="O8" s="483"/>
+      <c r="N8" s="494"/>
+      <c r="O8" s="495"/>
       <c r="P8" s="324"/>
       <c r="Q8" s="346" t="s">
         <v>809</v>
       </c>
       <c r="R8" s="323"/>
-      <c r="S8" s="481" t="s">
+      <c r="S8" s="493" t="s">
         <v>3</v>
       </c>
-      <c r="T8" s="482"/>
-      <c r="U8" s="483"/>
-      <c r="V8" s="481" t="s">
+      <c r="T8" s="494"/>
+      <c r="U8" s="495"/>
+      <c r="V8" s="493" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="482"/>
-      <c r="X8" s="483"/>
+      <c r="W8" s="494"/>
+      <c r="X8" s="495"/>
       <c r="Y8" s="325"/>
       <c r="Z8" s="321" t="s">
         <v>757</v>
@@ -35990,21 +35990,21 @@
         <v>756</v>
       </c>
       <c r="AD8" s="326"/>
-      <c r="AE8" s="496" t="s">
+      <c r="AE8" s="486" t="s">
         <v>5</v>
       </c>
-      <c r="AF8" s="497"/>
-      <c r="AG8" s="498"/>
-      <c r="AH8" s="487" t="s">
+      <c r="AF8" s="487"/>
+      <c r="AG8" s="488"/>
+      <c r="AH8" s="480" t="s">
         <v>6</v>
       </c>
-      <c r="AI8" s="488"/>
-      <c r="AJ8" s="489"/>
-      <c r="AK8" s="487" t="s">
+      <c r="AI8" s="481"/>
+      <c r="AJ8" s="482"/>
+      <c r="AK8" s="480" t="s">
         <v>7</v>
       </c>
-      <c r="AL8" s="488"/>
-      <c r="AM8" s="489"/>
+      <c r="AL8" s="481"/>
+      <c r="AM8" s="482"/>
       <c r="AN8" s="2"/>
       <c r="AO8" s="2"/>
       <c r="AP8" s="2"/>
@@ -36118,11 +36118,11 @@
       <c r="U9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="V9" s="492" t="str">
+      <c r="V9" s="491" t="str">
         <f ca="1">AS4</f>
         <v>˙</v>
       </c>
-      <c r="W9" s="491"/>
+      <c r="W9" s="490"/>
       <c r="X9" s="353" t="s">
         <v>891</v>
       </c>
@@ -36171,8 +36171,8 @@
         <f ca="1">AN6</f>
         <v>er</v>
       </c>
-      <c r="AK9" s="494"/>
-      <c r="AL9" s="495"/>
+      <c r="AK9" s="478"/>
+      <c r="AL9" s="479"/>
       <c r="AM9" s="8"/>
       <c r="AN9" s="4"/>
       <c r="AO9" s="4"/>
@@ -36239,31 +36239,31 @@
       <c r="B10" s="3"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="478" t="s">
+      <c r="E10" s="483" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="479"/>
-      <c r="G10" s="480"/>
-      <c r="H10" s="478" t="s">
+      <c r="F10" s="484"/>
+      <c r="G10" s="485"/>
+      <c r="H10" s="483" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="479"/>
-      <c r="J10" s="480"/>
+      <c r="I10" s="484"/>
+      <c r="J10" s="485"/>
       <c r="K10" s="324"/>
       <c r="L10" s="320" t="s">
         <v>746</v>
       </c>
       <c r="M10" s="323"/>
-      <c r="N10" s="478" t="s">
+      <c r="N10" s="483" t="s">
         <v>27</v>
       </c>
-      <c r="O10" s="479"/>
-      <c r="P10" s="480"/>
-      <c r="Q10" s="478" t="s">
+      <c r="O10" s="484"/>
+      <c r="P10" s="485"/>
+      <c r="Q10" s="483" t="s">
         <v>28</v>
       </c>
-      <c r="R10" s="479"/>
-      <c r="S10" s="480"/>
+      <c r="R10" s="484"/>
+      <c r="S10" s="485"/>
       <c r="T10" s="324"/>
       <c r="U10" s="320" t="s">
         <v>306</v>
@@ -36279,31 +36279,31 @@
         <v>615</v>
       </c>
       <c r="AB10" s="326"/>
-      <c r="AC10" s="496" t="s">
+      <c r="AC10" s="486" t="s">
         <v>32</v>
       </c>
-      <c r="AD10" s="497"/>
-      <c r="AE10" s="498"/>
-      <c r="AF10" s="496" t="s">
+      <c r="AD10" s="487"/>
+      <c r="AE10" s="488"/>
+      <c r="AF10" s="486" t="s">
         <v>33</v>
       </c>
-      <c r="AG10" s="497"/>
-      <c r="AH10" s="498"/>
-      <c r="AI10" s="496" t="s">
+      <c r="AG10" s="487"/>
+      <c r="AH10" s="488"/>
+      <c r="AI10" s="486" t="s">
         <v>34</v>
       </c>
-      <c r="AJ10" s="497"/>
-      <c r="AK10" s="498"/>
-      <c r="AL10" s="496" t="s">
+      <c r="AJ10" s="487"/>
+      <c r="AK10" s="488"/>
+      <c r="AL10" s="486" t="s">
         <v>35</v>
       </c>
-      <c r="AM10" s="497"/>
-      <c r="AN10" s="498"/>
-      <c r="AO10" s="487" t="s">
+      <c r="AM10" s="487"/>
+      <c r="AN10" s="488"/>
+      <c r="AO10" s="480" t="s">
         <v>36</v>
       </c>
-      <c r="AP10" s="488"/>
-      <c r="AQ10" s="489"/>
+      <c r="AP10" s="481"/>
+      <c r="AQ10" s="482"/>
       <c r="AR10" s="2"/>
       <c r="AV10" s="173" cm="1">
         <f t="array" ref="AV10" xml:space="preserve"> ROW() - ROW($8:$8)</f>
@@ -36481,14 +36481,14 @@
         <f ca="1">AK6</f>
         <v>enn</v>
       </c>
-      <c r="AI11" s="494"/>
-      <c r="AJ11" s="495"/>
+      <c r="AI11" s="478"/>
+      <c r="AJ11" s="479"/>
       <c r="AK11" s="8"/>
-      <c r="AL11" s="494"/>
-      <c r="AM11" s="495"/>
+      <c r="AL11" s="478"/>
+      <c r="AM11" s="479"/>
       <c r="AN11" s="8"/>
-      <c r="AO11" s="494"/>
-      <c r="AP11" s="495"/>
+      <c r="AO11" s="478"/>
+      <c r="AP11" s="479"/>
       <c r="AQ11" s="8"/>
       <c r="AR11" s="2"/>
       <c r="AV11" s="173" cm="1">
@@ -36549,61 +36549,61 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="478" t="s">
+      <c r="F12" s="483" t="s">
         <v>307</v>
       </c>
-      <c r="G12" s="479"/>
-      <c r="H12" s="480"/>
-      <c r="I12" s="478" t="s">
+      <c r="G12" s="484"/>
+      <c r="H12" s="485"/>
+      <c r="I12" s="483" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="479"/>
-      <c r="K12" s="480"/>
-      <c r="L12" s="478" t="s">
+      <c r="J12" s="484"/>
+      <c r="K12" s="485"/>
+      <c r="L12" s="483" t="s">
         <v>57</v>
       </c>
-      <c r="M12" s="479"/>
-      <c r="N12" s="480"/>
-      <c r="O12" s="478" t="s">
+      <c r="M12" s="484"/>
+      <c r="N12" s="485"/>
+      <c r="O12" s="483" t="s">
         <v>58</v>
       </c>
-      <c r="P12" s="479"/>
-      <c r="Q12" s="480"/>
-      <c r="R12" s="478" t="s">
+      <c r="P12" s="484"/>
+      <c r="Q12" s="485"/>
+      <c r="R12" s="483" t="s">
         <v>59</v>
       </c>
-      <c r="S12" s="479"/>
-      <c r="T12" s="480"/>
-      <c r="U12" s="478" t="s">
+      <c r="S12" s="484"/>
+      <c r="T12" s="485"/>
+      <c r="U12" s="483" t="s">
         <v>60</v>
       </c>
-      <c r="V12" s="479"/>
-      <c r="W12" s="480"/>
+      <c r="V12" s="484"/>
+      <c r="W12" s="485"/>
       <c r="X12" s="325"/>
       <c r="Y12" s="321" t="s">
         <v>742</v>
       </c>
       <c r="Z12" s="326"/>
-      <c r="AA12" s="496" t="s">
+      <c r="AA12" s="486" t="s">
         <v>62</v>
       </c>
-      <c r="AB12" s="497"/>
-      <c r="AC12" s="498"/>
+      <c r="AB12" s="487"/>
+      <c r="AC12" s="488"/>
       <c r="AD12" s="325"/>
       <c r="AE12" s="321" t="s">
         <v>724</v>
       </c>
       <c r="AF12" s="326"/>
-      <c r="AG12" s="496" t="s">
+      <c r="AG12" s="486" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="497"/>
-      <c r="AI12" s="498"/>
-      <c r="AJ12" s="487" t="s">
+      <c r="AH12" s="487"/>
+      <c r="AI12" s="488"/>
+      <c r="AJ12" s="480" t="s">
         <v>65</v>
       </c>
-      <c r="AK12" s="488"/>
-      <c r="AL12" s="489"/>
+      <c r="AK12" s="481"/>
+      <c r="AL12" s="482"/>
       <c r="AM12" s="2"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
@@ -36790,8 +36790,8 @@
         <f ca="1">AL6</f>
         <v>ang</v>
       </c>
-      <c r="AJ13" s="494"/>
-      <c r="AK13" s="495"/>
+      <c r="AJ13" s="478"/>
+      <c r="AK13" s="479"/>
       <c r="AL13" s="8"/>
       <c r="AM13" s="4"/>
       <c r="AN13" s="4"/>
@@ -36861,56 +36861,56 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="478" t="s">
+      <c r="G14" s="483" t="s">
         <v>303</v>
       </c>
-      <c r="H14" s="479"/>
-      <c r="I14" s="480"/>
-      <c r="J14" s="478" t="s">
+      <c r="H14" s="484"/>
+      <c r="I14" s="485"/>
+      <c r="J14" s="483" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="479"/>
-      <c r="L14" s="480"/>
-      <c r="M14" s="478" t="s">
+      <c r="K14" s="484"/>
+      <c r="L14" s="485"/>
+      <c r="M14" s="483" t="s">
         <v>83</v>
       </c>
-      <c r="N14" s="479"/>
-      <c r="O14" s="480"/>
-      <c r="P14" s="478" t="s">
+      <c r="N14" s="484"/>
+      <c r="O14" s="485"/>
+      <c r="P14" s="483" t="s">
         <v>84</v>
       </c>
-      <c r="Q14" s="479"/>
-      <c r="R14" s="480"/>
-      <c r="S14" s="478" t="s">
+      <c r="Q14" s="484"/>
+      <c r="R14" s="485"/>
+      <c r="S14" s="483" t="s">
         <v>85</v>
       </c>
-      <c r="T14" s="479"/>
-      <c r="U14" s="480"/>
-      <c r="V14" s="478" t="s">
+      <c r="T14" s="484"/>
+      <c r="U14" s="485"/>
+      <c r="V14" s="483" t="s">
         <v>86</v>
       </c>
-      <c r="W14" s="479"/>
-      <c r="X14" s="480"/>
-      <c r="Y14" s="496" t="s">
+      <c r="W14" s="484"/>
+      <c r="X14" s="485"/>
+      <c r="Y14" s="486" t="s">
         <v>87</v>
       </c>
-      <c r="Z14" s="497"/>
-      <c r="AA14" s="498"/>
+      <c r="Z14" s="487"/>
+      <c r="AA14" s="488"/>
       <c r="AB14" s="325"/>
       <c r="AC14" s="321" t="s">
         <v>758</v>
       </c>
       <c r="AD14" s="326"/>
-      <c r="AE14" s="496" t="s">
+      <c r="AE14" s="486" t="s">
         <v>88</v>
       </c>
-      <c r="AF14" s="497"/>
-      <c r="AG14" s="498"/>
-      <c r="AH14" s="487" t="s">
+      <c r="AF14" s="487"/>
+      <c r="AG14" s="488"/>
+      <c r="AH14" s="480" t="s">
         <v>89</v>
       </c>
-      <c r="AI14" s="488"/>
-      <c r="AJ14" s="489"/>
+      <c r="AI14" s="481"/>
+      <c r="AJ14" s="482"/>
       <c r="AK14" s="2"/>
       <c r="AL14" s="2"/>
       <c r="AM14" s="2"/>
@@ -40902,24 +40902,16 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:X8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="P14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="O12:Q12"/>
+    <mergeCell ref="R12:T12"/>
     <mergeCell ref="AO10:AQ10"/>
     <mergeCell ref="AI11:AJ11"/>
     <mergeCell ref="AL11:AM11"/>
@@ -40936,16 +40928,24 @@
     <mergeCell ref="AF10:AH10"/>
     <mergeCell ref="AI10:AK10"/>
     <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="O12:Q12"/>
-    <mergeCell ref="R12:T12"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="P14:R14"/>
-    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="AC10:AE10"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
